--- a/Пространственный эффект.xlsx
+++ b/Пространственный эффект.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" tabRatio="828" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Без коэффициентов и по пичкам" sheetId="9" r:id="rId1"/>
@@ -1418,16 +1418,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1436,17 +1439,14 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1514,6 +1514,320 @@
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="6"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.43758005249343834"/>
+                  <c:y val="0.25762394284047829"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="0.00000000000000000000E+00" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>АНФХ!$A$11:$A$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>АНФХ!$B$11:$B$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.84</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.41</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.59</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.67</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.74</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.81</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.88</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.95</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.06</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.11</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.15</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.24</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.26</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.26</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.26</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.24</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.15</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.08</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.99</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.87</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.72</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.5499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.11</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.87</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="69744896"/>
+        <c:axId val="69743360"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="69744896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="69743360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="69743360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="69744896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:spPr>
@@ -1532,8 +1846,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.24343300224726833"/>
-                  <c:y val="-1.4786016331291913E-2"/>
+                  <c:x val="-0.24343300224726838"/>
+                  <c:y val="-1.4786016331291911E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1709,7 +2023,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-1.9085310414629547E-2"/>
-                  <c:y val="0.34641404199475118"/>
+                  <c:y val="0.34641404199475129"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1772,7 +2086,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="3.2315029248794883E-2"/>
-                  <c:y val="0.35927456984543638"/>
+                  <c:y val="0.35927456984543643"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1912,8 +2226,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.15468409586056656"/>
-                  <c:y val="0.27750400991542751"/>
+                  <c:x val="0.15468409586056658"/>
+                  <c:y val="0.27750400991542756"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2002,23 +2316,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="73583232"/>
-        <c:axId val="73589120"/>
+        <c:axId val="107959424"/>
+        <c:axId val="107960960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="73583232"/>
+        <c:axId val="107959424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73589120"/>
+        <c:crossAx val="107960960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="73589120"/>
+        <c:axId val="107960960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2026,25 +2340,26 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73583232"/>
+        <c:crossAx val="107959424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
   <c:chart>
@@ -2055,9 +2370,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
           <c:trendline>
             <c:trendlineType val="poly"/>
             <c:order val="4"/>
@@ -2237,23 +2549,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="82395904"/>
-        <c:axId val="82397440"/>
+        <c:axId val="108309504"/>
+        <c:axId val="108323584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="82395904"/>
+        <c:axId val="108309504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82397440"/>
+        <c:crossAx val="108323584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82397440"/>
+        <c:axId val="108323584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2261,7 +2573,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82395904"/>
+        <c:crossAx val="108309504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2274,13 +2586,13 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
   <c:chart>
@@ -2352,7 +2664,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.11730993055583926"/>
           <c:y val="0.13947196965821568"/>
-          <c:w val="0.86411772889190475"/>
+          <c:w val="0.86411772889190452"/>
           <c:h val="0.76423253941870961"/>
         </c:manualLayout>
       </c:layout>
@@ -3127,11 +3439,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="82432000"/>
-        <c:axId val="82434304"/>
+        <c:axId val="108189568"/>
+        <c:axId val="108204416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="82432000"/>
+        <c:axId val="108189568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="310"/>
@@ -3185,7 +3497,7 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="0.36124015139803217"/>
-              <c:y val="0.95185883398686633"/>
+              <c:y val="0.95185883398686644"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -3198,12 +3510,12 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="82434304"/>
-        <c:crossesAt val="-5.0000000000000062E-3"/>
+        <c:crossAx val="108204416"/>
+        <c:crossesAt val="-5.000000000000007E-3"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82434304"/>
+        <c:axId val="108204416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3307,7 +3619,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.0605839398794255E-2"/>
+              <c:x val="1.0605839398794259E-2"/>
               <c:y val="0.40873655345793575"/>
             </c:manualLayout>
           </c:layout>
@@ -3321,7 +3633,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="82432000"/>
+        <c:crossAx val="108189568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3334,7 +3646,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.5952970970289545"/>
           <c:y val="0.15514586061405664"/>
-          <c:w val="0.29592819451847624"/>
+          <c:w val="0.29592819451847635"/>
           <c:h val="0.15109900638815094"/>
         </c:manualLayout>
       </c:layout>
@@ -3356,7 +3668,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
   <c:chart>
@@ -4733,11 +5045,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="82865536"/>
-        <c:axId val="83080704"/>
+        <c:axId val="108820736"/>
+        <c:axId val="108835200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="82865536"/>
+        <c:axId val="108820736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="85"/>
@@ -4791,7 +5103,7 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="0.36124015139803217"/>
-              <c:y val="0.95185883398686588"/>
+              <c:y val="0.95185883398686599"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -4804,14 +5116,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="83080704"/>
+        <c:crossAx val="108835200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
         <c:minorUnit val="2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="83080704"/>
+        <c:axId val="108835200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -4959,8 +5271,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.0605839398794264E-2"/>
-              <c:y val="0.32308858388393891"/>
+              <c:x val="1.0605839398794267E-2"/>
+              <c:y val="0.32308858388393902"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -4973,7 +5285,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="82865536"/>
+        <c:crossAx val="108820736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4992,9 +5304,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.33891984302871786"/>
-          <c:y val="0.65441085398444021"/>
-          <c:w val="0.22558418607431388"/>
+          <c:x val="0.33891984302871792"/>
+          <c:y val="0.65441085398444032"/>
+          <c:w val="0.22558418607431391"/>
           <c:h val="0.18887375798518868"/>
         </c:manualLayout>
       </c:layout>
@@ -5019,7 +5331,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="87" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="80" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5030,7 +5342,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="80" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5038,6 +5350,41 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5072,14 +5419,14 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
@@ -5107,7 +5454,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -5134,7 +5481,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -5303,7 +5650,7 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -5330,7 +5677,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -5704,8 +6051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:W29"/>
   <sheetViews>
-    <sheetView topLeftCell="H6" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5722,77 +6069,77 @@
   <sheetData>
     <row r="1" spans="2:23" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:23" ht="15.75" thickBot="1">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="G2" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="37" t="s">
+      <c r="I2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="38"/>
-      <c r="K2" s="39" t="s">
+      <c r="J2" s="41"/>
+      <c r="K2" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="L2" s="39" t="s">
+      <c r="L2" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="M2" s="39" t="s">
+      <c r="M2" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="O2" s="37" t="s">
+      <c r="O2" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="37" t="s">
+      <c r="P2" s="41"/>
+      <c r="Q2" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="R2" s="38"/>
-      <c r="S2" s="39" t="s">
+      <c r="R2" s="41"/>
+      <c r="S2" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="T2" s="39" t="s">
+      <c r="T2" s="38" t="s">
         <v>60</v>
       </c>
       <c r="W2" s="6"/>
     </row>
     <row r="3" spans="2:23" ht="15.75" thickBot="1">
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
       <c r="I3" s="26" t="s">
         <v>183</v>
       </c>
       <c r="J3" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
       <c r="O3" s="28" t="s">
         <v>185</v>
       </c>
@@ -5805,8 +6152,8 @@
       <c r="R3" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
       <c r="W3" s="6"/>
     </row>
     <row r="4" spans="2:23">
@@ -7450,12 +7797,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="S2:S3"/>
@@ -7466,6 +7807,12 @@
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7488,17 +7835,17 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="39" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="38" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7509,9 +7856,9 @@
       <c r="B3" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="19">
@@ -8096,10 +8443,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8107,7 +8454,7 @@
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8115,7 +8462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:6">
       <c r="A2" s="7">
         <v>100</v>
       </c>
@@ -8123,7 +8470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:6">
       <c r="A3" s="7">
         <v>98</v>
       </c>
@@ -8135,7 +8482,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:6">
       <c r="A4" s="7">
         <v>96</v>
       </c>
@@ -8147,7 +8494,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:6">
       <c r="A5" s="7">
         <v>94</v>
       </c>
@@ -8159,7 +8506,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:6">
       <c r="A6" s="7">
         <v>92</v>
       </c>
@@ -8171,7 +8518,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:6">
       <c r="A7" s="7">
         <v>90</v>
       </c>
@@ -8183,7 +8530,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:6">
       <c r="A8" s="7">
         <v>88</v>
       </c>
@@ -8195,7 +8542,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:6">
       <c r="A9" s="7">
         <v>86</v>
       </c>
@@ -8207,7 +8554,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:6">
       <c r="A10" s="7">
         <v>84</v>
       </c>
@@ -8219,7 +8566,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:6">
       <c r="A11" s="7">
         <v>82</v>
       </c>
@@ -8230,8 +8577,18 @@
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="19">
+        <v>1.2973999999999999</v>
+      </c>
+      <c r="E11">
+        <v>1.5744137046788791</v>
+      </c>
+      <c r="F11" s="19">
+        <f>100-(D11/(E11/100))</f>
+        <v>17.594721378227547</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="7">
         <v>80</v>
       </c>
@@ -8242,8 +8599,18 @@
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="16">
+        <v>1.4220999999999999</v>
+      </c>
+      <c r="E12">
+        <v>1.8223247758694687</v>
+      </c>
+      <c r="F12" s="19">
+        <f t="shared" ref="F12:F35" si="1">100-(D12/(E12/100))</f>
+        <v>21.962318746312022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="7">
         <v>78</v>
       </c>
@@ -8254,8 +8621,18 @@
         <f t="shared" si="0"/>
         <v>79</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="16">
+        <v>1.6184999999999998</v>
+      </c>
+      <c r="E13">
+        <v>2.0300136496823673</v>
+      </c>
+      <c r="F13" s="19">
+        <f t="shared" si="1"/>
+        <v>20.271472053735025</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="7">
         <v>76</v>
       </c>
@@ -8266,8 +8643,18 @@
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="16">
+        <v>1.5214000000000001</v>
+      </c>
+      <c r="E14">
+        <v>2.2014296728581741</v>
+      </c>
+      <c r="F14" s="19">
+        <f t="shared" si="1"/>
+        <v>30.890365531199265</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="7">
         <v>74</v>
       </c>
@@ -8278,8 +8665,18 @@
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="16">
+        <v>1.9419000000000002</v>
+      </c>
+      <c r="E15">
+        <v>2.3688521465682038</v>
+      </c>
+      <c r="F15" s="19">
+        <f t="shared" si="1"/>
+        <v>18.023587803347567</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="7">
         <v>72</v>
       </c>
@@ -8290,8 +8687,18 @@
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="16">
+        <v>2.1046</v>
+      </c>
+      <c r="E16">
+        <v>2.4940973616258835</v>
+      </c>
+      <c r="F16" s="19">
+        <f t="shared" si="1"/>
+        <v>15.616766515160137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="7">
         <v>70</v>
       </c>
@@ -8302,8 +8709,18 @@
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="16">
+        <v>2.1758999999999999</v>
+      </c>
+      <c r="E17">
+        <v>2.5967562723469677</v>
+      </c>
+      <c r="F17" s="19">
+        <f t="shared" si="1"/>
+        <v>16.206999356416091</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="7">
         <v>68</v>
       </c>
@@ -8314,8 +8731,18 @@
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="16">
+        <v>2.0566</v>
+      </c>
+      <c r="E18">
+        <v>2.7011596058949778</v>
+      </c>
+      <c r="F18" s="19">
+        <f t="shared" si="1"/>
+        <v>23.862329515379201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="7">
         <v>66</v>
       </c>
@@ -8326,8 +8753,18 @@
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="16">
+        <v>2.2295000000000003</v>
+      </c>
+      <c r="E19">
+        <v>3.2541052404041184</v>
+      </c>
+      <c r="F19" s="19">
+        <f t="shared" si="1"/>
+        <v>31.486542834640318</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="7">
         <v>64</v>
       </c>
@@ -8338,8 +8775,18 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" s="16">
+        <v>2.4504000000000001</v>
+      </c>
+      <c r="E20">
+        <v>3.2683999395728089</v>
+      </c>
+      <c r="F20" s="19">
+        <f t="shared" si="1"/>
+        <v>25.027535023138086</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="7">
         <v>62</v>
       </c>
@@ -8350,8 +8797,18 @@
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" s="16">
+        <v>2.6136000000000004</v>
+      </c>
+      <c r="E21">
+        <v>2.9815652085747257</v>
+      </c>
+      <c r="F21" s="19">
+        <f t="shared" si="1"/>
+        <v>12.341343651196667</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="7">
         <v>60</v>
       </c>
@@ -8362,8 +8819,18 @@
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" s="16">
+        <v>2.8765000000000001</v>
+      </c>
+      <c r="E22">
+        <v>3.0543693974707664</v>
+      </c>
+      <c r="F22" s="19">
+        <f t="shared" si="1"/>
+        <v>5.8234409242724468</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="7">
         <v>58</v>
       </c>
@@ -8374,8 +8841,18 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" s="16">
+        <v>2.8021000000000003</v>
+      </c>
+      <c r="E23">
+        <v>3.1197252139008005</v>
+      </c>
+      <c r="F23" s="19">
+        <f t="shared" si="1"/>
+        <v>10.18119200003683</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="7">
         <v>56</v>
       </c>
@@ -8386,8 +8863,18 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" s="16">
+        <v>2.9333</v>
+      </c>
+      <c r="E24">
+        <v>3.1760420388796029</v>
+      </c>
+      <c r="F24" s="19">
+        <f t="shared" si="1"/>
+        <v>7.6429101349437332</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="7">
         <v>54</v>
       </c>
@@ -8398,8 +8885,18 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" s="16">
+        <v>3.0473000000000003</v>
+      </c>
+      <c r="E25">
+        <v>3.2252287479203594</v>
+      </c>
+      <c r="F25" s="19">
+        <f t="shared" si="1"/>
+        <v>5.5167791752782733</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="7">
         <v>52</v>
       </c>
@@ -8410,8 +8907,18 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" s="16">
+        <v>2.9542999999999999</v>
+      </c>
+      <c r="E26">
+        <v>3.2554635327725072</v>
+      </c>
+      <c r="F26" s="19">
+        <f t="shared" si="1"/>
+        <v>9.2510184721996325</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="7">
         <v>50</v>
       </c>
@@ -8422,8 +8929,18 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" s="16">
+        <v>3.0419</v>
+      </c>
+      <c r="E27">
+        <v>3.2679042197065051</v>
+      </c>
+      <c r="F27" s="19">
+        <f t="shared" si="1"/>
+        <v>6.9158764918392421</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="7">
         <v>48</v>
       </c>
@@ -8434,8 +8951,18 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" s="16">
+        <v>3.2723999999999998</v>
+      </c>
+      <c r="E28">
+        <v>3.2429327780123782</v>
+      </c>
+      <c r="F28" s="19">
+        <f t="shared" si="1"/>
+        <v>-0.90865966101469553</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="7">
         <v>46</v>
       </c>
@@ -8446,8 +8973,18 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" s="16">
+        <v>3.5100000000000002</v>
+      </c>
+      <c r="E29">
+        <v>3.1452204072299792</v>
+      </c>
+      <c r="F29" s="19">
+        <f t="shared" si="1"/>
+        <v>-11.597902389654337</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="7">
         <v>44</v>
       </c>
@@ -8458,8 +8995,18 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" s="16">
+        <v>3.2214</v>
+      </c>
+      <c r="E30">
+        <v>3.063410921357447</v>
+      </c>
+      <c r="F30" s="19">
+        <f t="shared" si="1"/>
+        <v>-5.1572930533441337</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="7">
         <v>42</v>
       </c>
@@ -8470,8 +9017,18 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" s="16">
+        <v>3.1126</v>
+      </c>
+      <c r="E31">
+        <v>2.9415222351210182</v>
+      </c>
+      <c r="F31" s="19">
+        <f t="shared" si="1"/>
+        <v>-5.8159602819369383</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="7">
         <v>40</v>
       </c>
@@ -8482,8 +9039,18 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" s="16">
+        <v>2.9321999999999999</v>
+      </c>
+      <c r="E32">
+        <v>2.7656913375121954</v>
+      </c>
+      <c r="F32" s="19">
+        <f t="shared" si="1"/>
+        <v>-6.0205077923693011</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="7">
         <v>38</v>
       </c>
@@ -8494,8 +9061,18 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" s="16">
+        <v>2.4981</v>
+      </c>
+      <c r="E33">
+        <v>2.5193069803421704</v>
+      </c>
+      <c r="F33" s="19">
+        <f t="shared" si="1"/>
+        <v>0.84177833458350904</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="7">
         <v>36</v>
       </c>
@@ -8506,8 +9083,18 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" s="16">
+        <v>2.1177999999999999</v>
+      </c>
+      <c r="E34">
+        <v>2.1835281451875184</v>
+      </c>
+      <c r="F34" s="19">
+        <f t="shared" si="1"/>
+        <v>3.0101808090902296</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="7">
         <v>34</v>
       </c>
@@ -8518,8 +9105,18 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" s="16">
+        <v>1.7345999999999999</v>
+      </c>
+      <c r="E35">
+        <v>1.7768511995681306</v>
+      </c>
+      <c r="F35" s="19">
+        <f t="shared" si="1"/>
+        <v>2.3778693217755063</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="7">
         <v>32</v>
       </c>
@@ -8531,7 +9128,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:6">
       <c r="A37" s="7">
         <v>30</v>
       </c>
@@ -8543,7 +9140,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:6">
       <c r="A38" s="7">
         <v>28</v>
       </c>
@@ -8555,7 +9152,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:6">
       <c r="A39" s="7">
         <v>26</v>
       </c>
@@ -8567,7 +9164,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:6">
       <c r="A40" s="7">
         <v>24</v>
       </c>
@@ -8579,7 +9176,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:6">
       <c r="A41" s="7">
         <v>22</v>
       </c>
@@ -8591,7 +9188,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:6">
       <c r="A42" s="7">
         <v>20</v>
       </c>
@@ -8603,7 +9200,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:6">
       <c r="A43" s="7">
         <v>18</v>
       </c>
@@ -8615,7 +9212,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:6">
       <c r="A44" s="7">
         <v>16</v>
       </c>
@@ -8627,7 +9224,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:6">
       <c r="A45" s="7">
         <v>14</v>
       </c>
@@ -8639,7 +9236,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:6">
       <c r="A46" s="7">
         <v>12</v>
       </c>
@@ -8651,7 +9248,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:6">
       <c r="A47" s="7">
         <v>10</v>
       </c>
@@ -8663,7 +9260,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:6">
       <c r="A48" s="7">
         <v>8</v>
       </c>
@@ -8708,6 +9305,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8715,8 +9313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AB29"/>
   <sheetViews>
-    <sheetView topLeftCell="K6" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2:AB3"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AC7" sqref="AC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8731,110 +9329,110 @@
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:28" ht="15.75" thickBot="1">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="I2" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="41" t="s">
+      <c r="J2" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="45" t="s">
+      <c r="K2" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="45"/>
-      <c r="M2" s="41" t="s">
+      <c r="L2" s="44"/>
+      <c r="M2" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="41" t="s">
+      <c r="P2" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="41" t="s">
+      <c r="Q2" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="41" t="s">
+      <c r="R2" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="41" t="s">
+      <c r="S2" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="41" t="s">
+      <c r="T2" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="U2" s="41" t="s">
+      <c r="U2" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="41" t="s">
+      <c r="V2" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="Y2" s="43" t="s">
+      <c r="Y2" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="Z2" s="43" t="s">
+      <c r="Z2" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="AA2" s="39" t="s">
+      <c r="AA2" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="AB2" s="39" t="s">
+      <c r="AB2" s="38" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="15.75" thickBot="1">
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
       <c r="K3" s="31" t="s">
         <v>182</v>
       </c>
       <c r="L3" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="43"/>
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="39"/>
+      <c r="AB3" s="39"/>
     </row>
     <row r="4" spans="1:28">
       <c r="A4" s="12">
@@ -11044,6 +11642,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Z2:Z3"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="B2:B3"/>
@@ -11060,14 +11666,6 @@
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Z2:Z3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11078,8 +11676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:X74"/>
   <sheetViews>
-    <sheetView topLeftCell="P4" workbookViewId="0">
-      <selection activeCell="Z8" sqref="Z8"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="V5" sqref="V5:V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11097,56 +11695,56 @@
   <sheetData>
     <row r="1" spans="2:24" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:24" ht="15.75" thickBot="1">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="G2" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="37" t="s">
+      <c r="I2" s="40" t="s">
         <v>191</v>
       </c>
-      <c r="J2" s="38"/>
-      <c r="K2" s="39" t="s">
+      <c r="J2" s="41"/>
+      <c r="K2" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="L2" s="39" t="s">
+      <c r="L2" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="M2" s="39" t="s">
+      <c r="M2" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="O2" s="39" t="s">
+      <c r="O2" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="P2" s="39" t="s">
+      <c r="P2" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="38" t="s">
         <v>181</v>
       </c>
-      <c r="R2" s="39" t="s">
+      <c r="R2" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="S2" s="39" t="s">
+      <c r="S2" s="38" t="s">
         <v>60</v>
       </c>
       <c r="V2" t="s">
@@ -11154,28 +11752,28 @@
       </c>
     </row>
     <row r="3" spans="2:24" ht="15.75" thickBot="1">
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
       <c r="I3" s="28" t="s">
         <v>183</v>
       </c>
       <c r="J3" s="28" t="s">
         <v>184</v>
       </c>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
     </row>
     <row r="4" spans="2:24" ht="15.75" thickBot="1">
       <c r="B4" s="30" t="s">
@@ -11238,7 +11836,7 @@
       <c r="W4" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="X4" s="46" t="s">
+      <c r="X4" s="37" t="s">
         <v>181</v>
       </c>
     </row>
@@ -13816,6 +14414,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -13828,11 +14431,6 @@
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Пространственный эффект.xlsx
+++ b/Пространственный эффект.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" tabRatio="828" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" tabRatio="828" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Без коэффициентов и по пичкам" sheetId="9" r:id="rId1"/>
@@ -1528,7 +1528,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0.43758005249343834"/>
-                  <c:y val="0.25762394284047829"/>
+                  <c:y val="0.25762394284047835"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="0.00000000000000000000E+00" sourceLinked="0"/>
@@ -1776,23 +1776,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="69744896"/>
-        <c:axId val="69743360"/>
+        <c:axId val="140083200"/>
+        <c:axId val="140084736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="69744896"/>
+        <c:axId val="140083200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69743360"/>
+        <c:crossAx val="140084736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="69743360"/>
+        <c:axId val="140084736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1800,20 +1800,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69744896"/>
+        <c:crossAx val="140083200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1824,7 +1823,17 @@
   <c:lang val="ru-RU"/>
   <c:chart>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.4829190871688984E-2"/>
+          <c:y val="3.8899669863271369E-2"/>
+          <c:w val="0.58485764621888015"/>
+          <c:h val="0.84549493421324928"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:ser>
@@ -1846,8 +1855,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.24343300224726838"/>
-                  <c:y val="-1.4786016331291911E-2"/>
+                  <c:x val="-0.24343300224726847"/>
+                  <c:y val="-1.4786016331291906E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2023,7 +2032,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-1.9085310414629547E-2"/>
-                  <c:y val="0.34641404199475129"/>
+                  <c:y val="0.34641404199475156"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2086,7 +2095,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="3.2315029248794883E-2"/>
-                  <c:y val="0.35927456984543643"/>
+                  <c:y val="0.35927456984543665"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2226,8 +2235,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.15468409586056658"/>
-                  <c:y val="0.27750400991542756"/>
+                  <c:x val="0.15468409586056664"/>
+                  <c:y val="0.27750400991542767"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2316,23 +2325,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="107959424"/>
-        <c:axId val="107960960"/>
+        <c:axId val="142404992"/>
+        <c:axId val="142414976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="107959424"/>
+        <c:axId val="142404992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107960960"/>
+        <c:crossAx val="142414976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="107960960"/>
+        <c:axId val="142414976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2340,7 +2349,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107959424"/>
+        <c:crossAx val="142404992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2353,7 +2362,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2375,7 +2384,6 @@
             <c:order val="4"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="0.00000000000000000000E+00" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -2549,23 +2557,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="108309504"/>
-        <c:axId val="108323584"/>
+        <c:axId val="144205312"/>
+        <c:axId val="144206848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="108309504"/>
+        <c:axId val="144205312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108323584"/>
+        <c:crossAx val="144206848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="108323584"/>
+        <c:axId val="144206848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2573,20 +2581,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108309504"/>
+        <c:crossAx val="144205312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2653,7 +2660,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:plotArea>
@@ -2664,7 +2670,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.11730993055583926"/>
           <c:y val="0.13947196965821568"/>
-          <c:w val="0.86411772889190452"/>
+          <c:w val="0.8641177288919043"/>
           <c:h val="0.76423253941870961"/>
         </c:manualLayout>
       </c:layout>
@@ -3360,90 +3366,90 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>-8.9883195875071575E-4</c:v>
+                  <c:v>-1.5324620736547241E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-7.9119061961923037E-4</c:v>
+                  <c:v>-5.8718203910720045E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-9.6946083782700667E-4</c:v>
+                  <c:v>-1.3145155125166418E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-7.9574503002127761E-4</c:v>
+                  <c:v>-5.0838377037589388E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-9.9029474266805928E-4</c:v>
+                  <c:v>-9.354639668050132E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.2060103957047057E-3</c:v>
+                  <c:v>-1.1321371992057355E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-9.0110982241747048E-4</c:v>
+                  <c:v>-1.9937739682123366E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-8.3010684494375759E-4</c:v>
+                  <c:v>-1.5945749933614997E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-9.2487623599672253E-4</c:v>
+                  <c:v>7.6187851552611541E-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-6.3962971045463508E-4</c:v>
+                  <c:v>-1.2508386691851936E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-7.6608169735405606E-4</c:v>
+                  <c:v>-5.8957091088923587E-4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-7.5673827825772986E-4</c:v>
+                  <c:v>-4.8337949408301857E-4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-5.2461948238354341E-4</c:v>
+                  <c:v>-4.5430029494162829E-4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-5.3450605636299676E-4</c:v>
+                  <c:v>-6.064342437864989E-4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-4.8993336471525595E-4</c:v>
+                  <c:v>-9.6480213543396573E-5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-4.3101521427837871E-4</c:v>
+                  <c:v>-1.0451400225728736E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-3.0831027526370073E-4</c:v>
+                  <c:v>-1.7671525615566689E-4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-2.8684777274728956E-4</c:v>
+                  <c:v>-1.7660540865972277E-4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-2.7056611101223122E-4</c:v>
+                  <c:v>-3.4510760985043598E-4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-2.0971428781925728E-4</c:v>
+                  <c:v>-4.9053823602230402E-4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-1.1847815249039181E-4</c:v>
+                  <c:v>6.5121279733550277E-5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-2.506044090412093E-4</c:v>
+                  <c:v>-3.2076179198281801E-4</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-1.1197194099821235E-4</c:v>
+                  <c:v>-5.6016429892169518E-5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.5120569490444389E-5</c:v>
+                  <c:v>1.2562506560449178E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-4.182885065812534E-5</c:v>
+                  <c:v>2.6125254747091241E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="108189568"/>
-        <c:axId val="108204416"/>
+        <c:axId val="143725696"/>
+        <c:axId val="143727616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="108189568"/>
+        <c:axId val="143725696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="310"/>
@@ -3497,7 +3503,7 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="0.36124015139803217"/>
-              <c:y val="0.95185883398686644"/>
+              <c:y val="0.95185883398686666"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -3510,12 +3516,12 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="108204416"/>
-        <c:crossesAt val="-5.000000000000007E-3"/>
+        <c:crossAx val="143727616"/>
+        <c:crossesAt val="-5.0000000000000088E-3"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="108204416"/>
+        <c:axId val="143727616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3619,7 +3625,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.0605839398794259E-2"/>
+              <c:x val="1.0605839398794264E-2"/>
               <c:y val="0.40873655345793575"/>
             </c:manualLayout>
           </c:layout>
@@ -3633,7 +3639,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="108189568"/>
+        <c:crossAx val="143725696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3646,7 +3652,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.5952970970289545"/>
           <c:y val="0.15514586061405664"/>
-          <c:w val="0.29592819451847635"/>
+          <c:w val="0.29592819451847646"/>
           <c:h val="0.15109900638815094"/>
         </c:manualLayout>
       </c:layout>
@@ -3751,7 +3757,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:plotArea>
@@ -5045,11 +5050,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="108820736"/>
-        <c:axId val="108835200"/>
+        <c:axId val="144360576"/>
+        <c:axId val="144362496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="108820736"/>
+        <c:axId val="144360576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="85"/>
@@ -5103,7 +5108,7 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="0.36124015139803217"/>
-              <c:y val="0.95185883398686599"/>
+              <c:y val="0.95185883398686622"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -5116,14 +5121,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="108835200"/>
+        <c:crossAx val="144362496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
         <c:minorUnit val="2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="108835200"/>
+        <c:axId val="144362496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -5271,8 +5276,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.0605839398794267E-2"/>
-              <c:y val="0.32308858388393902"/>
+              <c:x val="1.0605839398794271E-2"/>
+              <c:y val="0.3230885838839393"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -5285,7 +5290,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="108820736"/>
+        <c:crossAx val="144360576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5304,8 +5309,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.33891984302871792"/>
-          <c:y val="0.65441085398444032"/>
+          <c:x val="0.33891984302871803"/>
+          <c:y val="0.65441085398444054"/>
           <c:w val="0.22558418607431391"/>
           <c:h val="0.18887375798518868"/>
         </c:manualLayout>
@@ -5388,16 +5393,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9313,8 +9318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AB29"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AC7" sqref="AC7"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AB9" sqref="AB9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9503,11 +9508,11 @@
         <v>-5.5655000000000001</v>
       </c>
       <c r="Y4" s="19">
-        <f t="shared" ref="Y4:Y29" si="0">(C4/$C$4)*($T$4/T4)*(1+0.01*($H$4-H4))</f>
+        <f>(C4/$C$4)*(T4/$T$4)*(1+0.01*($H$4-H4))</f>
         <v>1</v>
       </c>
       <c r="Z4" s="19">
-        <f t="shared" ref="Z4:Z29" si="1">(D4/$D$4)*($T$4/T4)*(1+0.01*($H$4-H4))</f>
+        <f>(D4/$D$4)*(T4/$T$4)*(1+0.01*($H$4-H4))</f>
         <v>1</v>
       </c>
       <c r="AA4" s="19"/>
@@ -9547,7 +9552,7 @@
         <v>6.8387000000000002</v>
       </c>
       <c r="K5" s="13">
-        <f t="shared" ref="K5:K29" si="2">L5/3.75</f>
+        <f t="shared" ref="K5:K29" si="0">L5/3.75</f>
         <v>80.106999999999999</v>
       </c>
       <c r="L5" s="1">
@@ -9583,20 +9588,20 @@
       <c r="V5" s="1">
         <v>-7.0465999999999998</v>
       </c>
-      <c r="Y5" s="16">
-        <f t="shared" si="0"/>
-        <v>1.0107859835050086</v>
+      <c r="Y5" s="19">
+        <f t="shared" ref="Y5:Y29" si="1">(C5/$C$4)*(T5/$T$4)*(1+0.01*($H$4-H5))</f>
+        <v>1.0183895448838567</v>
       </c>
       <c r="Z5" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="Z5:Z29" si="2">(D5/$D$4)*($T$4/T5)*(1+0.01*($H$4-H5))</f>
         <v>1.0101431144591084</v>
       </c>
       <c r="AA5" s="32">
-        <f t="shared" ref="AA5:AA29" si="3">(Y5-Y4)/(L5-L4)</f>
-        <v>-8.9883195875071575E-4</v>
+        <f>(Y5-Y4)/(L5-L4)</f>
+        <v>-1.5324620736547241E-3</v>
       </c>
       <c r="AB5" s="32">
-        <f t="shared" ref="AB5:AB29" si="4">(Z5-Z4)/(L5-L4)</f>
+        <f t="shared" ref="AB5:AB29" si="3">(Z5-Z4)/(L5-L4)</f>
         <v>-8.4525953825903555E-4</v>
       </c>
     </row>
@@ -9632,7 +9637,7 @@
         <v>6.8357000000000001</v>
       </c>
       <c r="K6" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>76.373000000000005</v>
       </c>
       <c r="L6" s="1">
@@ -9668,20 +9673,20 @@
       <c r="V6" s="1">
         <v>-8.9376999999999995</v>
       </c>
-      <c r="Y6" s="16">
-        <f t="shared" si="0"/>
-        <v>1.0218646301562269</v>
+      <c r="Y6" s="19">
+        <f t="shared" si="1"/>
+        <v>1.0266115613864553</v>
       </c>
       <c r="Z6" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0221611169038758</v>
       </c>
       <c r="AA6" s="32">
+        <f t="shared" ref="AA5:AA29" si="4">(Y6-Y5)/(L6-L5)</f>
+        <v>-5.8718203910720045E-4</v>
+      </c>
+      <c r="AB6" s="32">
         <f t="shared" si="3"/>
-        <v>-7.9119061961923037E-4</v>
-      </c>
-      <c r="AB6" s="32">
-        <f t="shared" si="4"/>
         <v>-8.5827548257578026E-4</v>
       </c>
     </row>
@@ -9717,7 +9722,7 @@
         <v>6.8371000000000004</v>
       </c>
       <c r="K7" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>73.707000000000008</v>
       </c>
       <c r="L7" s="1">
@@ -9753,20 +9758,20 @@
       <c r="V7" s="1">
         <v>-10.481999999999999</v>
       </c>
-      <c r="Y7" s="16">
-        <f t="shared" si="0"/>
-        <v>1.0315568148824024</v>
+      <c r="Y7" s="19">
+        <f t="shared" si="1"/>
+        <v>1.0397534302228404</v>
       </c>
       <c r="Z7" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0322815299184402</v>
       </c>
       <c r="AA7" s="32">
+        <f t="shared" si="4"/>
+        <v>-1.3145155125166418E-3</v>
+      </c>
+      <c r="AB7" s="32">
         <f t="shared" si="3"/>
-        <v>-9.6946083782700667E-4</v>
-      </c>
-      <c r="AB7" s="32">
-        <f t="shared" si="4"/>
         <v>-1.0122943750502079E-3</v>
       </c>
     </row>
@@ -9802,7 +9807,7 @@
         <v>6.8349000000000002</v>
       </c>
       <c r="K8" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>70.507000000000005</v>
       </c>
       <c r="L8" s="1">
@@ -9838,20 +9843,20 @@
       <c r="V8" s="1">
         <v>-12.276</v>
       </c>
-      <c r="Y8" s="16">
-        <f t="shared" si="0"/>
-        <v>1.0411057552426577</v>
+      <c r="Y8" s="19">
+        <f t="shared" si="1"/>
+        <v>1.0458540354673511</v>
       </c>
       <c r="Z8" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0428439363404074</v>
       </c>
       <c r="AA8" s="32">
+        <f t="shared" si="4"/>
+        <v>-5.0838377037589388E-4</v>
+      </c>
+      <c r="AB8" s="32">
         <f t="shared" si="3"/>
-        <v>-7.9574503002127761E-4</v>
-      </c>
-      <c r="AB8" s="32">
-        <f t="shared" si="4"/>
         <v>-8.8020053516392938E-4</v>
       </c>
     </row>
@@ -9887,7 +9892,7 @@
         <v>6.8364000000000003</v>
       </c>
       <c r="K9" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>67.307000000000002</v>
       </c>
       <c r="L9" s="1">
@@ -9923,20 +9928,20 @@
       <c r="V9" s="1">
         <v>-14.205</v>
       </c>
-      <c r="Y9" s="16">
-        <f t="shared" si="0"/>
-        <v>1.0529892921546744</v>
+      <c r="Y9" s="19">
+        <f t="shared" si="1"/>
+        <v>1.0570796030690113</v>
       </c>
       <c r="Z9" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0557355442938408</v>
       </c>
       <c r="AA9" s="32">
+        <f t="shared" si="4"/>
+        <v>-9.354639668050132E-4</v>
+      </c>
+      <c r="AB9" s="32">
         <f t="shared" si="3"/>
-        <v>-9.9029474266805928E-4</v>
-      </c>
-      <c r="AB9" s="32">
-        <f t="shared" si="4"/>
         <v>-1.0743006627861134E-3</v>
       </c>
     </row>
@@ -9972,7 +9977,7 @@
         <v>6.8384</v>
       </c>
       <c r="K10" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>65.173000000000002</v>
       </c>
       <c r="L10" s="13">
@@ -10008,20 +10013,20 @@
       <c r="V10" s="1">
         <v>-15.551</v>
       </c>
-      <c r="Y10" s="16">
-        <f t="shared" si="0"/>
-        <v>1.0626403903463013</v>
+      <c r="Y10" s="19">
+        <f t="shared" si="1"/>
+        <v>1.0661395310056552</v>
       </c>
       <c r="Z10" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0655077587088304</v>
       </c>
       <c r="AA10" s="32">
+        <f t="shared" si="4"/>
+        <v>-1.1321371992057355E-3</v>
+      </c>
+      <c r="AB10" s="32">
         <f t="shared" si="3"/>
-        <v>-1.2060103957047057E-3</v>
-      </c>
-      <c r="AB10" s="32">
-        <f t="shared" si="4"/>
         <v>-1.221145194000582E-3</v>
       </c>
     </row>
@@ -10057,7 +10062,7 @@
         <v>6.8399000000000001</v>
       </c>
       <c r="K11" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>62.506999999999998</v>
       </c>
       <c r="L11" s="14">
@@ -10093,20 +10098,20 @@
       <c r="V11" s="1">
         <v>-17.241</v>
       </c>
-      <c r="Y11" s="16">
-        <f t="shared" si="0"/>
-        <v>1.07164923579592</v>
+      <c r="Y11" s="19">
+        <f t="shared" si="1"/>
+        <v>1.086072286252858</v>
       </c>
       <c r="Z11" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0751065808496021</v>
       </c>
       <c r="AA11" s="32">
+        <f t="shared" si="4"/>
+        <v>-1.9937739682123366E-3</v>
+      </c>
+      <c r="AB11" s="32">
         <f t="shared" si="3"/>
-        <v>-9.0110982241747048E-4</v>
-      </c>
-      <c r="AB11" s="32">
-        <f t="shared" si="4"/>
         <v>-9.6012224463832728E-4</v>
       </c>
     </row>
@@ -10142,7 +10147,7 @@
         <v>6.8388999999999998</v>
       </c>
       <c r="K12" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>59.84</v>
       </c>
       <c r="L12" s="14">
@@ -10178,20 +10183,20 @@
       <c r="V12" s="1">
         <v>-19.056999999999999</v>
       </c>
-      <c r="Y12" s="16">
-        <f t="shared" si="0"/>
-        <v>1.0799513418789137</v>
+      <c r="Y12" s="19">
+        <f t="shared" si="1"/>
+        <v>1.1020200294052147</v>
       </c>
       <c r="Z12" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0846123490628081</v>
       </c>
       <c r="AA12" s="32">
+        <f t="shared" si="4"/>
+        <v>-1.5945749933614997E-3</v>
+      </c>
+      <c r="AB12" s="32">
         <f t="shared" si="3"/>
-        <v>-8.3010684494375759E-4</v>
-      </c>
-      <c r="AB12" s="32">
-        <f t="shared" si="4"/>
         <v>-9.5045801406884488E-4</v>
       </c>
     </row>
@@ -10227,7 +10232,7 @@
         <v>6.8402000000000003</v>
       </c>
       <c r="K13" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>56.64</v>
       </c>
       <c r="L13" s="14">
@@ -10263,20 +10268,20 @@
       <c r="V13" s="1">
         <v>-20.702999999999999</v>
       </c>
-      <c r="Y13" s="16">
-        <f t="shared" si="0"/>
-        <v>1.0910498567108744</v>
+      <c r="Y13" s="19">
+        <f t="shared" si="1"/>
+        <v>1.1011057751865834</v>
       </c>
       <c r="Z13" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0962479830912495</v>
       </c>
       <c r="AA13" s="32">
+        <f t="shared" si="4"/>
+        <v>7.6187851552611541E-5</v>
+      </c>
+      <c r="AB13" s="32">
         <f t="shared" si="3"/>
-        <v>-9.2487623599672253E-4</v>
-      </c>
-      <c r="AB13" s="32">
-        <f t="shared" si="4"/>
         <v>-9.6963616903678052E-4</v>
       </c>
     </row>
@@ -10312,7 +10317,7 @@
         <v>6.8388</v>
       </c>
       <c r="K14" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>53.972999999999999</v>
       </c>
       <c r="L14" s="14">
@@ -10348,20 +10353,20 @@
       <c r="V14" s="1">
         <v>-22.009</v>
       </c>
-      <c r="Y14" s="16">
-        <f t="shared" si="0"/>
-        <v>1.0974469533525588</v>
+      <c r="Y14" s="19">
+        <f t="shared" si="1"/>
+        <v>1.1136157254267718</v>
       </c>
       <c r="Z14" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1036878881533254</v>
       </c>
       <c r="AA14" s="32">
+        <f t="shared" si="4"/>
+        <v>-1.2508386691851936E-3</v>
+      </c>
+      <c r="AB14" s="32">
         <f t="shared" si="3"/>
-        <v>-6.3962971045463508E-4</v>
-      </c>
-      <c r="AB14" s="32">
-        <f t="shared" si="4"/>
         <v>-7.4389751901771529E-4</v>
       </c>
     </row>
@@ -10397,7 +10402,7 @@
         <v>6.8411999999999997</v>
       </c>
       <c r="K15" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>51.307000000000002</v>
       </c>
       <c r="L15" s="14">
@@ -10433,20 +10438,20 @@
       <c r="V15" s="1">
         <v>-23.062000000000001</v>
       </c>
-      <c r="Y15" s="16">
-        <f t="shared" si="0"/>
-        <v>1.105105855121856</v>
+      <c r="Y15" s="19">
+        <f t="shared" si="1"/>
+        <v>1.1195099606083869</v>
       </c>
       <c r="Z15" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1122875219350818</v>
       </c>
       <c r="AA15" s="32">
+        <f t="shared" si="4"/>
+        <v>-5.8957091088923587E-4</v>
+      </c>
+      <c r="AB15" s="32">
         <f t="shared" si="3"/>
-        <v>-7.6608169735405606E-4</v>
-      </c>
-      <c r="AB15" s="32">
-        <f t="shared" si="4"/>
         <v>-8.6017842278133844E-4</v>
       </c>
     </row>
@@ -10482,7 +10487,7 @@
         <v>6.8391999999999999</v>
       </c>
       <c r="K16" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>48.64</v>
       </c>
       <c r="L16" s="14">
@@ -10518,20 +10523,20 @@
       <c r="V16" s="1">
         <v>-24.024000000000001</v>
       </c>
-      <c r="Y16" s="16">
-        <f t="shared" si="0"/>
-        <v>1.1126741838272811</v>
+      <c r="Y16" s="19">
+        <f t="shared" si="1"/>
+        <v>1.1243443597735847</v>
       </c>
       <c r="Z16" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1200739039039829</v>
       </c>
       <c r="AA16" s="32">
+        <f t="shared" si="4"/>
+        <v>-4.8337949408301857E-4</v>
+      </c>
+      <c r="AB16" s="32">
         <f t="shared" si="3"/>
-        <v>-7.5673827825772986E-4</v>
-      </c>
-      <c r="AB16" s="32">
-        <f t="shared" si="4"/>
         <v>-7.7854087928019248E-4</v>
       </c>
     </row>
@@ -10567,7 +10572,7 @@
         <v>6.8375000000000004</v>
       </c>
       <c r="K17" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>45.972999999999999</v>
       </c>
       <c r="L17" s="14">
@@ -10603,20 +10608,20 @@
       <c r="V17" s="1">
         <v>-24.742999999999999</v>
       </c>
-      <c r="Y17" s="16">
-        <f t="shared" si="0"/>
-        <v>1.1179210344254695</v>
+      <c r="Y17" s="19">
+        <f t="shared" si="1"/>
+        <v>1.1288879305983697</v>
       </c>
       <c r="Z17" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1263309001246264</v>
       </c>
       <c r="AA17" s="32">
+        <f t="shared" si="4"/>
+        <v>-4.5430029494162829E-4</v>
+      </c>
+      <c r="AB17" s="32">
         <f t="shared" si="3"/>
-        <v>-5.2461948238354341E-4</v>
-      </c>
-      <c r="AB17" s="32">
-        <f t="shared" si="4"/>
         <v>-6.2562141938693407E-4</v>
       </c>
     </row>
@@ -10652,7 +10657,7 @@
         <v>6.8369</v>
       </c>
       <c r="K18" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>43.307000000000002</v>
       </c>
       <c r="L18" s="14">
@@ -10688,20 +10693,20 @@
       <c r="V18" s="1">
         <v>-25.196000000000002</v>
       </c>
-      <c r="Y18" s="16">
-        <f t="shared" si="0"/>
-        <v>1.1232647587239586</v>
+      <c r="Y18" s="19">
+        <f t="shared" si="1"/>
+        <v>1.1349507569506252</v>
       </c>
       <c r="Z18" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1326568095064833</v>
       </c>
       <c r="AA18" s="32">
+        <f t="shared" si="4"/>
+        <v>-6.064342437864989E-4</v>
+      </c>
+      <c r="AB18" s="32">
         <f t="shared" si="3"/>
-        <v>-5.3450605636299676E-4</v>
-      </c>
-      <c r="AB18" s="32">
-        <f t="shared" si="4"/>
         <v>-6.3274912546705086E-4</v>
       </c>
     </row>
@@ -10737,7 +10742,7 @@
         <v>6.8372000000000002</v>
       </c>
       <c r="K19" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>40.106999999999999</v>
       </c>
       <c r="L19" s="14">
@@ -10773,20 +10778,20 @@
       <c r="V19" s="1">
         <v>-25.433</v>
       </c>
-      <c r="Y19" s="16">
-        <f t="shared" si="0"/>
-        <v>1.1291439591005417</v>
+      <c r="Y19" s="19">
+        <f t="shared" si="1"/>
+        <v>1.136108519513146</v>
       </c>
       <c r="Z19" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1389789335788625</v>
       </c>
       <c r="AA19" s="32">
+        <f t="shared" si="4"/>
+        <v>-9.6480213543396573E-5</v>
+      </c>
+      <c r="AB19" s="32">
         <f t="shared" si="3"/>
-        <v>-4.8993336471525595E-4</v>
-      </c>
-      <c r="AB19" s="32">
-        <f t="shared" si="4"/>
         <v>-5.2684367269826649E-4</v>
       </c>
     </row>
@@ -10822,7 +10827,7 @@
         <v>6.8392999999999997</v>
       </c>
       <c r="K20" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>37.972999999999999</v>
       </c>
       <c r="L20" s="1">
@@ -10858,20 +10863,20 @@
       <c r="V20" s="1">
         <v>-25.372</v>
       </c>
-      <c r="Y20" s="16">
-        <f t="shared" si="0"/>
-        <v>1.1325931583528044</v>
+      <c r="Y20" s="19">
+        <f t="shared" si="1"/>
+        <v>1.1444722525437854</v>
       </c>
       <c r="Z20" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1425998853218826</v>
       </c>
       <c r="AA20" s="32">
+        <f t="shared" si="4"/>
+        <v>-1.0451400225728736E-3</v>
+      </c>
+      <c r="AB20" s="32">
         <f t="shared" si="3"/>
-        <v>-4.3101521427837871E-4</v>
-      </c>
-      <c r="AB20" s="32">
-        <f t="shared" si="4"/>
         <v>-4.5247756863731704E-4</v>
       </c>
     </row>
@@ -10907,7 +10912,7 @@
         <v>6.8373999999999997</v>
       </c>
       <c r="K21" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>35.307000000000002</v>
       </c>
       <c r="L21" s="1">
@@ -10943,20 +10948,20 @@
       <c r="V21" s="1">
         <v>-25.01</v>
       </c>
-      <c r="Y21" s="16">
-        <f t="shared" si="0"/>
-        <v>1.1356754903297532</v>
+      <c r="Y21" s="19">
+        <f t="shared" si="1"/>
+        <v>1.1462389633172017</v>
       </c>
       <c r="Z21" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1463065787622815</v>
       </c>
       <c r="AA21" s="32">
+        <f t="shared" si="4"/>
+        <v>-1.7671525615566689E-4</v>
+      </c>
+      <c r="AB21" s="32">
         <f t="shared" si="3"/>
-        <v>-3.0831027526370073E-4</v>
-      </c>
-      <c r="AB21" s="32">
-        <f t="shared" si="4"/>
         <v>-3.7076203454852378E-4</v>
       </c>
     </row>
@@ -10992,7 +10997,7 @@
         <v>6.8392999999999997</v>
       </c>
       <c r="K22" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>28.907</v>
       </c>
       <c r="L22" s="1">
@@ -11028,20 +11033,20 @@
       <c r="V22" s="1">
         <v>-23.146999999999998</v>
       </c>
-      <c r="Y22" s="16">
-        <f t="shared" si="0"/>
-        <v>1.1425598368756882</v>
+      <c r="Y22" s="19">
+        <f t="shared" si="1"/>
+        <v>1.150477493125035</v>
       </c>
       <c r="Z22" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1529118882030123</v>
       </c>
       <c r="AA22" s="32">
+        <f t="shared" si="4"/>
+        <v>-1.7660540865972277E-4</v>
+      </c>
+      <c r="AB22" s="32">
         <f t="shared" si="3"/>
-        <v>-2.8684777274728956E-4</v>
-      </c>
-      <c r="AB22" s="32">
-        <f t="shared" si="4"/>
         <v>-2.7522122669711618E-4</v>
       </c>
     </row>
@@ -11077,7 +11082,7 @@
         <v>6.8376999999999999</v>
       </c>
       <c r="K23" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>26.773</v>
       </c>
       <c r="L23" s="1">
@@ -11113,20 +11118,20 @@
       <c r="V23" s="1">
         <v>-22.344999999999999</v>
       </c>
-      <c r="Y23" s="16">
-        <f t="shared" si="0"/>
-        <v>1.1447250421790636</v>
+      <c r="Y23" s="19">
+        <f t="shared" si="1"/>
+        <v>1.1532392167728631</v>
       </c>
       <c r="Z23" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1548332482640706</v>
       </c>
       <c r="AA23" s="32">
+        <f t="shared" si="4"/>
+        <v>-3.4510760985043598E-4</v>
+      </c>
+      <c r="AB23" s="32">
         <f t="shared" si="3"/>
-        <v>-2.7056611101223122E-4</v>
-      </c>
-      <c r="AB23" s="32">
-        <f t="shared" si="4"/>
         <v>-2.400949779516852E-4</v>
       </c>
     </row>
@@ -11162,7 +11167,7 @@
         <v>6.8388999999999998</v>
       </c>
       <c r="K24" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>24.64</v>
       </c>
       <c r="L24" s="1">
@@ -11198,20 +11203,20 @@
       <c r="V24" s="1">
         <v>-21.39</v>
       </c>
-      <c r="Y24" s="16">
-        <f t="shared" si="0"/>
-        <v>1.1464024943387578</v>
+      <c r="Y24" s="19">
+        <f t="shared" si="1"/>
+        <v>1.1571629094882465</v>
       </c>
       <c r="Z24" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1557911366172173</v>
       </c>
       <c r="AA24" s="32">
+        <f t="shared" si="4"/>
+        <v>-4.9053823602230402E-4</v>
+      </c>
+      <c r="AB24" s="32">
         <f t="shared" si="3"/>
-        <v>-2.0971428781925728E-4</v>
-      </c>
-      <c r="AB24" s="32">
-        <f t="shared" si="4"/>
         <v>-1.1975475582393474E-4</v>
       </c>
     </row>
@@ -11247,7 +11252,7 @@
         <v>6.8404999999999996</v>
       </c>
       <c r="K25" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>21.972999999999999</v>
       </c>
       <c r="L25" s="1">
@@ -11283,20 +11288,20 @@
       <c r="V25" s="1">
         <v>-20.109000000000002</v>
       </c>
-      <c r="Y25" s="16">
-        <f t="shared" si="0"/>
-        <v>1.1475874239613524</v>
+      <c r="Y25" s="19">
+        <f t="shared" si="1"/>
+        <v>1.1565116152893113</v>
       </c>
       <c r="Z25" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1562599214418137</v>
       </c>
       <c r="AA25" s="32">
+        <f t="shared" si="4"/>
+        <v>6.5121279733550277E-5</v>
+      </c>
+      <c r="AB25" s="32">
         <f t="shared" si="3"/>
-        <v>-1.1847815249039181E-4</v>
-      </c>
-      <c r="AB25" s="32">
-        <f t="shared" si="4"/>
         <v>-4.6872623381710775E-5</v>
       </c>
     </row>
@@ -11332,7 +11337,7 @@
         <v>6.8372000000000002</v>
       </c>
       <c r="K26" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>19.306999999999999</v>
       </c>
       <c r="L26" s="1">
@@ -11368,20 +11373,20 @@
       <c r="V26" s="1">
         <v>-18.538</v>
       </c>
-      <c r="Y26" s="16">
-        <f t="shared" si="0"/>
-        <v>1.1500928415407419</v>
+      <c r="Y26" s="19">
+        <f t="shared" si="1"/>
+        <v>1.1597184313046596</v>
       </c>
       <c r="Z26" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1578648140782186</v>
       </c>
       <c r="AA26" s="32">
+        <f t="shared" si="4"/>
+        <v>-3.2076179198281801E-4</v>
+      </c>
+      <c r="AB26" s="32">
         <f t="shared" si="3"/>
-        <v>-2.506044090412093E-4</v>
-      </c>
-      <c r="AB26" s="32">
-        <f t="shared" si="4"/>
         <v>-1.6052939598949266E-4</v>
       </c>
     </row>
@@ -11417,7 +11422,7 @@
         <v>6.8364000000000003</v>
       </c>
       <c r="K27" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>16.106999999999999</v>
       </c>
       <c r="L27" s="1">
@@ -11453,20 +11458,20 @@
       <c r="V27" s="1">
         <v>-16.747</v>
       </c>
-      <c r="Y27" s="16">
-        <f t="shared" si="0"/>
-        <v>1.1514365048327204</v>
+      <c r="Y27" s="19">
+        <f t="shared" si="1"/>
+        <v>1.1603906284633656</v>
       </c>
       <c r="Z27" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1582490008459188</v>
       </c>
       <c r="AA27" s="32">
+        <f t="shared" si="4"/>
+        <v>-5.6016429892169518E-5</v>
+      </c>
+      <c r="AB27" s="32">
         <f t="shared" si="3"/>
-        <v>-1.1197194099821235E-4</v>
-      </c>
-      <c r="AB27" s="32">
-        <f t="shared" si="4"/>
         <v>-3.2015563975011207E-5</v>
       </c>
     </row>
@@ -11502,7 +11507,7 @@
         <v>6.8330000000000002</v>
       </c>
       <c r="K28" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>12.907</v>
       </c>
       <c r="L28" s="1">
@@ -11538,20 +11543,20 @@
       <c r="V28" s="1">
         <v>-15.1</v>
       </c>
-      <c r="Y28" s="16">
-        <f t="shared" si="0"/>
-        <v>1.1511350579988351</v>
+      <c r="Y28" s="19">
+        <f t="shared" si="1"/>
+        <v>1.1453156205908266</v>
       </c>
       <c r="Z28" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1585168550152194</v>
       </c>
       <c r="AA28" s="32">
+        <f t="shared" si="4"/>
+        <v>1.2562506560449178E-3</v>
+      </c>
+      <c r="AB28" s="32">
         <f t="shared" si="3"/>
-        <v>2.5120569490444389E-5</v>
-      </c>
-      <c r="AB28" s="32">
-        <f t="shared" si="4"/>
         <v>-2.2321180775053406E-5</v>
       </c>
     </row>
@@ -11587,7 +11592,7 @@
         <v>6.8136999999999999</v>
       </c>
       <c r="K29" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>9.7066999999999997</v>
       </c>
       <c r="L29" s="14">
@@ -11623,20 +11628,20 @@
       <c r="V29" s="1">
         <v>-13.613</v>
       </c>
-      <c r="Y29" s="16">
-        <f t="shared" si="0"/>
-        <v>1.1516370512641896</v>
+      <c r="Y29" s="19">
+        <f t="shared" si="1"/>
+        <v>1.113962375803158</v>
       </c>
       <c r="Z29" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1577300917512185</v>
       </c>
       <c r="AA29" s="32">
+        <f t="shared" si="4"/>
+        <v>2.6125254747091241E-3</v>
+      </c>
+      <c r="AB29" s="32">
         <f t="shared" si="3"/>
-        <v>-4.182885065812534E-5</v>
-      </c>
-      <c r="AB29" s="32">
-        <f t="shared" si="4"/>
         <v>6.5557459321592326E-5</v>
       </c>
     </row>
@@ -11676,7 +11681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:X74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView topLeftCell="O1" workbookViewId="0">
       <selection activeCell="V5" sqref="V5:V22"/>
     </sheetView>
   </sheetViews>

--- a/Пространственный эффект.xlsx
+++ b/Пространственный эффект.xlsx
@@ -4,23 +4,24 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" tabRatio="828" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" tabRatio="828" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Без коэффициентов и по пичкам" sheetId="9" r:id="rId1"/>
     <sheet name="С оптимальными коэффициентами" sheetId="1" r:id="rId2"/>
     <sheet name="АНФХ" sheetId="2" r:id="rId3"/>
-    <sheet name="Расчет прос. эф. по эксп. знач." sheetId="6" r:id="rId4"/>
-    <sheet name="С реальными коэффициентами" sheetId="11" r:id="rId5"/>
-    <sheet name="График коэфф." sheetId="4" r:id="rId6"/>
-    <sheet name="График диф. эфф." sheetId="5" r:id="rId7"/>
+    <sheet name="Диаграмма1" sheetId="12" r:id="rId4"/>
+    <sheet name="Расчет прос. эф. по эксп. знач." sheetId="6" r:id="rId5"/>
+    <sheet name="С реальными коэффициентами" sheetId="11" r:id="rId6"/>
+    <sheet name="График коэфф." sheetId="4" r:id="rId7"/>
+    <sheet name="График диф. эфф." sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="195">
   <si>
     <t>Hор, %</t>
   </si>
@@ -672,6 +673,9 @@
   </si>
   <si>
     <t>Нор, %</t>
+  </si>
+  <si>
+    <t>из</t>
   </si>
 </sst>
 </file>
@@ -880,7 +884,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1063,6 +1067,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1346,7 +1368,7 @@
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1421,16 +1443,16 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1439,15 +1461,44 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="35" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="35" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="35" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="36" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="36" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="36" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1776,23 +1827,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="140083200"/>
-        <c:axId val="140084736"/>
+        <c:axId val="67515136"/>
+        <c:axId val="67516672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="140083200"/>
+        <c:axId val="67515136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140084736"/>
+        <c:crossAx val="67516672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="140084736"/>
+        <c:axId val="67516672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1800,19 +1851,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140083200"/>
+        <c:crossAx val="67515136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1828,10 +1880,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.4829190871688984E-2"/>
-          <c:y val="3.8899669863271369E-2"/>
-          <c:w val="0.58485764621888015"/>
-          <c:h val="0.84549493421324928"/>
+          <c:x val="0.11213639756024088"/>
+          <c:y val="8.4857119876069503E-2"/>
+          <c:w val="0.58485764621888048"/>
+          <c:h val="0.8454949342132495"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1855,11 +1907,21 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.24343300224726847"/>
-                  <c:y val="-1.4786016331291906E-2"/>
+                  <c:x val="-0.24343300224726858"/>
+                  <c:y val="-1.4786016331291903E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="2400"/>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
@@ -1966,6 +2028,16 @@
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="2400"/>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
@@ -2032,10 +2104,20 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-1.9085310414629547E-2"/>
-                  <c:y val="0.34641404199475156"/>
+                  <c:y val="0.34641404199475179"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="2400"/>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
@@ -2095,10 +2177,20 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="3.2315029248794883E-2"/>
-                  <c:y val="0.35927456984543665"/>
+                  <c:y val="0.35927456984543688"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="2400"/>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
@@ -2235,8 +2327,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.15468409586056664"/>
-                  <c:y val="0.27750400991542767"/>
+                  <c:x val="0.15468409586056672"/>
+                  <c:y val="0.27750400991542784"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2291,6 +2383,16 @@
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1400"/>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
@@ -2325,23 +2427,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="142404992"/>
-        <c:axId val="142414976"/>
+        <c:axId val="95369472"/>
+        <c:axId val="95383552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="142404992"/>
+        <c:axId val="95369472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142414976"/>
+        <c:crossAx val="95383552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142414976"/>
+        <c:axId val="95383552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2349,7 +2451,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142404992"/>
+        <c:crossAx val="95369472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2360,11 +2462,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -2384,6 +2481,7 @@
             <c:order val="4"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="0.00000000000000000000E+00" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -2557,23 +2655,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="144205312"/>
-        <c:axId val="144206848"/>
+        <c:axId val="113805184"/>
+        <c:axId val="113806720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="144205312"/>
+        <c:axId val="113805184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144206848"/>
+        <c:crossAx val="113806720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="144206848"/>
+        <c:axId val="113806720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2581,19 +2679,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144205312"/>
+        <c:crossAx val="113805184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2660,6 +2759,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:plotArea>
@@ -2670,7 +2770,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.11730993055583926"/>
           <c:y val="0.13947196965821568"/>
-          <c:w val="0.8641177288919043"/>
+          <c:w val="0.86411772889190419"/>
           <c:h val="0.76423253941870961"/>
         </c:manualLayout>
       </c:layout>
@@ -3445,11 +3545,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="143725696"/>
-        <c:axId val="143727616"/>
+        <c:axId val="67699840"/>
+        <c:axId val="67702144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="143725696"/>
+        <c:axId val="67699840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="310"/>
@@ -3503,7 +3603,7 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="0.36124015139803217"/>
-              <c:y val="0.95185883398686666"/>
+              <c:y val="0.95185883398686677"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -3516,12 +3616,12 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="143727616"/>
-        <c:crossesAt val="-5.0000000000000088E-3"/>
+        <c:crossAx val="67702144"/>
+        <c:crossesAt val="-5.0000000000000096E-3"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="143727616"/>
+        <c:axId val="67702144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3625,7 +3725,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.0605839398794264E-2"/>
+              <c:x val="1.0605839398794267E-2"/>
               <c:y val="0.40873655345793575"/>
             </c:manualLayout>
           </c:layout>
@@ -3639,7 +3739,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="143725696"/>
+        <c:crossAx val="67699840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3652,7 +3752,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.5952970970289545"/>
           <c:y val="0.15514586061405664"/>
-          <c:w val="0.29592819451847646"/>
+          <c:w val="0.29592819451847652"/>
           <c:h val="0.15109900638815094"/>
         </c:manualLayout>
       </c:layout>
@@ -3757,6 +3857,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:plotArea>
@@ -4971,7 +5072,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>1.1831441785008443</c:v>
+                  <c:v>1.1831441785008401</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.4498341142144802</c:v>
@@ -5050,11 +5151,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="144360576"/>
-        <c:axId val="144362496"/>
+        <c:axId val="68044288"/>
+        <c:axId val="68046208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="144360576"/>
+        <c:axId val="68044288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="85"/>
@@ -5108,7 +5209,7 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="0.36124015139803217"/>
-              <c:y val="0.95185883398686622"/>
+              <c:y val="0.95185883398686633"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -5121,14 +5222,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="144362496"/>
+        <c:crossAx val="68046208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
         <c:minorUnit val="2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="144362496"/>
+        <c:axId val="68046208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -5276,8 +5377,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.0605839398794271E-2"/>
-              <c:y val="0.3230885838839393"/>
+              <c:x val="1.0605839398794274E-2"/>
+              <c:y val="0.32308858388393941"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -5290,7 +5391,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="144360576"/>
+        <c:crossAx val="68044288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5309,8 +5410,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.33891984302871803"/>
-          <c:y val="0.65441085398444054"/>
+          <c:x val="0.33891984302871814"/>
+          <c:y val="0.65441085398444065"/>
           <c:w val="0.22558418607431391"/>
           <c:h val="0.18887375798518868"/>
         </c:manualLayout>
@@ -5336,6 +5437,17 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
+    <sheetView zoomScale="81" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
     <sheetView zoomScale="80" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5343,7 +5455,7 @@
 </chartsheet>
 </file>
 
-<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
@@ -5391,23 +5503,15 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
-    </xdr:to>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9301574" cy="6079537"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Диаграмма 1"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5420,7 +5524,7 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6074,77 +6178,77 @@
   <sheetData>
     <row r="1" spans="2:23" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:23" ht="15.75" thickBot="1">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="40" t="s">
+      <c r="I2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="41"/>
-      <c r="K2" s="38" t="s">
+      <c r="J2" s="39"/>
+      <c r="K2" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="L2" s="38" t="s">
+      <c r="L2" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="M2" s="38" t="s">
+      <c r="M2" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="N2" s="38" t="s">
+      <c r="N2" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="O2" s="40" t="s">
+      <c r="O2" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="40" t="s">
+      <c r="P2" s="39"/>
+      <c r="Q2" s="38" t="s">
         <v>181</v>
       </c>
-      <c r="R2" s="41"/>
-      <c r="S2" s="38" t="s">
+      <c r="R2" s="39"/>
+      <c r="S2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="T2" s="38" t="s">
+      <c r="T2" s="40" t="s">
         <v>60</v>
       </c>
       <c r="W2" s="6"/>
     </row>
     <row r="3" spans="2:23" ht="15.75" thickBot="1">
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
       <c r="I3" s="26" t="s">
         <v>183</v>
       </c>
       <c r="J3" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
       <c r="O3" s="28" t="s">
         <v>185</v>
       </c>
@@ -6157,8 +6261,8 @@
       <c r="R3" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
       <c r="W3" s="6"/>
     </row>
     <row r="4" spans="2:23">
@@ -7802,6 +7906,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="S2:S3"/>
@@ -7812,12 +7922,6 @@
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7840,17 +7944,17 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="38" t="s">
+      <c r="B2" s="39"/>
+      <c r="C2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="40" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7861,9 +7965,9 @@
       <c r="B3" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="19">
@@ -8451,7 +8555,7 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9316,10 +9420,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB29"/>
+  <dimension ref="A1:AC29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AB9" sqref="AB9"/>
+    <sheetView tabSelected="1" topLeftCell="M7" workbookViewId="0">
+      <selection activeCell="Z20" sqref="Z20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9332,8 +9436,8 @@
     <col min="28" max="28" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15.75" thickBot="1"/>
-    <row r="2" spans="1:28" ht="15.75" thickBot="1">
+    <row r="1" spans="1:29" ht="15.75" thickBot="1"/>
+    <row r="2" spans="1:29" ht="15.75" thickBot="1">
       <c r="B2" s="42" t="s">
         <v>6</v>
       </c>
@@ -9361,10 +9465,10 @@
       <c r="J2" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="44" t="s">
+      <c r="K2" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="44"/>
+      <c r="L2" s="46"/>
       <c r="M2" s="42" t="s">
         <v>16</v>
       </c>
@@ -9395,20 +9499,20 @@
       <c r="V2" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="Y2" s="45" t="s">
+      <c r="Y2" s="44" t="s">
         <v>189</v>
       </c>
-      <c r="Z2" s="45" t="s">
+      <c r="Z2" s="44" t="s">
         <v>190</v>
       </c>
-      <c r="AA2" s="38" t="s">
+      <c r="AA2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="AB2" s="38" t="s">
+      <c r="AB2" s="40" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="15.75" thickBot="1">
+    <row r="3" spans="1:29" ht="15.75" thickBot="1">
       <c r="B3" s="43"/>
       <c r="C3" s="43"/>
       <c r="D3" s="43"/>
@@ -9434,12 +9538,12 @@
       <c r="T3" s="43"/>
       <c r="U3" s="43"/>
       <c r="V3" s="43"/>
-      <c r="Y3" s="46"/>
-      <c r="Z3" s="46"/>
-      <c r="AA3" s="39"/>
-      <c r="AB3" s="39"/>
-    </row>
-    <row r="4" spans="1:28">
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
+    </row>
+    <row r="4" spans="1:29">
       <c r="A4" s="12">
         <v>1</v>
       </c>
@@ -9520,7 +9624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:29">
       <c r="A5" s="12">
         <v>2</v>
       </c>
@@ -9605,7 +9709,7 @@
         <v>-8.4525953825903555E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:29">
       <c r="A6" s="12">
         <v>3</v>
       </c>
@@ -9682,7 +9786,7 @@
         <v>1.0221611169038758</v>
       </c>
       <c r="AA6" s="32">
-        <f t="shared" ref="AA5:AA29" si="4">(Y6-Y5)/(L6-L5)</f>
+        <f>(Y6-Y5)/(L6-L5)</f>
         <v>-5.8718203910720045E-4</v>
       </c>
       <c r="AB6" s="32">
@@ -9690,7 +9794,7 @@
         <v>-8.5827548257578026E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:29">
       <c r="A7" s="12">
         <v>4</v>
       </c>
@@ -9767,7 +9871,7 @@
         <v>1.0322815299184402</v>
       </c>
       <c r="AA7" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="AA6:AA29" si="4">(Y7-Y6)/(L7-L6)</f>
         <v>-1.3145155125166418E-3</v>
       </c>
       <c r="AB7" s="32">
@@ -9775,7 +9879,7 @@
         <v>-1.0122943750502079E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:29">
       <c r="A8" s="12">
         <v>5</v>
       </c>
@@ -9860,7 +9964,7 @@
         <v>-8.8020053516392938E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:29">
       <c r="A9" s="12">
         <v>6</v>
       </c>
@@ -9945,7 +10049,7 @@
         <v>-1.0743006627861134E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:29">
       <c r="A10" s="12">
         <v>7</v>
       </c>
@@ -10030,7 +10134,7 @@
         <v>-1.221145194000582E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:29">
       <c r="A11" s="12">
         <v>8</v>
       </c>
@@ -10115,7 +10219,7 @@
         <v>-9.6012224463832728E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:29">
       <c r="A12" s="12">
         <v>9</v>
       </c>
@@ -10200,92 +10304,92 @@
         <v>-9.5045801406884488E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
-      <c r="A13" s="12">
+    <row r="13" spans="1:29" s="52" customFormat="1">
+      <c r="A13" s="47">
         <v>10</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="48">
         <v>15905855.5</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="49">
         <v>8.1693999999999994E-5</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="49">
         <v>8.1625999999999994E-5</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="48">
         <v>1.7783E-3</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="48">
         <v>1.7780999999999999E-3</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="48">
         <v>16.629000000000001</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="48">
         <v>293.01</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="48">
         <v>315.83999999999997</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="50">
         <v>6.8402000000000003</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="51">
         <f t="shared" si="0"/>
         <v>56.64</v>
       </c>
-      <c r="L13" s="14">
+      <c r="L13" s="50">
         <v>212.4</v>
       </c>
-      <c r="M13" s="14">
+      <c r="M13" s="50">
         <v>103.04</v>
       </c>
-      <c r="N13" s="1">
+      <c r="N13" s="48">
         <v>103.04</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13" s="48">
         <v>7.1082000000000001</v>
       </c>
-      <c r="P13" s="14">
+      <c r="P13" s="50">
         <v>2.8555999999999999</v>
       </c>
-      <c r="Q13" s="14">
+      <c r="Q13" s="50">
         <v>5.4465000000000003</v>
       </c>
-      <c r="R13" s="14">
+      <c r="R13" s="50">
         <v>3.5781999999999998</v>
       </c>
-      <c r="S13" s="1">
+      <c r="S13" s="48">
         <v>90700</v>
       </c>
-      <c r="T13" s="1">
+      <c r="T13" s="48">
         <v>2381.6</v>
       </c>
-      <c r="U13" s="1">
+      <c r="U13" s="48">
         <v>65.028000000000006</v>
       </c>
-      <c r="V13" s="1">
+      <c r="V13" s="48">
         <v>-20.702999999999999</v>
       </c>
-      <c r="Y13" s="19">
+      <c r="Y13" s="53">
         <f t="shared" si="1"/>
         <v>1.1011057751865834</v>
       </c>
-      <c r="Z13" s="16">
+      <c r="Z13" s="48">
         <f t="shared" si="2"/>
         <v>1.0962479830912495</v>
       </c>
-      <c r="AA13" s="32">
+      <c r="AA13" s="48">
         <f t="shared" si="4"/>
         <v>7.6187851552611541E-5</v>
       </c>
-      <c r="AB13" s="32">
+      <c r="AB13" s="48">
         <f t="shared" si="3"/>
         <v>-9.6963616903678052E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:29">
       <c r="A14" s="12">
         <v>11</v>
       </c>
@@ -10369,8 +10473,11 @@
         <f t="shared" si="3"/>
         <v>-7.4389751901771529E-4</v>
       </c>
-    </row>
-    <row r="15" spans="1:28">
+      <c r="AC14" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29">
       <c r="A15" s="12">
         <v>12</v>
       </c>
@@ -10455,87 +10562,87 @@
         <v>-8.6017842278133844E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
-      <c r="A16" s="12">
+    <row r="16" spans="1:29" s="60" customFormat="1">
+      <c r="A16" s="55">
         <v>13</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="56">
         <v>15906379.5</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="57">
         <v>8.3399000000000006E-5</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="57">
         <v>8.3486000000000007E-5</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="56">
         <v>1.8546999999999999E-3</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="56">
         <v>1.8197000000000001E-3</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="56">
         <v>16.63</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="56">
         <v>293.05</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="56">
         <v>315.89</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="58">
         <v>6.8391999999999999</v>
       </c>
-      <c r="K16" s="13">
+      <c r="K16" s="59">
         <f t="shared" si="0"/>
         <v>48.64</v>
       </c>
-      <c r="L16" s="14">
+      <c r="L16" s="58">
         <v>182.4</v>
       </c>
-      <c r="M16" s="14">
+      <c r="M16" s="58">
         <v>103.04</v>
       </c>
-      <c r="N16" s="1">
+      <c r="N16" s="56">
         <v>103.04</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O16" s="56">
         <v>7.1266999999999996</v>
       </c>
-      <c r="P16" s="14">
+      <c r="P16" s="58">
         <v>2.8540999999999999</v>
       </c>
-      <c r="Q16" s="14">
+      <c r="Q16" s="58">
         <v>5.3765999999999998</v>
       </c>
-      <c r="R16" s="14">
+      <c r="R16" s="58">
         <v>3.5674999999999999</v>
       </c>
-      <c r="S16" s="1">
+      <c r="S16" s="56">
         <v>90735</v>
       </c>
-      <c r="T16" s="1">
+      <c r="T16" s="56">
         <v>2383.1</v>
       </c>
-      <c r="U16" s="1">
+      <c r="U16" s="56">
         <v>65.225999999999999</v>
       </c>
-      <c r="V16" s="1">
+      <c r="V16" s="56">
         <v>-24.024000000000001</v>
       </c>
-      <c r="Y16" s="19">
+      <c r="Y16" s="61">
         <f t="shared" si="1"/>
         <v>1.1243443597735847</v>
       </c>
-      <c r="Z16" s="16">
+      <c r="Z16" s="56">
         <f t="shared" si="2"/>
         <v>1.1200739039039829</v>
       </c>
-      <c r="AA16" s="32">
+      <c r="AA16" s="56">
         <f t="shared" si="4"/>
         <v>-4.8337949408301857E-4</v>
       </c>
-      <c r="AB16" s="32">
+      <c r="AB16" s="56">
         <f t="shared" si="3"/>
         <v>-7.7854087928019248E-4</v>
       </c>
@@ -10710,87 +10817,87 @@
         <v>-6.3274912546705086E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:28">
-      <c r="A19" s="12">
+    <row r="19" spans="1:28" s="67" customFormat="1">
+      <c r="A19" s="62">
         <v>16</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="63">
         <v>15906980.300000001</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="64">
         <v>8.4426999999999997E-5</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="64">
         <v>8.4688E-5</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="63">
         <v>1.7887000000000001E-3</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="63">
         <v>1.8680000000000001E-3</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="63">
         <v>16.632999999999999</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="63">
         <v>293.02</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="63">
         <v>315.81</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="65">
         <v>6.8372000000000002</v>
       </c>
-      <c r="K19" s="13">
+      <c r="K19" s="66">
         <f t="shared" si="0"/>
         <v>40.106999999999999</v>
       </c>
-      <c r="L19" s="14">
+      <c r="L19" s="65">
         <v>150.40125</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M19" s="63">
         <v>103.04</v>
       </c>
-      <c r="N19" s="1">
+      <c r="N19" s="63">
         <v>103.04</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O19" s="63">
         <v>7.1483999999999996</v>
       </c>
-      <c r="P19" s="14">
+      <c r="P19" s="65">
         <v>2.8481999999999998</v>
       </c>
-      <c r="Q19" s="14">
+      <c r="Q19" s="65">
         <v>5.3037999999999998</v>
       </c>
-      <c r="R19" s="1">
+      <c r="R19" s="63">
         <v>3.556</v>
       </c>
-      <c r="S19" s="1">
+      <c r="S19" s="63">
         <v>90694</v>
       </c>
-      <c r="T19" s="1">
+      <c r="T19" s="63">
         <v>2378</v>
       </c>
-      <c r="U19" s="1">
+      <c r="U19" s="63">
         <v>65.075999999999993</v>
       </c>
-      <c r="V19" s="1">
+      <c r="V19" s="63">
         <v>-25.433</v>
       </c>
-      <c r="Y19" s="19">
+      <c r="Y19" s="68">
         <f t="shared" si="1"/>
         <v>1.136108519513146</v>
       </c>
-      <c r="Z19" s="16">
+      <c r="Z19" s="63">
         <f t="shared" si="2"/>
         <v>1.1389789335788625</v>
       </c>
-      <c r="AA19" s="32">
+      <c r="AA19" s="63">
         <f t="shared" si="4"/>
         <v>-9.6480213543396573E-5</v>
       </c>
-      <c r="AB19" s="32">
+      <c r="AB19" s="63">
         <f t="shared" si="3"/>
         <v>-5.2684367269826649E-4</v>
       </c>
@@ -11135,87 +11242,87 @@
         <v>-2.400949779516852E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:28">
-      <c r="A24" s="12">
+    <row r="24" spans="1:28" s="74" customFormat="1">
+      <c r="A24" s="69">
         <v>21</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="70">
         <v>15908288.1</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="71">
         <v>8.5863000000000001E-5</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="71">
         <v>8.6083999999999998E-5</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="70">
         <v>1.4609E-3</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="70">
         <v>1.4848999999999999E-3</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="70">
         <v>16.623999999999999</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="70">
         <v>293.02999999999997</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="70">
         <v>315.81</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J24" s="72">
         <v>6.8388999999999998</v>
       </c>
-      <c r="K24" s="13">
+      <c r="K24" s="73">
         <f t="shared" si="0"/>
         <v>24.64</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L24" s="70">
         <v>92.4</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M24" s="70">
         <v>103.04</v>
       </c>
-      <c r="N24" s="1">
+      <c r="N24" s="70">
         <v>103.04</v>
       </c>
-      <c r="O24" s="1">
+      <c r="O24" s="70">
         <v>7.1410999999999998</v>
       </c>
-      <c r="P24" s="14">
+      <c r="P24" s="72">
         <v>2.8492000000000002</v>
       </c>
-      <c r="Q24" s="14">
+      <c r="Q24" s="72">
         <v>5.1901999999999999</v>
       </c>
-      <c r="R24" s="14">
+      <c r="R24" s="72">
         <v>3.5446</v>
       </c>
-      <c r="S24" s="1">
+      <c r="S24" s="70">
         <v>90752</v>
       </c>
-      <c r="T24" s="1">
+      <c r="T24" s="70">
         <v>2381.8000000000002</v>
       </c>
-      <c r="U24" s="1">
+      <c r="U24" s="70">
         <v>65.171999999999997</v>
       </c>
-      <c r="V24" s="1">
+      <c r="V24" s="70">
         <v>-21.39</v>
       </c>
-      <c r="Y24" s="19">
+      <c r="Y24" s="75">
         <f t="shared" si="1"/>
         <v>1.1571629094882465</v>
       </c>
-      <c r="Z24" s="16">
+      <c r="Z24" s="70">
         <f t="shared" si="2"/>
         <v>1.1557911366172173</v>
       </c>
-      <c r="AA24" s="32">
+      <c r="AA24" s="70">
         <f t="shared" si="4"/>
         <v>-4.9053823602230402E-4</v>
       </c>
-      <c r="AB24" s="32">
+      <c r="AB24" s="70">
         <f t="shared" si="3"/>
         <v>-1.1975475582393474E-4</v>
       </c>
@@ -11647,14 +11754,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Z2:Z3"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="B2:B3"/>
@@ -11671,9 +11770,16 @@
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Z2:Z3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11681,8 +11787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:X74"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5:V22"/>
+    <sheetView topLeftCell="P7" workbookViewId="0">
+      <selection activeCell="V20" sqref="V20:V29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11700,56 +11806,56 @@
   <sheetData>
     <row r="1" spans="2:24" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:24" ht="15.75" thickBot="1">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="40" t="s">
+      <c r="I2" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="J2" s="41"/>
-      <c r="K2" s="38" t="s">
+      <c r="J2" s="39"/>
+      <c r="K2" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="L2" s="38" t="s">
+      <c r="L2" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="M2" s="38" t="s">
+      <c r="M2" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="N2" s="38" t="s">
+      <c r="N2" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="O2" s="38" t="s">
+      <c r="O2" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="P2" s="38" t="s">
+      <c r="P2" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="Q2" s="38" t="s">
+      <c r="Q2" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="R2" s="38" t="s">
+      <c r="R2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="S2" s="38" t="s">
+      <c r="S2" s="40" t="s">
         <v>60</v>
       </c>
       <c r="V2" t="s">
@@ -11757,28 +11863,28 @@
       </c>
     </row>
     <row r="3" spans="2:24" ht="15.75" thickBot="1">
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
       <c r="I3" s="28" t="s">
         <v>183</v>
       </c>
       <c r="J3" s="28" t="s">
         <v>184</v>
       </c>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
     </row>
     <row r="4" spans="2:24" ht="15.75" thickBot="1">
       <c r="B4" s="30" t="s">
@@ -11902,14 +12008,14 @@
       <c r="S5" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="V5" s="19">
+      <c r="V5" s="75">
         <v>1.2973999999999999</v>
       </c>
       <c r="W5" s="19">
         <v>81.710000000000008</v>
       </c>
       <c r="X5" s="19">
-        <v>1.1831441785008443</v>
+        <v>1.1831441785008401</v>
       </c>
     </row>
     <row r="6" spans="2:24">
@@ -11969,7 +12075,7 @@
       <c r="S6" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="V6" s="16">
+      <c r="V6" s="70">
         <v>1.4220999999999999</v>
       </c>
       <c r="W6" s="16">
@@ -12036,7 +12142,7 @@
       <c r="S7" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="V7" s="16">
+      <c r="V7" s="70">
         <v>1.6184999999999998</v>
       </c>
       <c r="W7" s="16">
@@ -12103,7 +12209,7 @@
       <c r="S8" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="V8" s="16">
+      <c r="V8" s="70">
         <v>1.5214000000000001</v>
       </c>
       <c r="W8" s="16">
@@ -12170,7 +12276,7 @@
       <c r="S9" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="V9" s="16">
+      <c r="V9" s="70">
         <v>1.9419000000000002</v>
       </c>
       <c r="W9" s="16">
@@ -12237,7 +12343,7 @@
       <c r="S10" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="V10" s="16">
+      <c r="V10" s="70">
         <v>2.1046</v>
       </c>
       <c r="W10" s="16">
@@ -12304,7 +12410,7 @@
       <c r="S11" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="V11" s="16">
+      <c r="V11" s="70">
         <v>2.1758999999999999</v>
       </c>
       <c r="W11" s="16">
@@ -12371,7 +12477,7 @@
       <c r="S12" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="V12" s="16">
+      <c r="V12" s="70">
         <v>2.0566</v>
       </c>
       <c r="W12" s="16">
@@ -12382,63 +12488,63 @@
       </c>
     </row>
     <row r="13" spans="2:24">
-      <c r="B13" s="16">
+      <c r="B13" s="48">
         <v>9</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="54">
         <v>9.3692129629629625E-2</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="48">
         <v>10</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="48">
         <v>3</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="48">
         <v>2</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="48">
         <v>18.559999999999999</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13" s="48">
         <f t="shared" si="0"/>
         <v>39.200000000000003</v>
       </c>
-      <c r="K13" s="16">
+      <c r="K13" s="48">
         <v>-12</v>
       </c>
-      <c r="L13" s="16">
+      <c r="L13" s="48">
         <v>0</v>
       </c>
-      <c r="M13" s="16" t="s">
+      <c r="M13" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="N13" s="16" t="s">
+      <c r="N13" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="O13" s="16" t="s">
+      <c r="O13" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="P13" s="15">
+      <c r="P13" s="49">
         <v>2.2295000000000001E-3</v>
       </c>
-      <c r="Q13" s="16">
+      <c r="Q13" s="48">
         <f t="shared" si="1"/>
         <v>2.2295000000000003</v>
       </c>
-      <c r="R13" s="16" t="s">
+      <c r="R13" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="S13" s="16" t="s">
+      <c r="S13" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="V13" s="16">
+      <c r="V13" s="70">
         <v>2.2295000000000003</v>
       </c>
       <c r="W13" s="16">
@@ -12505,7 +12611,7 @@
       <c r="S14" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="V14" s="16">
+      <c r="V14" s="70">
         <v>2.4504000000000001</v>
       </c>
       <c r="W14" s="16">
@@ -12572,7 +12678,7 @@
       <c r="S15" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="V15" s="16">
+      <c r="V15" s="70">
         <v>2.6136000000000004</v>
       </c>
       <c r="W15" s="16">
@@ -12639,7 +12745,7 @@
       <c r="S16" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="V16" s="16">
+      <c r="V16" s="70">
         <v>2.8765000000000001</v>
       </c>
       <c r="W16" s="16">
@@ -12706,7 +12812,7 @@
       <c r="S17" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="V17" s="16">
+      <c r="V17" s="70">
         <v>2.8021000000000003</v>
       </c>
       <c r="W17" s="16">
@@ -12773,7 +12879,7 @@
       <c r="S18" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="V18" s="16">
+      <c r="V18" s="70">
         <v>2.9333</v>
       </c>
       <c r="W18" s="16">
@@ -12840,7 +12946,7 @@
       <c r="S19" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="V19" s="16">
+      <c r="V19" s="70">
         <v>3.0473000000000003</v>
       </c>
       <c r="W19" s="16">
@@ -14419,11 +14525,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -14436,6 +14537,11 @@
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Пространственный эффект.xlsx
+++ b/Пространственный эффект.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" tabRatio="828" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" tabRatio="828" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Без коэффициентов и по пичкам" sheetId="9" r:id="rId1"/>
@@ -12,16 +12,18 @@
     <sheet name="АНФХ" sheetId="2" r:id="rId3"/>
     <sheet name="Диаграмма1" sheetId="12" r:id="rId4"/>
     <sheet name="Расчет прос. эф. по эксп. знач." sheetId="6" r:id="rId5"/>
-    <sheet name="С реальными коэффициентами" sheetId="11" r:id="rId6"/>
-    <sheet name="График коэфф." sheetId="4" r:id="rId7"/>
-    <sheet name="График диф. эфф." sheetId="5" r:id="rId8"/>
+    <sheet name="Диаграмма2" sheetId="14" r:id="rId6"/>
+    <sheet name="С реальными коэффициентами" sheetId="11" r:id="rId7"/>
+    <sheet name="График коэфф." sheetId="4" r:id="rId8"/>
+    <sheet name="График диф. эфф." sheetId="5" r:id="rId9"/>
+    <sheet name="Лист1" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="197">
   <si>
     <t>Hор, %</t>
   </si>
@@ -677,12 +679,21 @@
   <si>
     <t>из</t>
   </si>
+  <si>
+    <t>Differ</t>
+  </si>
+  <si>
+    <t>Полином</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="24">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -690,6 +701,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -883,8 +901,121 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1085,6 +1216,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9900FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1324,60 +1467,101 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1397,7 +1581,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1428,7 +1612,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1443,34 +1627,7 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1478,78 +1635,156 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="0" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="35" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="35" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="35" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="36" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="36" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="36" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" xfId="42" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="83">
     <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент1 2" xfId="60"/>
     <cellStyle name="20% - Акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент2 2" xfId="64"/>
     <cellStyle name="20% - Акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент3 2" xfId="68"/>
     <cellStyle name="20% - Акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент4 2" xfId="72"/>
     <cellStyle name="20% - Акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент5 2" xfId="76"/>
     <cellStyle name="20% - Акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент6 2" xfId="80"/>
     <cellStyle name="40% - Акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент1 2" xfId="61"/>
     <cellStyle name="40% - Акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент2 2" xfId="65"/>
     <cellStyle name="40% - Акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент3 2" xfId="69"/>
     <cellStyle name="40% - Акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент4 2" xfId="73"/>
     <cellStyle name="40% - Акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент5 2" xfId="77"/>
     <cellStyle name="40% - Акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент6 2" xfId="81"/>
     <cellStyle name="60% - Акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент1 2" xfId="62"/>
     <cellStyle name="60% - Акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент2 2" xfId="66"/>
     <cellStyle name="60% - Акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент3 2" xfId="70"/>
     <cellStyle name="60% - Акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент4 2" xfId="74"/>
     <cellStyle name="60% - Акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент5 2" xfId="78"/>
     <cellStyle name="60% - Акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент6 2" xfId="82"/>
     <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Акцент1 2" xfId="59"/>
     <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Акцент2 2" xfId="63"/>
     <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Акцент3 2" xfId="67"/>
     <cellStyle name="Акцент4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Акцент4 2" xfId="71"/>
     <cellStyle name="Акцент5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Акцент5 2" xfId="75"/>
     <cellStyle name="Акцент6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Акцент6 2" xfId="79"/>
     <cellStyle name="Ввод " xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Ввод  2" xfId="50"/>
     <cellStyle name="Вывод" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Вывод 2" xfId="51"/>
     <cellStyle name="Вычисление" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Вычисление 2" xfId="52"/>
     <cellStyle name="Заголовок 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Заголовок 1 2" xfId="43"/>
     <cellStyle name="Заголовок 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Заголовок 2 2" xfId="44"/>
     <cellStyle name="Заголовок 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Заголовок 3 2" xfId="45"/>
     <cellStyle name="Заголовок 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Заголовок 4 2" xfId="46"/>
     <cellStyle name="Итог" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Итог 2" xfId="58"/>
     <cellStyle name="Контрольная ячейка" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Контрольная ячейка 2" xfId="54"/>
     <cellStyle name="Название" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Нейтральный" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Нейтральный 2" xfId="49"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="42"/>
     <cellStyle name="Плохой" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Плохой 2" xfId="48"/>
     <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Пояснение 2" xfId="57"/>
     <cellStyle name="Примечание" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Примечание 2" xfId="56"/>
     <cellStyle name="Связанная ячейка" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Связанная ячейка 2" xfId="53"/>
     <cellStyle name="Текст предупреждения" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Текст предупреждения 2" xfId="55"/>
     <cellStyle name="Хороший" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Хороший 2" xfId="47"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF9900FF"/>
       <color rgb="FF00CC00"/>
-      <color rgb="FF9900FF"/>
       <color rgb="FF0000FF"/>
     </mruColors>
   </colors>
@@ -1827,23 +2062,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="67515136"/>
-        <c:axId val="67516672"/>
+        <c:axId val="108765568"/>
+        <c:axId val="108767104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="67515136"/>
+        <c:axId val="108765568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67516672"/>
+        <c:crossAx val="108767104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="67516672"/>
+        <c:axId val="108767104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1851,7 +2086,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67515136"/>
+        <c:crossAx val="108765568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1864,7 +2099,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1880,10 +2115,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11213639756024088"/>
-          <c:y val="8.4857119876069503E-2"/>
-          <c:w val="0.58485764621888048"/>
-          <c:h val="0.8454949342132495"/>
+          <c:x val="0.11213639756024089"/>
+          <c:y val="8.4857119876069517E-2"/>
+          <c:w val="0.5848576462188807"/>
+          <c:h val="0.84549493421324962"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1907,8 +2142,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.24343300224726858"/>
-                  <c:y val="-1.4786016331291903E-2"/>
+                  <c:x val="-0.24343300224726863"/>
+                  <c:y val="-1.4786016331291899E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2104,7 +2339,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-1.9085310414629547E-2"/>
-                  <c:y val="0.34641404199475179"/>
+                  <c:y val="0.34641404199475195"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2177,7 +2412,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="3.2315029248794883E-2"/>
-                  <c:y val="0.35927456984543688"/>
+                  <c:y val="0.35927456984543693"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2269,6 +2504,16 @@
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="2400"/>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
@@ -2327,8 +2572,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.15468409586056672"/>
-                  <c:y val="0.27750400991542784"/>
+                  <c:x val="0.15468409586056675"/>
+                  <c:y val="0.2775040099154279"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2427,23 +2672,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="95369472"/>
-        <c:axId val="95383552"/>
+        <c:axId val="110072960"/>
+        <c:axId val="110074496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="95369472"/>
+        <c:axId val="110072960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95383552"/>
+        <c:crossAx val="110074496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="95383552"/>
+        <c:axId val="110074496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2451,7 +2696,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95369472"/>
+        <c:crossAx val="110072960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2470,7 +2715,17 @@
   <c:lang val="ru-RU"/>
   <c:chart>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.0503949536140937E-2"/>
+          <c:y val="5.9932629878755056E-2"/>
+          <c:w val="0.65537493970771554"/>
+          <c:h val="0.80483577204671275"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:ser>
@@ -2479,6 +2734,7 @@
           <c:trendline>
             <c:trendlineType val="poly"/>
             <c:order val="4"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout/>
@@ -2655,23 +2911,237 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="113805184"/>
-        <c:axId val="113806720"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="6"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.32140764563072871"/>
+                  <c:y val="-0.23590020095280281"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="2400"/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>y = </a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="2400"/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>
+R² = 8.76625035834963000000E-01</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="0.00000000000000000000E+00" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'С реальными коэффициентами'!$W$5:$W$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>81.710000000000008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78.240000000000009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75.039999999999992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72.11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68.91</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66.240000000000009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>63.84</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61.174999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36.265000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>52.64</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>49.975000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>47.305</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44.64</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41.71</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39.04</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>36.64</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32.11</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>27.84</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>25.704999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23.305</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20.64</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>17.708500000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14.507</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11.3035</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'С реальными коэффициентами'!$Z$5:$Z$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1.36615792509918</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.42640242531984</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.86139022750312</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5926314313674101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8614741688707699</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4078821824185801</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4195359210757199</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3124361120074002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.48999849649995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.84260374065886</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.7240795837465401</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.00144154422104</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.0670397013829502</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.8034281489528903</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.0673995878175502</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.7291543239462603</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.6569794970074101</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.5362784163974399</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.3668510067337598</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.1805841521933402</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.9802362800657298</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.2205324145570202</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.6161207944545497</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2370151217206398</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.5217148458502199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="52205440"/>
+        <c:axId val="52206976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="113805184"/>
+        <c:axId val="52205440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113806720"/>
+        <c:crossAx val="52206976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="113806720"/>
+        <c:axId val="52206976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2679,22 +3149,26 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113805184"/>
+        <c:crossAx val="52205440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.75416057479688559"/>
+          <c:y val="0.53689141084085146"/>
+          <c:w val="0.1817704186409741"/>
+          <c:h val="0.15109900638815094"/>
+        </c:manualLayout>
+      </c:layout>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -2770,7 +3244,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.11730993055583926"/>
           <c:y val="0.13947196965821568"/>
-          <c:w val="0.86411772889190419"/>
+          <c:w val="0.86411772889190408"/>
           <c:h val="0.76423253941870961"/>
         </c:manualLayout>
       </c:layout>
@@ -3545,11 +4019,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="67699840"/>
-        <c:axId val="67702144"/>
+        <c:axId val="110249088"/>
+        <c:axId val="110251392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="67699840"/>
+        <c:axId val="110249088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="310"/>
@@ -3603,7 +4077,7 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="0.36124015139803217"/>
-              <c:y val="0.95185883398686677"/>
+              <c:y val="0.95185883398686688"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -3616,12 +4090,12 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="67702144"/>
-        <c:crossesAt val="-5.0000000000000096E-3"/>
+        <c:crossAx val="110251392"/>
+        <c:crossesAt val="-5.0000000000000105E-3"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="67702144"/>
+        <c:axId val="110251392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3725,7 +4199,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.0605839398794267E-2"/>
+              <c:x val="1.0605839398794269E-2"/>
               <c:y val="0.40873655345793575"/>
             </c:manualLayout>
           </c:layout>
@@ -3739,7 +4213,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="67699840"/>
+        <c:crossAx val="110249088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3752,7 +4226,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.5952970970289545"/>
           <c:y val="0.15514586061405664"/>
-          <c:w val="0.29592819451847652"/>
+          <c:w val="0.29592819451847657"/>
           <c:h val="0.15109900638815094"/>
         </c:manualLayout>
       </c:layout>
@@ -4203,200 +4677,10 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
+          <c:idx val="0"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>с оптимальными коэффициентами</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'С оптимальными коэффициентами'!$B$5:$B$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>80.11</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>76.37</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>73.709999999999994</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>70.510000000000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>67.31</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>65.17</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>62.51</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>59.84</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>56.64</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>53.97</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>51.31</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>48.64</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>45.97</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>43.31</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>40.11</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>37.97</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>35.31</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>28.91</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>26.77</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>24.64</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21.97</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>19.309999999999999</c:v>
-                </c:pt>
-                <c:pt idx="22" formatCode="0.00">
-                  <c:v>16.106999999999999</c:v>
-                </c:pt>
-                <c:pt idx="23" formatCode="0.00">
-                  <c:v>12.907</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>9.6999999999999993</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'С оптимальными коэффициентами'!$C$5:$C$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>1.7087000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.9070999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.0972</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.2997999999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.4228000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.4950999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.6641999999999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.7455000000000003</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.8858999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.948</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.0310999999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.1058000000000003</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.1502000000000003</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.1936</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.2433999999999998</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.2521</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.2606999999999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.1718999999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.0828000000000002</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.9927000000000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.8714</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.7138</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.3456999999999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.8624000000000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.5962999999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>С реальными коэффициентами</c:v>
+            <c:v>С ПЭ по ПРОКЕРУ</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575">
@@ -4405,7 +4689,7 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="diamond"/>
-            <c:size val="7"/>
+            <c:size val="9"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
@@ -4583,10 +4867,10 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:idx val="6"/>
+          <c:order val="2"/>
           <c:tx>
-            <c:v>Без коэффициентов</c:v>
+            <c:v>С ПЭ по ДИФФЕРУ</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575">
@@ -4594,392 +4878,18 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="7"/>
+            <c:symbol val="triangle"/>
+            <c:size val="9"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="00CC00"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Без коэффициентов и по пичкам'!$J$5:$J$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>81.710000000000008</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>78.240000000000009</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>75.039999999999992</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>72.11</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>68.91</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>66.240000000000009</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>63.84</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>61.174999999999997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>58.24</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>55.305</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>52.64</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>49.975000000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>47.305</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44.64</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>41.71</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>39.04</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>36.64</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>32.11</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>27.84</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>25.704999999999998</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>23.305</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>20.64</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>17.71</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>14.504999999999999</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>11.3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Без коэффициентов и по пичкам'!$Q$5:$Q$29</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>0.63439000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.75998999999999994</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0103</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.79910999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.2762</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.4641999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.5788</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.4173</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.6164000000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.1198999999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.0417000000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.5720000000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.7908999999999997</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.5090999999999997</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.6737000000000002</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.8332999999999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.8815</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.1475</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.2262</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.0270999999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3.3008999999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.8668</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.4482000000000004</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.1890999999999998</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.7181999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>По пичкам</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="star"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:noFill/>
               <a:ln>
                 <a:solidFill>
-                  <a:srgbClr val="9900FF"/>
+                  <a:srgbClr val="00B050"/>
                 </a:solidFill>
               </a:ln>
             </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:trendlineType val="linear"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Без коэффициентов и по пичкам'!$J$5:$J$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>81.710000000000008</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>78.240000000000009</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>75.039999999999992</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>72.11</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>68.91</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>66.240000000000009</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>63.84</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>61.174999999999997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>58.24</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>55.305</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>52.64</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>49.975000000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>47.305</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44.64</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>41.71</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>39.04</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>36.64</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>32.11</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>27.84</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>25.704999999999998</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>23.305</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>20.64</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>17.71</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>14.504999999999999</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>11.3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Без коэффициентов и по пичкам'!$R$5:$R$29</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>0.58975999999999995</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.70990000000000009</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.6791</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.93068000000000017</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.073</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.1367</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.3509</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.3803000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.4253</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.6593</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>183.73000000000002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.9108000000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.0037000000000003</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.1776999999999997</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.2617000000000003</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.5216000000000003</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.5181</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.5273000000000003</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.8397999999999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.7920000000000003</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.6871999999999998</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.5313000000000003</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.1549</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.8544</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.3439999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="5"/>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -5067,95 +4977,95 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'С реальными коэффициентами'!$X$5:$X$29</c:f>
+              <c:f>'С реальными коэффициентами'!$AA$5:$AA$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>1.1831441785008401</c:v>
+                  <c:v>1.4053398841586522</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4498341142144802</c:v>
+                  <c:v>1.4288404710189178</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6427633743194483</c:v>
+                  <c:v>1.5973031259427466</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7868414341581285</c:v>
+                  <c:v>1.8045493139135851</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9195809579860685</c:v>
+                  <c:v>2.039274679081823</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0176446822835437</c:v>
+                  <c:v>2.2189610539349993</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.1001560498913938</c:v>
+                  <c:v>2.359060997601889</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.1890169986146595</c:v>
+                  <c:v>2.4877732036187994</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.9635148599007315</c:v>
+                  <c:v>3.034261438139739</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.0467827819517903</c:v>
+                  <c:v>3.1136999443070654</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.4811320882220271</c:v>
+                  <c:v>2.7426835244621253</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.5780988497784754</c:v>
+                  <c:v>2.7952354531311792</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.6770892564356017</c:v>
+                  <c:v>2.8465538828354924</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.7757544611952603</c:v>
+                  <c:v>2.9014932697510845</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.8805657989830045</c:v>
+                  <c:v>2.969541829050192</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.968491356736441</c:v>
+                  <c:v>3.0385390017782101</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.0372066172390109</c:v>
+                  <c:v>3.1035688015870115</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.1245224834220973</c:v>
+                  <c:v>3.2152239773908282</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.1295619800100716</c:v>
+                  <c:v>3.2643290339705495</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.0929913090894394</c:v>
+                  <c:v>3.2478683276516009</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.0127464529426402</c:v>
+                  <c:v>3.1805146610008657</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.8661075518731276</c:v>
+                  <c:v>3.0266408130024085</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.6216994249333232</c:v>
+                  <c:v>2.7346511185536886</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.2364706875164022</c:v>
+                  <c:v>2.2328599596907526</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.7046822498794225</c:v>
+                  <c:v>1.5006003129472041</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="68044288"/>
-        <c:axId val="68046208"/>
+        <c:axId val="110004096"/>
+        <c:axId val="110005632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="68044288"/>
+        <c:axId val="110004096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="85"/>
@@ -5209,7 +5119,7 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="0.36124015139803217"/>
-              <c:y val="0.95185883398686633"/>
+              <c:y val="0.95185883398686644"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -5222,14 +5132,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="68046208"/>
+        <c:crossAx val="110005632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
         <c:minorUnit val="2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="68046208"/>
+        <c:axId val="110005632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -5377,8 +5287,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.0605839398794274E-2"/>
-              <c:y val="0.32308858388393941"/>
+              <c:x val="1.0605839398794278E-2"/>
+              <c:y val="0.32308858388393952"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -5391,29 +5301,21 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="68044288"/>
+        <c:crossAx val="110004096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:legendEntry>
-        <c:idx val="5"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="6"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.33891984302871814"/>
+          <c:x val="0.33891984302871825"/>
           <c:y val="0.65441085398444065"/>
-          <c:w val="0.22558418607431391"/>
-          <c:h val="0.18887375798518868"/>
+          <c:w val="0.28180972381663577"/>
+          <c:h val="0.15719272701194187"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -5426,6 +5328,16 @@
           </a:solidFill>
         </a:ln>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1"/>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -5448,7 +5360,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="80" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="81" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5460,6 +5372,17 @@
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="80" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5530,23 +5453,15 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="-35278" y="0"/>
+    <xdr:ext cx="9301574" cy="6079537"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Диаграмма 3"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5559,7 +5474,7 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6178,77 +6093,77 @@
   <sheetData>
     <row r="1" spans="2:23" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:23" ht="15.75" thickBot="1">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="38" t="s">
+      <c r="I2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="39"/>
-      <c r="K2" s="40" t="s">
+      <c r="J2" s="70"/>
+      <c r="K2" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="L2" s="40" t="s">
+      <c r="L2" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="M2" s="40" t="s">
+      <c r="M2" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="N2" s="40" t="s">
+      <c r="N2" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="O2" s="38" t="s">
+      <c r="O2" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="38" t="s">
+      <c r="P2" s="70"/>
+      <c r="Q2" s="69" t="s">
         <v>181</v>
       </c>
-      <c r="R2" s="39"/>
-      <c r="S2" s="40" t="s">
+      <c r="R2" s="70"/>
+      <c r="S2" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="T2" s="40" t="s">
+      <c r="T2" s="67" t="s">
         <v>60</v>
       </c>
       <c r="W2" s="6"/>
     </row>
     <row r="3" spans="2:23" ht="15.75" thickBot="1">
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
       <c r="I3" s="26" t="s">
         <v>183</v>
       </c>
       <c r="J3" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
       <c r="O3" s="28" t="s">
         <v>185</v>
       </c>
@@ -6261,8 +6176,8 @@
       <c r="R3" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
       <c r="W3" s="6"/>
     </row>
     <row r="4" spans="2:23">
@@ -7906,12 +7821,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="S2:S3"/>
@@ -7922,6 +7831,12 @@
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7944,17 +7859,17 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="40" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="67" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7965,9 +7880,9 @@
       <c r="B3" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="19">
@@ -8554,8 +8469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9422,8 +9337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M7" workbookViewId="0">
-      <selection activeCell="Z20" sqref="Z20"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Z5" sqref="Z5:Z27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9438,110 +9353,110 @@
   <sheetData>
     <row r="1" spans="1:29" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:29" ht="15.75" thickBot="1">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="42" t="s">
+      <c r="J2" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="46" t="s">
+      <c r="K2" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="42" t="s">
+      <c r="L2" s="73"/>
+      <c r="M2" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="42" t="s">
+      <c r="N2" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="42" t="s">
+      <c r="O2" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="42" t="s">
+      <c r="P2" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="42" t="s">
+      <c r="Q2" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="42" t="s">
+      <c r="R2" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="42" t="s">
+      <c r="S2" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="42" t="s">
+      <c r="T2" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="U2" s="42" t="s">
+      <c r="U2" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="42" t="s">
+      <c r="V2" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="Y2" s="44" t="s">
+      <c r="Y2" s="74" t="s">
         <v>189</v>
       </c>
-      <c r="Z2" s="44" t="s">
+      <c r="Z2" s="74" t="s">
         <v>190</v>
       </c>
-      <c r="AA2" s="40" t="s">
+      <c r="AA2" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="AB2" s="40" t="s">
+      <c r="AB2" s="67" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="15.75" thickBot="1">
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
       <c r="K3" s="31" t="s">
         <v>182</v>
       </c>
       <c r="L3" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="41"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="72"/>
+      <c r="T3" s="72"/>
+      <c r="U3" s="72"/>
+      <c r="V3" s="72"/>
+      <c r="Y3" s="75"/>
+      <c r="Z3" s="75"/>
+      <c r="AA3" s="68"/>
+      <c r="AB3" s="68"/>
     </row>
     <row r="4" spans="1:29">
       <c r="A4" s="12">
@@ -9871,7 +9786,7 @@
         <v>1.0322815299184402</v>
       </c>
       <c r="AA7" s="32">
-        <f t="shared" ref="AA6:AA29" si="4">(Y7-Y6)/(L7-L6)</f>
+        <f t="shared" ref="AA7:AA29" si="4">(Y7-Y6)/(L7-L6)</f>
         <v>-1.3145155125166418E-3</v>
       </c>
       <c r="AB7" s="32">
@@ -10304,87 +10219,87 @@
         <v>-9.5045801406884488E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:29" s="52" customFormat="1">
-      <c r="A13" s="47">
+    <row r="13" spans="1:29" s="43" customFormat="1">
+      <c r="A13" s="38">
         <v>10</v>
       </c>
-      <c r="B13" s="48">
+      <c r="B13" s="39">
         <v>15905855.5</v>
       </c>
-      <c r="C13" s="49">
+      <c r="C13" s="40">
         <v>8.1693999999999994E-5</v>
       </c>
-      <c r="D13" s="49">
+      <c r="D13" s="40">
         <v>8.1625999999999994E-5</v>
       </c>
-      <c r="E13" s="48">
+      <c r="E13" s="39">
         <v>1.7783E-3</v>
       </c>
-      <c r="F13" s="48">
+      <c r="F13" s="39">
         <v>1.7780999999999999E-3</v>
       </c>
-      <c r="G13" s="48">
+      <c r="G13" s="39">
         <v>16.629000000000001</v>
       </c>
-      <c r="H13" s="48">
+      <c r="H13" s="39">
         <v>293.01</v>
       </c>
-      <c r="I13" s="48">
+      <c r="I13" s="39">
         <v>315.83999999999997</v>
       </c>
-      <c r="J13" s="50">
+      <c r="J13" s="41">
         <v>6.8402000000000003</v>
       </c>
-      <c r="K13" s="51">
+      <c r="K13" s="42">
         <f t="shared" si="0"/>
         <v>56.64</v>
       </c>
-      <c r="L13" s="50">
+      <c r="L13" s="41">
         <v>212.4</v>
       </c>
-      <c r="M13" s="50">
+      <c r="M13" s="41">
         <v>103.04</v>
       </c>
-      <c r="N13" s="48">
+      <c r="N13" s="39">
         <v>103.04</v>
       </c>
-      <c r="O13" s="48">
+      <c r="O13" s="39">
         <v>7.1082000000000001</v>
       </c>
-      <c r="P13" s="50">
+      <c r="P13" s="41">
         <v>2.8555999999999999</v>
       </c>
-      <c r="Q13" s="50">
+      <c r="Q13" s="41">
         <v>5.4465000000000003</v>
       </c>
-      <c r="R13" s="50">
+      <c r="R13" s="41">
         <v>3.5781999999999998</v>
       </c>
-      <c r="S13" s="48">
+      <c r="S13" s="39">
         <v>90700</v>
       </c>
-      <c r="T13" s="48">
+      <c r="T13" s="39">
         <v>2381.6</v>
       </c>
-      <c r="U13" s="48">
+      <c r="U13" s="39">
         <v>65.028000000000006</v>
       </c>
-      <c r="V13" s="48">
+      <c r="V13" s="39">
         <v>-20.702999999999999</v>
       </c>
-      <c r="Y13" s="53">
+      <c r="Y13" s="44">
         <f t="shared" si="1"/>
         <v>1.1011057751865834</v>
       </c>
-      <c r="Z13" s="48">
+      <c r="Z13" s="39">
         <f t="shared" si="2"/>
         <v>1.0962479830912495</v>
       </c>
-      <c r="AA13" s="48">
+      <c r="AA13" s="39">
         <f t="shared" si="4"/>
         <v>7.6187851552611541E-5</v>
       </c>
-      <c r="AB13" s="48">
+      <c r="AB13" s="39">
         <f t="shared" si="3"/>
         <v>-9.6963616903678052E-4</v>
       </c>
@@ -10562,87 +10477,87 @@
         <v>-8.6017842278133844E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:29" s="60" customFormat="1">
-      <c r="A16" s="55">
+    <row r="16" spans="1:29" s="51" customFormat="1">
+      <c r="A16" s="46">
         <v>13</v>
       </c>
-      <c r="B16" s="56">
+      <c r="B16" s="47">
         <v>15906379.5</v>
       </c>
-      <c r="C16" s="57">
+      <c r="C16" s="48">
         <v>8.3399000000000006E-5</v>
       </c>
-      <c r="D16" s="57">
+      <c r="D16" s="48">
         <v>8.3486000000000007E-5</v>
       </c>
-      <c r="E16" s="56">
+      <c r="E16" s="47">
         <v>1.8546999999999999E-3</v>
       </c>
-      <c r="F16" s="56">
+      <c r="F16" s="47">
         <v>1.8197000000000001E-3</v>
       </c>
-      <c r="G16" s="56">
+      <c r="G16" s="47">
         <v>16.63</v>
       </c>
-      <c r="H16" s="56">
+      <c r="H16" s="47">
         <v>293.05</v>
       </c>
-      <c r="I16" s="56">
+      <c r="I16" s="47">
         <v>315.89</v>
       </c>
-      <c r="J16" s="58">
+      <c r="J16" s="49">
         <v>6.8391999999999999</v>
       </c>
-      <c r="K16" s="59">
+      <c r="K16" s="50">
         <f t="shared" si="0"/>
         <v>48.64</v>
       </c>
-      <c r="L16" s="58">
+      <c r="L16" s="49">
         <v>182.4</v>
       </c>
-      <c r="M16" s="58">
+      <c r="M16" s="49">
         <v>103.04</v>
       </c>
-      <c r="N16" s="56">
+      <c r="N16" s="47">
         <v>103.04</v>
       </c>
-      <c r="O16" s="56">
+      <c r="O16" s="47">
         <v>7.1266999999999996</v>
       </c>
-      <c r="P16" s="58">
+      <c r="P16" s="49">
         <v>2.8540999999999999</v>
       </c>
-      <c r="Q16" s="58">
+      <c r="Q16" s="49">
         <v>5.3765999999999998</v>
       </c>
-      <c r="R16" s="58">
+      <c r="R16" s="49">
         <v>3.5674999999999999</v>
       </c>
-      <c r="S16" s="56">
+      <c r="S16" s="47">
         <v>90735</v>
       </c>
-      <c r="T16" s="56">
+      <c r="T16" s="47">
         <v>2383.1</v>
       </c>
-      <c r="U16" s="56">
+      <c r="U16" s="47">
         <v>65.225999999999999</v>
       </c>
-      <c r="V16" s="56">
+      <c r="V16" s="47">
         <v>-24.024000000000001</v>
       </c>
-      <c r="Y16" s="61">
+      <c r="Y16" s="52">
         <f t="shared" si="1"/>
         <v>1.1243443597735847</v>
       </c>
-      <c r="Z16" s="56">
+      <c r="Z16" s="47">
         <f t="shared" si="2"/>
         <v>1.1200739039039829</v>
       </c>
-      <c r="AA16" s="56">
+      <c r="AA16" s="47">
         <f t="shared" si="4"/>
         <v>-4.8337949408301857E-4</v>
       </c>
-      <c r="AB16" s="56">
+      <c r="AB16" s="47">
         <f t="shared" si="3"/>
         <v>-7.7854087928019248E-4</v>
       </c>
@@ -10817,87 +10732,87 @@
         <v>-6.3274912546705086E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:28" s="67" customFormat="1">
-      <c r="A19" s="62">
+    <row r="19" spans="1:28" s="58" customFormat="1">
+      <c r="A19" s="53">
         <v>16</v>
       </c>
-      <c r="B19" s="63">
+      <c r="B19" s="54">
         <v>15906980.300000001</v>
       </c>
-      <c r="C19" s="64">
+      <c r="C19" s="55">
         <v>8.4426999999999997E-5</v>
       </c>
-      <c r="D19" s="64">
+      <c r="D19" s="55">
         <v>8.4688E-5</v>
       </c>
-      <c r="E19" s="63">
+      <c r="E19" s="54">
         <v>1.7887000000000001E-3</v>
       </c>
-      <c r="F19" s="63">
+      <c r="F19" s="54">
         <v>1.8680000000000001E-3</v>
       </c>
-      <c r="G19" s="63">
+      <c r="G19" s="54">
         <v>16.632999999999999</v>
       </c>
-      <c r="H19" s="63">
+      <c r="H19" s="54">
         <v>293.02</v>
       </c>
-      <c r="I19" s="63">
+      <c r="I19" s="54">
         <v>315.81</v>
       </c>
-      <c r="J19" s="65">
+      <c r="J19" s="56">
         <v>6.8372000000000002</v>
       </c>
-      <c r="K19" s="66">
+      <c r="K19" s="57">
         <f t="shared" si="0"/>
         <v>40.106999999999999</v>
       </c>
-      <c r="L19" s="65">
+      <c r="L19" s="56">
         <v>150.40125</v>
       </c>
-      <c r="M19" s="63">
+      <c r="M19" s="54">
         <v>103.04</v>
       </c>
-      <c r="N19" s="63">
+      <c r="N19" s="54">
         <v>103.04</v>
       </c>
-      <c r="O19" s="63">
+      <c r="O19" s="54">
         <v>7.1483999999999996</v>
       </c>
-      <c r="P19" s="65">
+      <c r="P19" s="56">
         <v>2.8481999999999998</v>
       </c>
-      <c r="Q19" s="65">
+      <c r="Q19" s="56">
         <v>5.3037999999999998</v>
       </c>
-      <c r="R19" s="63">
+      <c r="R19" s="54">
         <v>3.556</v>
       </c>
-      <c r="S19" s="63">
+      <c r="S19" s="54">
         <v>90694</v>
       </c>
-      <c r="T19" s="63">
+      <c r="T19" s="54">
         <v>2378</v>
       </c>
-      <c r="U19" s="63">
+      <c r="U19" s="54">
         <v>65.075999999999993</v>
       </c>
-      <c r="V19" s="63">
+      <c r="V19" s="54">
         <v>-25.433</v>
       </c>
-      <c r="Y19" s="68">
+      <c r="Y19" s="59">
         <f t="shared" si="1"/>
         <v>1.136108519513146</v>
       </c>
-      <c r="Z19" s="63">
+      <c r="Z19" s="54">
         <f t="shared" si="2"/>
         <v>1.1389789335788625</v>
       </c>
-      <c r="AA19" s="63">
+      <c r="AA19" s="54">
         <f t="shared" si="4"/>
         <v>-9.6480213543396573E-5</v>
       </c>
-      <c r="AB19" s="63">
+      <c r="AB19" s="54">
         <f t="shared" si="3"/>
         <v>-5.2684367269826649E-4</v>
       </c>
@@ -11242,87 +11157,87 @@
         <v>-2.400949779516852E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:28" s="74" customFormat="1">
-      <c r="A24" s="69">
+    <row r="24" spans="1:28" s="65" customFormat="1">
+      <c r="A24" s="60">
         <v>21</v>
       </c>
-      <c r="B24" s="70">
+      <c r="B24" s="61">
         <v>15908288.1</v>
       </c>
-      <c r="C24" s="71">
+      <c r="C24" s="62">
         <v>8.5863000000000001E-5</v>
       </c>
-      <c r="D24" s="71">
+      <c r="D24" s="62">
         <v>8.6083999999999998E-5</v>
       </c>
-      <c r="E24" s="70">
+      <c r="E24" s="61">
         <v>1.4609E-3</v>
       </c>
-      <c r="F24" s="70">
+      <c r="F24" s="61">
         <v>1.4848999999999999E-3</v>
       </c>
-      <c r="G24" s="70">
+      <c r="G24" s="61">
         <v>16.623999999999999</v>
       </c>
-      <c r="H24" s="70">
+      <c r="H24" s="61">
         <v>293.02999999999997</v>
       </c>
-      <c r="I24" s="70">
+      <c r="I24" s="61">
         <v>315.81</v>
       </c>
-      <c r="J24" s="72">
+      <c r="J24" s="63">
         <v>6.8388999999999998</v>
       </c>
-      <c r="K24" s="73">
+      <c r="K24" s="64">
         <f t="shared" si="0"/>
         <v>24.64</v>
       </c>
-      <c r="L24" s="70">
+      <c r="L24" s="61">
         <v>92.4</v>
       </c>
-      <c r="M24" s="70">
+      <c r="M24" s="61">
         <v>103.04</v>
       </c>
-      <c r="N24" s="70">
+      <c r="N24" s="61">
         <v>103.04</v>
       </c>
-      <c r="O24" s="70">
+      <c r="O24" s="61">
         <v>7.1410999999999998</v>
       </c>
-      <c r="P24" s="72">
+      <c r="P24" s="63">
         <v>2.8492000000000002</v>
       </c>
-      <c r="Q24" s="72">
+      <c r="Q24" s="63">
         <v>5.1901999999999999</v>
       </c>
-      <c r="R24" s="72">
+      <c r="R24" s="63">
         <v>3.5446</v>
       </c>
-      <c r="S24" s="70">
+      <c r="S24" s="61">
         <v>90752</v>
       </c>
-      <c r="T24" s="70">
+      <c r="T24" s="61">
         <v>2381.8000000000002</v>
       </c>
-      <c r="U24" s="70">
+      <c r="U24" s="61">
         <v>65.171999999999997</v>
       </c>
-      <c r="V24" s="70">
+      <c r="V24" s="61">
         <v>-21.39</v>
       </c>
-      <c r="Y24" s="75">
+      <c r="Y24" s="66">
         <f t="shared" si="1"/>
         <v>1.1571629094882465</v>
       </c>
-      <c r="Z24" s="70">
+      <c r="Z24" s="61">
         <f t="shared" si="2"/>
         <v>1.1557911366172173</v>
       </c>
-      <c r="AA24" s="70">
+      <c r="AA24" s="61">
         <f t="shared" si="4"/>
         <v>-4.9053823602230402E-4</v>
       </c>
-      <c r="AB24" s="70">
+      <c r="AB24" s="61">
         <f t="shared" si="3"/>
         <v>-1.1975475582393474E-4</v>
       </c>
@@ -11497,87 +11412,87 @@
         <v>-1.6052939598949266E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:28">
-      <c r="A27" s="12">
+    <row r="27" spans="1:28" s="81" customFormat="1">
+      <c r="A27" s="76">
         <v>24</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="77">
         <v>15908906.6</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="78">
         <v>8.6154000000000002E-5</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="78">
         <v>8.6180999999999994E-5</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="77">
         <v>1.356E-3</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="77">
         <v>1.4571E-3</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="77">
         <v>16.626000000000001</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="77">
         <v>293.01</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="77">
         <v>315.74</v>
       </c>
-      <c r="J27" s="14">
+      <c r="J27" s="79">
         <v>6.8364000000000003</v>
       </c>
-      <c r="K27" s="13">
+      <c r="K27" s="80">
         <f t="shared" si="0"/>
         <v>16.106999999999999</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L27" s="77">
         <v>60.401249999999997</v>
       </c>
-      <c r="M27" s="1">
+      <c r="M27" s="77">
         <v>103.04</v>
       </c>
-      <c r="N27" s="1">
+      <c r="N27" s="77">
         <v>103.04</v>
       </c>
-      <c r="O27" s="1">
+      <c r="O27" s="77">
         <v>7.1420000000000003</v>
       </c>
-      <c r="P27" s="14">
+      <c r="P27" s="79">
         <v>2.8405</v>
       </c>
-      <c r="Q27" s="14">
+      <c r="Q27" s="79">
         <v>5.2034000000000002</v>
       </c>
-      <c r="R27" s="1">
+      <c r="R27" s="77">
         <v>4.6660000000000004</v>
       </c>
-      <c r="S27" s="1">
+      <c r="S27" s="77">
         <v>90801</v>
       </c>
-      <c r="T27" s="1">
+      <c r="T27" s="77">
         <v>2379.9</v>
       </c>
-      <c r="U27" s="1">
+      <c r="U27" s="77">
         <v>64.873000000000005</v>
       </c>
-      <c r="V27" s="1">
+      <c r="V27" s="77">
         <v>-16.747</v>
       </c>
-      <c r="Y27" s="19">
+      <c r="Y27" s="82">
         <f t="shared" si="1"/>
         <v>1.1603906284633656</v>
       </c>
-      <c r="Z27" s="16">
+      <c r="Z27" s="77">
         <f t="shared" si="2"/>
         <v>1.1582490008459188</v>
       </c>
-      <c r="AA27" s="32">
+      <c r="AA27" s="77">
         <f t="shared" si="4"/>
         <v>-5.6016429892169518E-5</v>
       </c>
-      <c r="AB27" s="32">
+      <c r="AB27" s="77">
         <f t="shared" si="3"/>
         <v>-3.2015563975011207E-5</v>
       </c>
@@ -11754,6 +11669,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Z2:Z3"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="B2:B3"/>
@@ -11770,14 +11693,6 @@
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Z2:Z3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11785,10 +11700,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:X74"/>
+  <dimension ref="B1:AB74"/>
   <sheetViews>
-    <sheetView topLeftCell="P7" workbookViewId="0">
-      <selection activeCell="V20" sqref="V20:V29"/>
+    <sheetView topLeftCell="T6" workbookViewId="0">
+      <selection activeCell="AA5" sqref="AA5:AA13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11804,89 +11719,89 @@
     <col min="24" max="24" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:24" ht="15.75" thickBot="1">
-      <c r="B2" s="40" t="s">
+    <row r="1" spans="2:28" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:28" ht="15.75" thickBot="1">
+      <c r="B2" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="38" t="s">
+      <c r="I2" s="69" t="s">
         <v>191</v>
       </c>
-      <c r="J2" s="39"/>
-      <c r="K2" s="40" t="s">
+      <c r="J2" s="70"/>
+      <c r="K2" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="L2" s="40" t="s">
+      <c r="L2" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="M2" s="40" t="s">
+      <c r="M2" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="N2" s="40" t="s">
+      <c r="N2" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="O2" s="40" t="s">
+      <c r="O2" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="P2" s="40" t="s">
+      <c r="P2" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="Q2" s="40" t="s">
+      <c r="Q2" s="67" t="s">
         <v>181</v>
       </c>
-      <c r="R2" s="40" t="s">
+      <c r="R2" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="S2" s="40" t="s">
+      <c r="S2" s="67" t="s">
         <v>60</v>
       </c>
       <c r="V2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="2:24" ht="15.75" thickBot="1">
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
+    <row r="3" spans="2:28" ht="15.75" thickBot="1">
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
       <c r="I3" s="28" t="s">
         <v>183</v>
       </c>
       <c r="J3" s="28" t="s">
         <v>184</v>
       </c>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-    </row>
-    <row r="4" spans="2:24" ht="15.75" thickBot="1">
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+    </row>
+    <row r="4" spans="2:28" ht="15.75" thickBot="1">
       <c r="B4" s="30" t="s">
         <v>1</v>
       </c>
@@ -11950,8 +11865,14 @@
       <c r="X4" s="37" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="5" spans="2:24">
+      <c r="Z4" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA4" s="51" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="2:28">
       <c r="B5" s="16">
         <v>1</v>
       </c>
@@ -12008,7 +11929,7 @@
       <c r="S5" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="V5" s="75">
+      <c r="V5" s="66">
         <v>1.2973999999999999</v>
       </c>
       <c r="W5" s="19">
@@ -12017,8 +11938,20 @@
       <c r="X5" s="19">
         <v>1.1831441785008401</v>
       </c>
-    </row>
-    <row r="6" spans="2:24">
+      <c r="Y5" s="83">
+        <v>1.36615792509918E-3</v>
+      </c>
+      <c r="Z5" s="85">
+        <f>1000*Y5</f>
+        <v>1.36615792509918</v>
+      </c>
+      <c r="AA5" s="83">
+        <f>6.06241971886159E-10*W5^6 - 1.32494472434079E-07*W5^5 + 9.18618579521347E-06*W5^4 - 0.000093068715449367*W5^3 - 0.0151387134115026*W5^2 + 0.603438740730304*W5 - 3.37847555459548</f>
+        <v>1.4053398841586522</v>
+      </c>
+      <c r="AB5" s="84"/>
+    </row>
+    <row r="6" spans="2:28">
       <c r="B6" s="16">
         <v>2</v>
       </c>
@@ -12075,7 +12008,7 @@
       <c r="S6" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="V6" s="70">
+      <c r="V6" s="61">
         <v>1.4220999999999999</v>
       </c>
       <c r="W6" s="16">
@@ -12084,8 +12017,20 @@
       <c r="X6" s="16">
         <v>1.4498341142144802</v>
       </c>
-    </row>
-    <row r="7" spans="2:24">
+      <c r="Y6" s="83">
+        <v>1.4264024253198399E-3</v>
+      </c>
+      <c r="Z6" s="85">
+        <f t="shared" ref="Z6:Z29" si="2">1000*Y6</f>
+        <v>1.42640242531984</v>
+      </c>
+      <c r="AA6" s="83">
+        <f t="shared" ref="AA6:AA29" si="3">6.06241971886159E-10*W6^6 - 1.32494472434079E-07*W6^5 + 9.18618579521347E-06*W6^4 - 0.000093068715449367*W6^3 - 0.0151387134115026*W6^2 + 0.603438740730304*W6 - 3.37847555459548</f>
+        <v>1.4288404710189178</v>
+      </c>
+      <c r="AB6" s="84"/>
+    </row>
+    <row r="7" spans="2:28">
       <c r="B7" s="16">
         <v>3</v>
       </c>
@@ -12142,7 +12087,7 @@
       <c r="S7" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="V7" s="70">
+      <c r="V7" s="61">
         <v>1.6184999999999998</v>
       </c>
       <c r="W7" s="16">
@@ -12151,8 +12096,20 @@
       <c r="X7" s="16">
         <v>1.6427633743194483</v>
       </c>
-    </row>
-    <row r="8" spans="2:24">
+      <c r="Y7" s="83">
+        <v>1.86139022750312E-3</v>
+      </c>
+      <c r="Z7" s="85">
+        <f t="shared" si="2"/>
+        <v>1.86139022750312</v>
+      </c>
+      <c r="AA7" s="83">
+        <f t="shared" si="3"/>
+        <v>1.5973031259427466</v>
+      </c>
+      <c r="AB7" s="84"/>
+    </row>
+    <row r="8" spans="2:28">
       <c r="B8" s="16">
         <v>4</v>
       </c>
@@ -12209,7 +12166,7 @@
       <c r="S8" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="V8" s="70">
+      <c r="V8" s="61">
         <v>1.5214000000000001</v>
       </c>
       <c r="W8" s="16">
@@ -12218,8 +12175,20 @@
       <c r="X8" s="16">
         <v>1.7868414341581285</v>
       </c>
-    </row>
-    <row r="9" spans="2:24">
+      <c r="Y8" s="83">
+        <v>1.5926314313674101E-3</v>
+      </c>
+      <c r="Z8" s="85">
+        <f t="shared" si="2"/>
+        <v>1.5926314313674101</v>
+      </c>
+      <c r="AA8" s="83">
+        <f t="shared" si="3"/>
+        <v>1.8045493139135851</v>
+      </c>
+      <c r="AB8" s="84"/>
+    </row>
+    <row r="9" spans="2:28">
       <c r="B9" s="16">
         <v>5</v>
       </c>
@@ -12276,7 +12245,7 @@
       <c r="S9" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="V9" s="70">
+      <c r="V9" s="61">
         <v>1.9419000000000002</v>
       </c>
       <c r="W9" s="16">
@@ -12285,8 +12254,20 @@
       <c r="X9" s="16">
         <v>1.9195809579860685</v>
       </c>
-    </row>
-    <row r="10" spans="2:24">
+      <c r="Y9" s="83">
+        <v>1.8614741688707699E-3</v>
+      </c>
+      <c r="Z9" s="85">
+        <f t="shared" si="2"/>
+        <v>1.8614741688707699</v>
+      </c>
+      <c r="AA9" s="83">
+        <f t="shared" si="3"/>
+        <v>2.039274679081823</v>
+      </c>
+      <c r="AB9" s="84"/>
+    </row>
+    <row r="10" spans="2:28">
       <c r="B10" s="16">
         <v>6</v>
       </c>
@@ -12343,7 +12324,7 @@
       <c r="S10" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="V10" s="70">
+      <c r="V10" s="61">
         <v>2.1046</v>
       </c>
       <c r="W10" s="16">
@@ -12352,8 +12333,20 @@
       <c r="X10" s="16">
         <v>2.0176446822835437</v>
       </c>
-    </row>
-    <row r="11" spans="2:24">
+      <c r="Y10" s="83">
+        <v>2.4078821824185799E-3</v>
+      </c>
+      <c r="Z10" s="85">
+        <f t="shared" si="2"/>
+        <v>2.4078821824185801</v>
+      </c>
+      <c r="AA10" s="83">
+        <f t="shared" si="3"/>
+        <v>2.2189610539349993</v>
+      </c>
+      <c r="AB10" s="84"/>
+    </row>
+    <row r="11" spans="2:28">
       <c r="B11" s="16">
         <v>7</v>
       </c>
@@ -12410,7 +12403,7 @@
       <c r="S11" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="V11" s="70">
+      <c r="V11" s="61">
         <v>2.1758999999999999</v>
       </c>
       <c r="W11" s="16">
@@ -12419,8 +12412,20 @@
       <c r="X11" s="16">
         <v>2.1001560498913938</v>
       </c>
-    </row>
-    <row r="12" spans="2:24">
+      <c r="Y11" s="83">
+        <v>2.41953592107572E-3</v>
+      </c>
+      <c r="Z11" s="85">
+        <f t="shared" si="2"/>
+        <v>2.4195359210757199</v>
+      </c>
+      <c r="AA11" s="83">
+        <f t="shared" si="3"/>
+        <v>2.359060997601889</v>
+      </c>
+      <c r="AB11" s="84"/>
+    </row>
+    <row r="12" spans="2:28">
       <c r="B12" s="16">
         <v>8</v>
       </c>
@@ -12477,7 +12482,7 @@
       <c r="S12" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="V12" s="70">
+      <c r="V12" s="61">
         <v>2.0566</v>
       </c>
       <c r="W12" s="16">
@@ -12486,65 +12491,77 @@
       <c r="X12" s="16">
         <v>2.1890169986146595</v>
       </c>
-    </row>
-    <row r="13" spans="2:24">
-      <c r="B13" s="48">
+      <c r="Y12" s="83">
+        <v>2.3124361120074001E-3</v>
+      </c>
+      <c r="Z12" s="85">
+        <f t="shared" si="2"/>
+        <v>2.3124361120074002</v>
+      </c>
+      <c r="AA12" s="83">
+        <f t="shared" si="3"/>
+        <v>2.4877732036187994</v>
+      </c>
+      <c r="AB12" s="84"/>
+    </row>
+    <row r="13" spans="2:28">
+      <c r="B13" s="39">
         <v>9</v>
       </c>
-      <c r="C13" s="54">
+      <c r="C13" s="45">
         <v>9.3692129629629625E-2</v>
       </c>
-      <c r="D13" s="48">
+      <c r="D13" s="39">
         <v>10</v>
       </c>
-      <c r="E13" s="48">
+      <c r="E13" s="39">
         <v>3</v>
       </c>
-      <c r="F13" s="48" t="s">
+      <c r="F13" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="G13" s="48" t="s">
+      <c r="G13" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="48">
+      <c r="H13" s="39">
         <v>2</v>
       </c>
-      <c r="I13" s="48">
+      <c r="I13" s="39">
         <v>18.559999999999999</v>
       </c>
-      <c r="J13" s="48">
+      <c r="J13" s="39">
         <f t="shared" si="0"/>
         <v>39.200000000000003</v>
       </c>
-      <c r="K13" s="48">
+      <c r="K13" s="39">
         <v>-12</v>
       </c>
-      <c r="L13" s="48">
+      <c r="L13" s="39">
         <v>0</v>
       </c>
-      <c r="M13" s="48" t="s">
+      <c r="M13" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="N13" s="48" t="s">
+      <c r="N13" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="O13" s="48" t="s">
+      <c r="O13" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="P13" s="49">
+      <c r="P13" s="40">
         <v>2.2295000000000001E-3</v>
       </c>
-      <c r="Q13" s="48">
+      <c r="Q13" s="39">
         <f t="shared" si="1"/>
         <v>2.2295000000000003</v>
       </c>
-      <c r="R13" s="48" t="s">
+      <c r="R13" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="S13" s="48" t="s">
+      <c r="S13" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="V13" s="70">
+      <c r="V13" s="61">
         <v>2.2295000000000003</v>
       </c>
       <c r="W13" s="16">
@@ -12553,8 +12570,20 @@
       <c r="X13" s="16">
         <v>2.9635148599007315</v>
       </c>
-    </row>
-    <row r="14" spans="2:24">
+      <c r="Y13" s="83">
+        <v>2.4899984964999499E-3</v>
+      </c>
+      <c r="Z13" s="85">
+        <f t="shared" si="2"/>
+        <v>2.48999849649995</v>
+      </c>
+      <c r="AA13" s="83">
+        <f t="shared" si="3"/>
+        <v>3.034261438139739</v>
+      </c>
+      <c r="AB13" s="84"/>
+    </row>
+    <row r="14" spans="2:28">
       <c r="B14" s="16">
         <v>10</v>
       </c>
@@ -12611,7 +12640,7 @@
       <c r="S14" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="V14" s="70">
+      <c r="V14" s="61">
         <v>2.4504000000000001</v>
       </c>
       <c r="W14" s="16">
@@ -12620,8 +12649,20 @@
       <c r="X14" s="16">
         <v>3.0467827819517903</v>
       </c>
-    </row>
-    <row r="15" spans="2:24">
+      <c r="Y14" s="83">
+        <v>2.8426037406588602E-3</v>
+      </c>
+      <c r="Z14" s="85">
+        <f t="shared" si="2"/>
+        <v>2.84260374065886</v>
+      </c>
+      <c r="AA14" s="83">
+        <f t="shared" si="3"/>
+        <v>3.1136999443070654</v>
+      </c>
+      <c r="AB14" s="84"/>
+    </row>
+    <row r="15" spans="2:28">
       <c r="B15" s="16">
         <v>11</v>
       </c>
@@ -12678,7 +12719,7 @@
       <c r="S15" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="V15" s="70">
+      <c r="V15" s="61">
         <v>2.6136000000000004</v>
       </c>
       <c r="W15" s="16">
@@ -12687,8 +12728,20 @@
       <c r="X15" s="16">
         <v>2.4811320882220271</v>
       </c>
-    </row>
-    <row r="16" spans="2:24">
+      <c r="Y15" s="83">
+        <v>2.7240795837465402E-3</v>
+      </c>
+      <c r="Z15" s="85">
+        <f t="shared" si="2"/>
+        <v>2.7240795837465401</v>
+      </c>
+      <c r="AA15" s="83">
+        <f t="shared" si="3"/>
+        <v>2.7426835244621253</v>
+      </c>
+      <c r="AB15" s="84"/>
+    </row>
+    <row r="16" spans="2:28">
       <c r="B16" s="16">
         <v>12</v>
       </c>
@@ -12745,7 +12798,7 @@
       <c r="S16" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="V16" s="70">
+      <c r="V16" s="61">
         <v>2.8765000000000001</v>
       </c>
       <c r="W16" s="16">
@@ -12754,8 +12807,20 @@
       <c r="X16" s="16">
         <v>2.5780988497784754</v>
       </c>
-    </row>
-    <row r="17" spans="2:24">
+      <c r="Y16" s="83">
+        <v>3.0014415442210399E-3</v>
+      </c>
+      <c r="Z16" s="85">
+        <f t="shared" si="2"/>
+        <v>3.00144154422104</v>
+      </c>
+      <c r="AA16" s="83">
+        <f t="shared" si="3"/>
+        <v>2.7952354531311792</v>
+      </c>
+      <c r="AB16" s="84"/>
+    </row>
+    <row r="17" spans="2:28">
       <c r="B17" s="16">
         <v>13</v>
       </c>
@@ -12812,7 +12877,7 @@
       <c r="S17" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="V17" s="70">
+      <c r="V17" s="61">
         <v>2.8021000000000003</v>
       </c>
       <c r="W17" s="16">
@@ -12821,8 +12886,20 @@
       <c r="X17" s="16">
         <v>2.6770892564356017</v>
       </c>
-    </row>
-    <row r="18" spans="2:24">
+      <c r="Y17" s="83">
+        <v>3.0670397013829501E-3</v>
+      </c>
+      <c r="Z17" s="85">
+        <f t="shared" si="2"/>
+        <v>3.0670397013829502</v>
+      </c>
+      <c r="AA17" s="83">
+        <f t="shared" si="3"/>
+        <v>2.8465538828354924</v>
+      </c>
+      <c r="AB17" s="84"/>
+    </row>
+    <row r="18" spans="2:28">
       <c r="B18" s="16">
         <v>14</v>
       </c>
@@ -12879,7 +12956,7 @@
       <c r="S18" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="V18" s="70">
+      <c r="V18" s="61">
         <v>2.9333</v>
       </c>
       <c r="W18" s="16">
@@ -12888,8 +12965,20 @@
       <c r="X18" s="16">
         <v>2.7757544611952603</v>
       </c>
-    </row>
-    <row r="19" spans="2:24">
+      <c r="Y18" s="83">
+        <v>2.8034281489528901E-3</v>
+      </c>
+      <c r="Z18" s="85">
+        <f t="shared" si="2"/>
+        <v>2.8034281489528903</v>
+      </c>
+      <c r="AA18" s="83">
+        <f t="shared" si="3"/>
+        <v>2.9014932697510845</v>
+      </c>
+      <c r="AB18" s="84"/>
+    </row>
+    <row r="19" spans="2:28">
       <c r="B19" s="16">
         <v>15</v>
       </c>
@@ -12946,7 +13035,7 @@
       <c r="S19" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="V19" s="70">
+      <c r="V19" s="61">
         <v>3.0473000000000003</v>
       </c>
       <c r="W19" s="16">
@@ -12955,8 +13044,20 @@
       <c r="X19" s="16">
         <v>2.8805657989830045</v>
       </c>
-    </row>
-    <row r="20" spans="2:24">
+      <c r="Y19" s="83">
+        <v>3.06739958781755E-3</v>
+      </c>
+      <c r="Z19" s="85">
+        <f t="shared" si="2"/>
+        <v>3.0673995878175502</v>
+      </c>
+      <c r="AA19" s="83">
+        <f t="shared" si="3"/>
+        <v>2.969541829050192</v>
+      </c>
+      <c r="AB19" s="84"/>
+    </row>
+    <row r="20" spans="2:28">
       <c r="B20" s="16">
         <v>16</v>
       </c>
@@ -13022,8 +13123,20 @@
       <c r="X20" s="16">
         <v>2.968491356736441</v>
       </c>
-    </row>
-    <row r="21" spans="2:24">
+      <c r="Y20" s="83">
+        <v>2.7291543239462601E-3</v>
+      </c>
+      <c r="Z20" s="85">
+        <f t="shared" si="2"/>
+        <v>2.7291543239462603</v>
+      </c>
+      <c r="AA20" s="83">
+        <f t="shared" si="3"/>
+        <v>3.0385390017782101</v>
+      </c>
+      <c r="AB20" s="84"/>
+    </row>
+    <row r="21" spans="2:28">
       <c r="B21" s="16">
         <v>17</v>
       </c>
@@ -13089,8 +13202,20 @@
       <c r="X21" s="16">
         <v>3.0372066172390109</v>
       </c>
-    </row>
-    <row r="22" spans="2:24">
+      <c r="Y21" s="83">
+        <v>3.6569794970074099E-3</v>
+      </c>
+      <c r="Z21" s="85">
+        <f t="shared" si="2"/>
+        <v>3.6569794970074101</v>
+      </c>
+      <c r="AA21" s="83">
+        <f t="shared" si="3"/>
+        <v>3.1035688015870115</v>
+      </c>
+      <c r="AB21" s="84"/>
+    </row>
+    <row r="22" spans="2:28">
       <c r="B22" s="16">
         <v>18</v>
       </c>
@@ -13156,8 +13281,20 @@
       <c r="X22" s="16">
         <v>3.1245224834220973</v>
       </c>
-    </row>
-    <row r="23" spans="2:24">
+      <c r="Y22" s="83">
+        <v>3.5362784163974399E-3</v>
+      </c>
+      <c r="Z22" s="85">
+        <f t="shared" si="2"/>
+        <v>3.5362784163974399</v>
+      </c>
+      <c r="AA22" s="83">
+        <f t="shared" si="3"/>
+        <v>3.2152239773908282</v>
+      </c>
+      <c r="AB22" s="84"/>
+    </row>
+    <row r="23" spans="2:28">
       <c r="B23" s="16">
         <v>19</v>
       </c>
@@ -13223,8 +13360,20 @@
       <c r="X23" s="16">
         <v>3.1295619800100716</v>
       </c>
-    </row>
-    <row r="24" spans="2:24">
+      <c r="Y23" s="83">
+        <v>3.3668510067337599E-3</v>
+      </c>
+      <c r="Z23" s="85">
+        <f t="shared" si="2"/>
+        <v>3.3668510067337598</v>
+      </c>
+      <c r="AA23" s="83">
+        <f t="shared" si="3"/>
+        <v>3.2643290339705495</v>
+      </c>
+      <c r="AB23" s="84"/>
+    </row>
+    <row r="24" spans="2:28">
       <c r="B24" s="16">
         <v>20</v>
       </c>
@@ -13290,8 +13439,20 @@
       <c r="X24" s="16">
         <v>3.0929913090894394</v>
       </c>
-    </row>
-    <row r="25" spans="2:24">
+      <c r="Y24" s="83">
+        <v>3.1805841521933402E-3</v>
+      </c>
+      <c r="Z24" s="85">
+        <f t="shared" si="2"/>
+        <v>3.1805841521933402</v>
+      </c>
+      <c r="AA24" s="83">
+        <f t="shared" si="3"/>
+        <v>3.2478683276516009</v>
+      </c>
+      <c r="AB24" s="84"/>
+    </row>
+    <row r="25" spans="2:28">
       <c r="B25" s="16">
         <v>21</v>
       </c>
@@ -13357,8 +13518,20 @@
       <c r="X25" s="16">
         <v>3.0127464529426402</v>
       </c>
-    </row>
-    <row r="26" spans="2:24">
+      <c r="Y25" s="83">
+        <v>2.98023628006573E-3</v>
+      </c>
+      <c r="Z25" s="85">
+        <f t="shared" si="2"/>
+        <v>2.9802362800657298</v>
+      </c>
+      <c r="AA25" s="83">
+        <f t="shared" si="3"/>
+        <v>3.1805146610008657</v>
+      </c>
+      <c r="AB25" s="84"/>
+    </row>
+    <row r="26" spans="2:28">
       <c r="B26" s="16">
         <v>22</v>
       </c>
@@ -13424,8 +13597,20 @@
       <c r="X26" s="16">
         <v>2.8661075518731276</v>
       </c>
-    </row>
-    <row r="27" spans="2:24">
+      <c r="Y26" s="83">
+        <v>3.2205324145570201E-3</v>
+      </c>
+      <c r="Z26" s="85">
+        <f t="shared" si="2"/>
+        <v>3.2205324145570202</v>
+      </c>
+      <c r="AA26" s="83">
+        <f t="shared" si="3"/>
+        <v>3.0266408130024085</v>
+      </c>
+      <c r="AB26" s="84"/>
+    </row>
+    <row r="27" spans="2:28">
       <c r="B27" s="16">
         <v>23</v>
       </c>
@@ -13491,8 +13676,20 @@
       <c r="X27" s="16">
         <v>2.6216994249333232</v>
       </c>
-    </row>
-    <row r="28" spans="2:24">
+      <c r="Y27" s="83">
+        <v>2.6161207944545499E-3</v>
+      </c>
+      <c r="Z27" s="85">
+        <f t="shared" si="2"/>
+        <v>2.6161207944545497</v>
+      </c>
+      <c r="AA27" s="83">
+        <f t="shared" si="3"/>
+        <v>2.7346511185536886</v>
+      </c>
+      <c r="AB27" s="84"/>
+    </row>
+    <row r="28" spans="2:28">
       <c r="B28" s="16">
         <v>24</v>
       </c>
@@ -13558,8 +13755,20 @@
       <c r="X28" s="16">
         <v>2.2364706875164022</v>
       </c>
-    </row>
-    <row r="29" spans="2:24">
+      <c r="Y28" s="83">
+        <v>2.2370151217206398E-3</v>
+      </c>
+      <c r="Z28" s="85">
+        <f t="shared" si="2"/>
+        <v>2.2370151217206398</v>
+      </c>
+      <c r="AA28" s="83">
+        <f t="shared" si="3"/>
+        <v>2.2328599596907526</v>
+      </c>
+      <c r="AB28" s="84"/>
+    </row>
+    <row r="29" spans="2:28">
       <c r="B29" s="16">
         <v>25</v>
       </c>
@@ -13625,6 +13834,18 @@
       <c r="X29" s="16">
         <v>1.7046822498794225</v>
       </c>
+      <c r="Y29" s="83">
+        <v>1.5217148458502199E-3</v>
+      </c>
+      <c r="Z29" s="85">
+        <f t="shared" si="2"/>
+        <v>1.5217148458502199</v>
+      </c>
+      <c r="AA29" s="83">
+        <f t="shared" si="3"/>
+        <v>1.5006003129472041</v>
+      </c>
+      <c r="AB29" s="84"/>
     </row>
     <row r="36" spans="2:22">
       <c r="B36" s="6"/>
@@ -14525,6 +14746,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -14537,13 +14763,27 @@
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="4:4">
+      <c r="D1">
+        <v>8.0000000000000007E-5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Пространственный эффект.xlsx
+++ b/Пространственный эффект.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="197">
   <si>
     <t>Hор, %</t>
   </si>
@@ -691,9 +691,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -701,6 +701,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1467,101 +1474,115 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="83">
+  <cellStyleXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1581,7 +1602,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1612,7 +1633,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1627,7 +1648,7 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1635,90 +1656,104 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="0" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="35" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="35" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="35" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="36" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="36" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="36" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" xfId="42" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="42"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" xfId="42" applyFill="1"/>
+    <xf numFmtId="169" fontId="2" fillId="37" borderId="0" xfId="42" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="83"/>
   </cellXfs>
-  <cellStyles count="83">
+  <cellStyles count="97">
     <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Акцент1 2" xfId="60"/>
+    <cellStyle name="20% - Акцент1 3" xfId="85"/>
     <cellStyle name="20% - Акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Акцент2 2" xfId="64"/>
+    <cellStyle name="20% - Акцент2 3" xfId="87"/>
     <cellStyle name="20% - Акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
     <cellStyle name="20% - Акцент3 2" xfId="68"/>
+    <cellStyle name="20% - Акцент3 3" xfId="89"/>
     <cellStyle name="20% - Акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
     <cellStyle name="20% - Акцент4 2" xfId="72"/>
+    <cellStyle name="20% - Акцент4 3" xfId="91"/>
     <cellStyle name="20% - Акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
     <cellStyle name="20% - Акцент5 2" xfId="76"/>
+    <cellStyle name="20% - Акцент5 3" xfId="93"/>
     <cellStyle name="20% - Акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
     <cellStyle name="20% - Акцент6 2" xfId="80"/>
+    <cellStyle name="20% - Акцент6 3" xfId="95"/>
     <cellStyle name="40% - Акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
     <cellStyle name="40% - Акцент1 2" xfId="61"/>
+    <cellStyle name="40% - Акцент1 3" xfId="86"/>
     <cellStyle name="40% - Акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
     <cellStyle name="40% - Акцент2 2" xfId="65"/>
+    <cellStyle name="40% - Акцент2 3" xfId="88"/>
     <cellStyle name="40% - Акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
     <cellStyle name="40% - Акцент3 2" xfId="69"/>
+    <cellStyle name="40% - Акцент3 3" xfId="90"/>
     <cellStyle name="40% - Акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% - Акцент4 2" xfId="73"/>
+    <cellStyle name="40% - Акцент4 3" xfId="92"/>
     <cellStyle name="40% - Акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% - Акцент5 2" xfId="77"/>
+    <cellStyle name="40% - Акцент5 3" xfId="94"/>
     <cellStyle name="40% - Акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
     <cellStyle name="40% - Акцент6 2" xfId="81"/>
+    <cellStyle name="40% - Акцент6 3" xfId="96"/>
     <cellStyle name="60% - Акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
     <cellStyle name="60% - Акцент1 2" xfId="62"/>
     <cellStyle name="60% - Акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
@@ -1766,12 +1801,14 @@
     <cellStyle name="Нейтральный 2" xfId="49"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="42"/>
+    <cellStyle name="Обычный 3" xfId="83"/>
     <cellStyle name="Плохой" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Плохой 2" xfId="48"/>
     <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Пояснение 2" xfId="57"/>
     <cellStyle name="Примечание" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Примечание 2" xfId="56"/>
+    <cellStyle name="Примечание 3" xfId="84"/>
     <cellStyle name="Связанная ячейка" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Связанная ячейка 2" xfId="53"/>
     <cellStyle name="Текст предупреждения" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -2062,23 +2099,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="108765568"/>
-        <c:axId val="108767104"/>
+        <c:axId val="67069824"/>
+        <c:axId val="67071360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="108765568"/>
+        <c:axId val="67069824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108767104"/>
+        <c:crossAx val="67071360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="108767104"/>
+        <c:axId val="67071360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2086,20 +2123,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108765568"/>
+        <c:crossAx val="67069824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2116,8 +2152,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.11213639756024089"/>
-          <c:y val="8.4857119876069517E-2"/>
-          <c:w val="0.5848576462188807"/>
+          <c:y val="8.4857119876069545E-2"/>
+          <c:w val="0.58485764621888081"/>
           <c:h val="0.84549493421324962"/>
         </c:manualLayout>
       </c:layout>
@@ -2142,8 +2178,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.24343300224726863"/>
-                  <c:y val="-1.4786016331291899E-2"/>
+                  <c:x val="-0.24343300224726869"/>
+                  <c:y val="-1.4786016331291897E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2339,7 +2375,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-1.9085310414629547E-2"/>
-                  <c:y val="0.34641404199475195"/>
+                  <c:y val="0.34641404199475206"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2412,7 +2448,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="3.2315029248794883E-2"/>
-                  <c:y val="0.35927456984543693"/>
+                  <c:y val="0.35927456984543704"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2572,8 +2608,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.15468409586056675"/>
-                  <c:y val="0.2775040099154279"/>
+                  <c:x val="0.15468409586056678"/>
+                  <c:y val="0.27750400991542795"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2672,23 +2708,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="110072960"/>
-        <c:axId val="110074496"/>
+        <c:axId val="66726528"/>
+        <c:axId val="66732416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="110072960"/>
+        <c:axId val="66726528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110074496"/>
+        <c:crossAx val="66732416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="110074496"/>
+        <c:axId val="66732416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2696,7 +2732,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110072960"/>
+        <c:crossAx val="66726528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2720,8 +2756,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.0503949536140937E-2"/>
-          <c:y val="5.9932629878755056E-2"/>
+          <c:x val="9.0503949536140965E-2"/>
+          <c:y val="5.9932629878755077E-2"/>
           <c:w val="0.65537493970771554"/>
           <c:h val="0.80483577204671275"/>
         </c:manualLayout>
@@ -2734,12 +2770,6 @@
           <c:trendline>
             <c:trendlineType val="poly"/>
             <c:order val="4"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout/>
-              <c:numFmt formatCode="0.00000000000000000000E+00" sourceLinked="0"/>
-            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -2922,8 +2952,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.32140764563072871"/>
-                  <c:y val="-0.23590020095280281"/>
+                  <c:x val="0.32140764563072877"/>
+                  <c:y val="-0.23590020095280284"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3125,23 +3155,211 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="52205440"/>
-        <c:axId val="52206976"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="6"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.416030018145316E-2"/>
+                  <c:y val="0.13316704874071825"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="0.00000000000000000000E+00" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'С реальными коэффициентами'!$W$5:$W$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>81.710000000000008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78.240000000000009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75.039999999999992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72.11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68.91</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66.240000000000009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>63.84</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61.174999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36.265000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>52.64</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>49.975000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>47.305</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44.64</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41.71</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39.04</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>36.64</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32.11</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>27.84</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>25.704999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23.305</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20.64</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>17.708500000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14.507</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11.3035</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'С реальными коэффициентами'!$AC$5:$AC$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1.2798601178484099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5023136362685701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6872585991282498</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.70822933978937</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8577757710259102</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1716127232829301</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3892370792404001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3379968198957997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.36245404595011</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.6407298507069497</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.6960585673064199</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.8188550729594901</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.0917518845405301</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.0875622905918401</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.1985045672881003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.2310171802684997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.2002648664128102</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.3533255127467698</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.5245107757621499</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.2070365817651298</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.2871040747412299</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.1872965346978903</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.5588197188654402</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.4210080953372302</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.74371653143531</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="84898944"/>
+        <c:axId val="84900480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="52205440"/>
+        <c:axId val="84898944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52206976"/>
+        <c:crossAx val="84900480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="52206976"/>
+        <c:axId val="84900480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3149,7 +3367,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52205440"/>
+        <c:crossAx val="84898944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3160,10 +3378,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.75416057479688559"/>
-          <c:y val="0.53689141084085146"/>
+          <c:x val="0.7541605747968857"/>
+          <c:y val="0.53689141084085168"/>
           <c:w val="0.1817704186409741"/>
-          <c:h val="0.15109900638815094"/>
+          <c:h val="0.2266485095822264"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -3244,7 +3462,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.11730993055583926"/>
           <c:y val="0.13947196965821568"/>
-          <c:w val="0.86411772889190408"/>
+          <c:w val="0.86411772889190397"/>
           <c:h val="0.76423253941870961"/>
         </c:manualLayout>
       </c:layout>
@@ -4019,11 +4237,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="110249088"/>
-        <c:axId val="110251392"/>
+        <c:axId val="84837120"/>
+        <c:axId val="84839040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="110249088"/>
+        <c:axId val="84837120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="310"/>
@@ -4077,7 +4295,7 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="0.36124015139803217"/>
-              <c:y val="0.95185883398686688"/>
+              <c:y val="0.95185883398686699"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -4090,12 +4308,12 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="110251392"/>
-        <c:crossesAt val="-5.0000000000000105E-3"/>
+        <c:crossAx val="84839040"/>
+        <c:crossesAt val="-5.0000000000000114E-3"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="110251392"/>
+        <c:axId val="84839040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4199,7 +4417,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.0605839398794269E-2"/>
+              <c:x val="1.0605839398794271E-2"/>
               <c:y val="0.40873655345793575"/>
             </c:manualLayout>
           </c:layout>
@@ -4213,7 +4431,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="110249088"/>
+        <c:crossAx val="84837120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4226,7 +4444,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.5952970970289545"/>
           <c:y val="0.15514586061405664"/>
-          <c:w val="0.29592819451847657"/>
+          <c:w val="0.29592819451847663"/>
           <c:h val="0.15109900638815094"/>
         </c:manualLayout>
       </c:layout>
@@ -4870,7 +5088,7 @@
           <c:idx val="6"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>С ПЭ по ДИФФЕРУ</c:v>
+            <c:v>С ПЭ по ДИФФЕРУ (1)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575">
@@ -5061,11 +5279,204 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="110004096"/>
-        <c:axId val="110005632"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>C ПЭ по ДИФФЕРУ (2)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="9900FF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="9900FF"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'С реальными коэффициентами'!$W$5:$W$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>81.710000000000008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78.240000000000009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75.039999999999992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72.11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68.91</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66.240000000000009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>63.84</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61.174999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36.265000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>52.64</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>49.975000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>47.305</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44.64</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41.71</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39.04</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>36.64</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32.11</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>27.84</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>25.704999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23.305</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20.64</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>17.708500000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14.507</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11.3035</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'С реальными коэффициентами'!$AD$5:$AD$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1.3394017872052242</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4211626451622319</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5863089231076994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7734684684783897</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9871243382048771</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1574233541844219</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2972963540931897</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.43421769041103</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0411331415600653</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1064455284680772</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.743421469805325</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.8097636604904661</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.8689854664543812</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.9249424288471939</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.9865887567497094</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.0446683487713582</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.0981053910238128</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.1930141365491966</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.2469850688769331</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.2447020948582583</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.2037745260909762</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.0909986775222809</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.8526265795423633</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.4036241490231394</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.6881172597800287</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="84760448"/>
+        <c:axId val="84771200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="110004096"/>
+        <c:axId val="84760448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="85"/>
@@ -5119,7 +5530,7 @@
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
               <c:x val="0.36124015139803217"/>
-              <c:y val="0.95185883398686644"/>
+              <c:y val="0.95185883398686655"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -5132,14 +5543,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="110005632"/>
+        <c:crossAx val="84771200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
         <c:minorUnit val="2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="110005632"/>
+        <c:axId val="84771200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
@@ -5287,8 +5698,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.0605839398794278E-2"/>
-              <c:y val="0.32308858388393952"/>
+              <c:x val="1.0605839398794283E-2"/>
+              <c:y val="0.32308858388393963"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
@@ -5301,7 +5712,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="110004096"/>
+        <c:crossAx val="84760448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5312,10 +5723,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.33891984302871825"/>
+          <c:x val="0.33891984302871836"/>
           <c:y val="0.65441085398444065"/>
-          <c:w val="0.28180972381663577"/>
-          <c:h val="0.15719272701194187"/>
+          <c:w val="0.2038564655831368"/>
+          <c:h val="0.19150866258400928"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -5371,7 +5782,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="80" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="81" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5382,7 +5793,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5427,7 +5838,7 @@
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
+    <xdr:pos x="35278" y="35278"/>
     <xdr:ext cx="9301574" cy="6079537"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6093,77 +6504,77 @@
   <sheetData>
     <row r="1" spans="2:23" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:23" ht="15.75" thickBot="1">
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="67" t="s">
+      <c r="F2" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="67" t="s">
+      <c r="G2" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="67" t="s">
+      <c r="H2" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="69" t="s">
+      <c r="I2" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="70"/>
-      <c r="K2" s="67" t="s">
+      <c r="J2" s="77"/>
+      <c r="K2" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="L2" s="67" t="s">
+      <c r="L2" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="M2" s="67" t="s">
+      <c r="M2" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="N2" s="67" t="s">
+      <c r="N2" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="O2" s="69" t="s">
+      <c r="O2" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="69" t="s">
+      <c r="P2" s="77"/>
+      <c r="Q2" s="76" t="s">
         <v>181</v>
       </c>
-      <c r="R2" s="70"/>
-      <c r="S2" s="67" t="s">
+      <c r="R2" s="77"/>
+      <c r="S2" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="T2" s="67" t="s">
+      <c r="T2" s="78" t="s">
         <v>60</v>
       </c>
       <c r="W2" s="6"/>
     </row>
     <row r="3" spans="2:23" ht="15.75" thickBot="1">
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
       <c r="I3" s="26" t="s">
         <v>183</v>
       </c>
       <c r="J3" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
       <c r="O3" s="28" t="s">
         <v>185</v>
       </c>
@@ -6176,8 +6587,8 @@
       <c r="R3" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="S3" s="68"/>
-      <c r="T3" s="68"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
       <c r="W3" s="6"/>
     </row>
     <row r="4" spans="2:23">
@@ -7821,6 +8232,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="S2:S3"/>
@@ -7831,12 +8248,6 @@
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7859,17 +8270,17 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="76" t="s">
         <v>187</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="67" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="78" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7880,9 +8291,9 @@
       <c r="B3" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="19">
@@ -9337,8 +9748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC29"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Z5" sqref="Z5:Z27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K4" sqref="K4:K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9353,110 +9764,110 @@
   <sheetData>
     <row r="1" spans="1:29" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:29" ht="15.75" thickBot="1">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="71" t="s">
+      <c r="E2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="71" t="s">
+      <c r="F2" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="71" t="s">
+      <c r="G2" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="71" t="s">
+      <c r="H2" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="71" t="s">
+      <c r="I2" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="71" t="s">
+      <c r="J2" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="73" t="s">
+      <c r="K2" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="73"/>
-      <c r="M2" s="71" t="s">
+      <c r="L2" s="84"/>
+      <c r="M2" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="71" t="s">
+      <c r="N2" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="71" t="s">
+      <c r="O2" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="71" t="s">
+      <c r="P2" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="71" t="s">
+      <c r="Q2" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="71" t="s">
+      <c r="R2" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="71" t="s">
+      <c r="S2" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="71" t="s">
+      <c r="T2" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="U2" s="71" t="s">
+      <c r="U2" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="71" t="s">
+      <c r="V2" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="Y2" s="74" t="s">
+      <c r="Y2" s="82" t="s">
         <v>189</v>
       </c>
-      <c r="Z2" s="74" t="s">
+      <c r="Z2" s="82" t="s">
         <v>190</v>
       </c>
-      <c r="AA2" s="67" t="s">
+      <c r="AA2" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="AB2" s="67" t="s">
+      <c r="AB2" s="78" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="15.75" thickBot="1">
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
       <c r="K3" s="31" t="s">
         <v>182</v>
       </c>
       <c r="L3" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="72"/>
-      <c r="T3" s="72"/>
-      <c r="U3" s="72"/>
-      <c r="V3" s="72"/>
-      <c r="Y3" s="75"/>
-      <c r="Z3" s="75"/>
-      <c r="AA3" s="68"/>
-      <c r="AB3" s="68"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="81"/>
+      <c r="T3" s="81"/>
+      <c r="U3" s="81"/>
+      <c r="V3" s="81"/>
+      <c r="Y3" s="83"/>
+      <c r="Z3" s="83"/>
+      <c r="AA3" s="79"/>
+      <c r="AB3" s="79"/>
     </row>
     <row r="4" spans="1:29">
       <c r="A4" s="12">
@@ -11412,87 +11823,87 @@
         <v>-1.6052939598949266E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:28" s="81" customFormat="1">
-      <c r="A27" s="76">
+    <row r="27" spans="1:28" s="72" customFormat="1">
+      <c r="A27" s="67">
         <v>24</v>
       </c>
-      <c r="B27" s="77">
+      <c r="B27" s="68">
         <v>15908906.6</v>
       </c>
-      <c r="C27" s="78">
+      <c r="C27" s="69">
         <v>8.6154000000000002E-5</v>
       </c>
-      <c r="D27" s="78">
+      <c r="D27" s="69">
         <v>8.6180999999999994E-5</v>
       </c>
-      <c r="E27" s="77">
+      <c r="E27" s="68">
         <v>1.356E-3</v>
       </c>
-      <c r="F27" s="77">
+      <c r="F27" s="68">
         <v>1.4571E-3</v>
       </c>
-      <c r="G27" s="77">
+      <c r="G27" s="68">
         <v>16.626000000000001</v>
       </c>
-      <c r="H27" s="77">
+      <c r="H27" s="68">
         <v>293.01</v>
       </c>
-      <c r="I27" s="77">
+      <c r="I27" s="68">
         <v>315.74</v>
       </c>
-      <c r="J27" s="79">
+      <c r="J27" s="70">
         <v>6.8364000000000003</v>
       </c>
-      <c r="K27" s="80">
+      <c r="K27" s="71">
         <f t="shared" si="0"/>
         <v>16.106999999999999</v>
       </c>
-      <c r="L27" s="77">
+      <c r="L27" s="68">
         <v>60.401249999999997</v>
       </c>
-      <c r="M27" s="77">
+      <c r="M27" s="68">
         <v>103.04</v>
       </c>
-      <c r="N27" s="77">
+      <c r="N27" s="68">
         <v>103.04</v>
       </c>
-      <c r="O27" s="77">
+      <c r="O27" s="68">
         <v>7.1420000000000003</v>
       </c>
-      <c r="P27" s="79">
+      <c r="P27" s="70">
         <v>2.8405</v>
       </c>
-      <c r="Q27" s="79">
+      <c r="Q27" s="70">
         <v>5.2034000000000002</v>
       </c>
-      <c r="R27" s="77">
+      <c r="R27" s="68">
         <v>4.6660000000000004</v>
       </c>
-      <c r="S27" s="77">
+      <c r="S27" s="68">
         <v>90801</v>
       </c>
-      <c r="T27" s="77">
+      <c r="T27" s="68">
         <v>2379.9</v>
       </c>
-      <c r="U27" s="77">
+      <c r="U27" s="68">
         <v>64.873000000000005</v>
       </c>
-      <c r="V27" s="77">
+      <c r="V27" s="68">
         <v>-16.747</v>
       </c>
-      <c r="Y27" s="82">
+      <c r="Y27" s="73">
         <f t="shared" si="1"/>
         <v>1.1603906284633656</v>
       </c>
-      <c r="Z27" s="77">
+      <c r="Z27" s="68">
         <f t="shared" si="2"/>
         <v>1.1582490008459188</v>
       </c>
-      <c r="AA27" s="77">
+      <c r="AA27" s="68">
         <f t="shared" si="4"/>
         <v>-5.6016429892169518E-5</v>
       </c>
-      <c r="AB27" s="77">
+      <c r="AB27" s="68">
         <f t="shared" si="3"/>
         <v>-3.2015563975011207E-5</v>
       </c>
@@ -11669,14 +12080,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Z2:Z3"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="B2:B3"/>
@@ -11693,6 +12096,14 @@
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Z2:Z3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11700,10 +12111,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:AB74"/>
+  <dimension ref="B1:AD74"/>
   <sheetViews>
     <sheetView topLeftCell="T6" workbookViewId="0">
-      <selection activeCell="AA5" sqref="AA5:AA13"/>
+      <selection activeCell="AF9" sqref="AF9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11717,91 +12128,94 @@
     <col min="19" max="19" width="10.85546875" customWidth="1"/>
     <col min="22" max="22" width="14.42578125" customWidth="1"/>
     <col min="24" max="24" width="15.28515625" customWidth="1"/>
+    <col min="28" max="28" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.140625" style="86"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:28" ht="15.75" thickBot="1">
-      <c r="B2" s="67" t="s">
+    <row r="1" spans="2:30" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:30" ht="15.75" thickBot="1">
+      <c r="B2" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="67" t="s">
+      <c r="F2" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="67" t="s">
+      <c r="G2" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="67" t="s">
+      <c r="H2" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="69" t="s">
+      <c r="I2" s="76" t="s">
         <v>191</v>
       </c>
-      <c r="J2" s="70"/>
-      <c r="K2" s="67" t="s">
+      <c r="J2" s="77"/>
+      <c r="K2" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="L2" s="67" t="s">
+      <c r="L2" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="M2" s="67" t="s">
+      <c r="M2" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="N2" s="67" t="s">
+      <c r="N2" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="O2" s="67" t="s">
+      <c r="O2" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="P2" s="67" t="s">
+      <c r="P2" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="Q2" s="67" t="s">
+      <c r="Q2" s="78" t="s">
         <v>181</v>
       </c>
-      <c r="R2" s="67" t="s">
+      <c r="R2" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="S2" s="67" t="s">
+      <c r="S2" s="78" t="s">
         <v>60</v>
       </c>
       <c r="V2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="2:28" ht="15.75" thickBot="1">
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
+    <row r="3" spans="2:30" ht="15.75" thickBot="1">
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
       <c r="I3" s="28" t="s">
         <v>183</v>
       </c>
       <c r="J3" s="28" t="s">
         <v>184</v>
       </c>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="68"/>
-    </row>
-    <row r="4" spans="2:28" ht="15.75" thickBot="1">
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+    </row>
+    <row r="4" spans="2:30" ht="15.75" thickBot="1">
       <c r="B4" s="30" t="s">
         <v>1</v>
       </c>
@@ -11871,8 +12285,14 @@
       <c r="AA4" s="51" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="5" spans="2:28">
+      <c r="AC4" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="AD4" s="51" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="2:30">
       <c r="B5" s="16">
         <v>1</v>
       </c>
@@ -11938,20 +12358,30 @@
       <c r="X5" s="19">
         <v>1.1831441785008401</v>
       </c>
-      <c r="Y5" s="83">
+      <c r="Y5" s="74">
         <v>1.36615792509918E-3</v>
       </c>
-      <c r="Z5" s="85">
+      <c r="Z5" s="75">
         <f>1000*Y5</f>
         <v>1.36615792509918</v>
       </c>
-      <c r="AA5" s="83">
+      <c r="AA5" s="74">
         <f>6.06241971886159E-10*W5^6 - 1.32494472434079E-07*W5^5 + 9.18618579521347E-06*W5^4 - 0.000093068715449367*W5^3 - 0.0151387134115026*W5^2 + 0.603438740730304*W5 - 3.37847555459548</f>
         <v>1.4053398841586522</v>
       </c>
-      <c r="AB5" s="84"/>
-    </row>
-    <row r="6" spans="2:28">
+      <c r="AB5" s="87">
+        <v>1.2798601178484099E-3</v>
+      </c>
+      <c r="AC5" s="85">
+        <f>AB5*1000</f>
+        <v>1.2798601178484099</v>
+      </c>
+      <c r="AD5">
+        <f xml:space="preserve"> 7.59084280689223E-11*W5^6 + 1.40413429301879E-08*W5^5 - 6.60242755239855E-06*W5^4 + 0.000741177243225763*W5^3 - 0.0373181765657033*W5^2 + 0.869789904532575*W5 - 4.34084418714931</f>
+        <v>1.3394017872052242</v>
+      </c>
+    </row>
+    <row r="6" spans="2:30">
       <c r="B6" s="16">
         <v>2</v>
       </c>
@@ -12017,20 +12447,30 @@
       <c r="X6" s="16">
         <v>1.4498341142144802</v>
       </c>
-      <c r="Y6" s="83">
+      <c r="Y6" s="74">
         <v>1.4264024253198399E-3</v>
       </c>
-      <c r="Z6" s="85">
+      <c r="Z6" s="75">
         <f t="shared" ref="Z6:Z29" si="2">1000*Y6</f>
         <v>1.42640242531984</v>
       </c>
-      <c r="AA6" s="83">
+      <c r="AA6" s="74">
         <f t="shared" ref="AA6:AA29" si="3">6.06241971886159E-10*W6^6 - 1.32494472434079E-07*W6^5 + 9.18618579521347E-06*W6^4 - 0.000093068715449367*W6^3 - 0.0151387134115026*W6^2 + 0.603438740730304*W6 - 3.37847555459548</f>
         <v>1.4288404710189178</v>
       </c>
-      <c r="AB6" s="84"/>
-    </row>
-    <row r="7" spans="2:28">
+      <c r="AB6" s="87">
+        <v>1.5023136362685701E-3</v>
+      </c>
+      <c r="AC6" s="85">
+        <f t="shared" ref="AC6:AC29" si="4">AB6*1000</f>
+        <v>1.5023136362685701</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" ref="AD6:AD29" si="5" xml:space="preserve"> 7.59084280689223E-11*W6^6 + 1.40413429301879E-08*W6^5 - 6.60242755239855E-06*W6^4 + 0.000741177243225763*W6^3 - 0.0373181765657033*W6^2 + 0.869789904532575*W6 - 4.34084418714931</f>
+        <v>1.4211626451622319</v>
+      </c>
+    </row>
+    <row r="7" spans="2:30">
       <c r="B7" s="16">
         <v>3</v>
       </c>
@@ -12096,20 +12536,30 @@
       <c r="X7" s="16">
         <v>1.6427633743194483</v>
       </c>
-      <c r="Y7" s="83">
+      <c r="Y7" s="74">
         <v>1.86139022750312E-3</v>
       </c>
-      <c r="Z7" s="85">
+      <c r="Z7" s="75">
         <f t="shared" si="2"/>
         <v>1.86139022750312</v>
       </c>
-      <c r="AA7" s="83">
+      <c r="AA7" s="74">
         <f t="shared" si="3"/>
         <v>1.5973031259427466</v>
       </c>
-      <c r="AB7" s="84"/>
-    </row>
-    <row r="8" spans="2:28">
+      <c r="AB7" s="87">
+        <v>1.6872585991282499E-3</v>
+      </c>
+      <c r="AC7" s="85">
+        <f t="shared" si="4"/>
+        <v>1.6872585991282498</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="5"/>
+        <v>1.5863089231076994</v>
+      </c>
+    </row>
+    <row r="8" spans="2:30">
       <c r="B8" s="16">
         <v>4</v>
       </c>
@@ -12175,20 +12625,30 @@
       <c r="X8" s="16">
         <v>1.7868414341581285</v>
       </c>
-      <c r="Y8" s="83">
+      <c r="Y8" s="74">
         <v>1.5926314313674101E-3</v>
       </c>
-      <c r="Z8" s="85">
+      <c r="Z8" s="75">
         <f t="shared" si="2"/>
         <v>1.5926314313674101</v>
       </c>
-      <c r="AA8" s="83">
+      <c r="AA8" s="74">
         <f t="shared" si="3"/>
         <v>1.8045493139135851</v>
       </c>
-      <c r="AB8" s="84"/>
-    </row>
-    <row r="9" spans="2:28">
+      <c r="AB8" s="87">
+        <v>1.7082293397893699E-3</v>
+      </c>
+      <c r="AC8" s="85">
+        <f t="shared" si="4"/>
+        <v>1.70822933978937</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="5"/>
+        <v>1.7734684684783897</v>
+      </c>
+    </row>
+    <row r="9" spans="2:30">
       <c r="B9" s="16">
         <v>5</v>
       </c>
@@ -12254,20 +12714,30 @@
       <c r="X9" s="16">
         <v>1.9195809579860685</v>
       </c>
-      <c r="Y9" s="83">
+      <c r="Y9" s="74">
         <v>1.8614741688707699E-3</v>
       </c>
-      <c r="Z9" s="85">
+      <c r="Z9" s="75">
         <f t="shared" si="2"/>
         <v>1.8614741688707699</v>
       </c>
-      <c r="AA9" s="83">
+      <c r="AA9" s="74">
         <f t="shared" si="3"/>
         <v>2.039274679081823</v>
       </c>
-      <c r="AB9" s="84"/>
-    </row>
-    <row r="10" spans="2:28">
+      <c r="AB9" s="87">
+        <v>1.8577757710259101E-3</v>
+      </c>
+      <c r="AC9" s="85">
+        <f t="shared" si="4"/>
+        <v>1.8577757710259102</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="5"/>
+        <v>1.9871243382048771</v>
+      </c>
+    </row>
+    <row r="10" spans="2:30">
       <c r="B10" s="16">
         <v>6</v>
       </c>
@@ -12333,20 +12803,30 @@
       <c r="X10" s="16">
         <v>2.0176446822835437</v>
       </c>
-      <c r="Y10" s="83">
+      <c r="Y10" s="74">
         <v>2.4078821824185799E-3</v>
       </c>
-      <c r="Z10" s="85">
+      <c r="Z10" s="75">
         <f t="shared" si="2"/>
         <v>2.4078821824185801</v>
       </c>
-      <c r="AA10" s="83">
+      <c r="AA10" s="74">
         <f t="shared" si="3"/>
         <v>2.2189610539349993</v>
       </c>
-      <c r="AB10" s="84"/>
-    </row>
-    <row r="11" spans="2:28">
+      <c r="AB10" s="87">
+        <v>2.1716127232829299E-3</v>
+      </c>
+      <c r="AC10" s="85">
+        <f t="shared" si="4"/>
+        <v>2.1716127232829301</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="5"/>
+        <v>2.1574233541844219</v>
+      </c>
+    </row>
+    <row r="11" spans="2:30">
       <c r="B11" s="16">
         <v>7</v>
       </c>
@@ -12412,20 +12892,30 @@
       <c r="X11" s="16">
         <v>2.1001560498913938</v>
       </c>
-      <c r="Y11" s="83">
+      <c r="Y11" s="74">
         <v>2.41953592107572E-3</v>
       </c>
-      <c r="Z11" s="85">
+      <c r="Z11" s="75">
         <f t="shared" si="2"/>
         <v>2.4195359210757199</v>
       </c>
-      <c r="AA11" s="83">
+      <c r="AA11" s="74">
         <f t="shared" si="3"/>
         <v>2.359060997601889</v>
       </c>
-      <c r="AB11" s="84"/>
-    </row>
-    <row r="12" spans="2:28">
+      <c r="AB11" s="87">
+        <v>2.3892370792404001E-3</v>
+      </c>
+      <c r="AC11" s="85">
+        <f t="shared" si="4"/>
+        <v>2.3892370792404001</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="5"/>
+        <v>2.2972963540931897</v>
+      </c>
+    </row>
+    <row r="12" spans="2:30">
       <c r="B12" s="16">
         <v>8</v>
       </c>
@@ -12491,20 +12981,30 @@
       <c r="X12" s="16">
         <v>2.1890169986146595</v>
       </c>
-      <c r="Y12" s="83">
+      <c r="Y12" s="74">
         <v>2.3124361120074001E-3</v>
       </c>
-      <c r="Z12" s="85">
+      <c r="Z12" s="75">
         <f t="shared" si="2"/>
         <v>2.3124361120074002</v>
       </c>
-      <c r="AA12" s="83">
+      <c r="AA12" s="74">
         <f t="shared" si="3"/>
         <v>2.4877732036187994</v>
       </c>
-      <c r="AB12" s="84"/>
-    </row>
-    <row r="13" spans="2:28">
+      <c r="AB12" s="87">
+        <v>2.3379968198957999E-3</v>
+      </c>
+      <c r="AC12" s="85">
+        <f t="shared" si="4"/>
+        <v>2.3379968198957997</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" si="5"/>
+        <v>2.43421769041103</v>
+      </c>
+    </row>
+    <row r="13" spans="2:30">
       <c r="B13" s="39">
         <v>9</v>
       </c>
@@ -12570,20 +13070,30 @@
       <c r="X13" s="16">
         <v>2.9635148599007315</v>
       </c>
-      <c r="Y13" s="83">
+      <c r="Y13" s="74">
         <v>2.4899984964999499E-3</v>
       </c>
-      <c r="Z13" s="85">
+      <c r="Z13" s="75">
         <f t="shared" si="2"/>
         <v>2.48999849649995</v>
       </c>
-      <c r="AA13" s="83">
+      <c r="AA13" s="74">
         <f t="shared" si="3"/>
         <v>3.034261438139739</v>
       </c>
-      <c r="AB13" s="84"/>
-    </row>
-    <row r="14" spans="2:28">
+      <c r="AB13" s="87">
+        <v>2.36245404595011E-3</v>
+      </c>
+      <c r="AC13" s="85">
+        <f t="shared" si="4"/>
+        <v>2.36245404595011</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="5"/>
+        <v>3.0411331415600653</v>
+      </c>
+    </row>
+    <row r="14" spans="2:30">
       <c r="B14" s="16">
         <v>10</v>
       </c>
@@ -12649,20 +13159,30 @@
       <c r="X14" s="16">
         <v>3.0467827819517903</v>
       </c>
-      <c r="Y14" s="83">
+      <c r="Y14" s="74">
         <v>2.8426037406588602E-3</v>
       </c>
-      <c r="Z14" s="85">
+      <c r="Z14" s="75">
         <f t="shared" si="2"/>
         <v>2.84260374065886</v>
       </c>
-      <c r="AA14" s="83">
+      <c r="AA14" s="74">
         <f t="shared" si="3"/>
         <v>3.1136999443070654</v>
       </c>
-      <c r="AB14" s="84"/>
-    </row>
-    <row r="15" spans="2:28">
+      <c r="AB14" s="87">
+        <v>2.6407298507069498E-3</v>
+      </c>
+      <c r="AC14" s="85">
+        <f t="shared" si="4"/>
+        <v>2.6407298507069497</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="5"/>
+        <v>3.1064455284680772</v>
+      </c>
+    </row>
+    <row r="15" spans="2:30">
       <c r="B15" s="16">
         <v>11</v>
       </c>
@@ -12728,20 +13248,30 @@
       <c r="X15" s="16">
         <v>2.4811320882220271</v>
       </c>
-      <c r="Y15" s="83">
+      <c r="Y15" s="74">
         <v>2.7240795837465402E-3</v>
       </c>
-      <c r="Z15" s="85">
+      <c r="Z15" s="75">
         <f t="shared" si="2"/>
         <v>2.7240795837465401</v>
       </c>
-      <c r="AA15" s="83">
+      <c r="AA15" s="74">
         <f t="shared" si="3"/>
         <v>2.7426835244621253</v>
       </c>
-      <c r="AB15" s="84"/>
-    </row>
-    <row r="16" spans="2:28">
+      <c r="AB15" s="87">
+        <v>2.69605856730642E-3</v>
+      </c>
+      <c r="AC15" s="85">
+        <f t="shared" si="4"/>
+        <v>2.6960585673064199</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="5"/>
+        <v>2.743421469805325</v>
+      </c>
+    </row>
+    <row r="16" spans="2:30">
       <c r="B16" s="16">
         <v>12</v>
       </c>
@@ -12807,20 +13337,30 @@
       <c r="X16" s="16">
         <v>2.5780988497784754</v>
       </c>
-      <c r="Y16" s="83">
+      <c r="Y16" s="74">
         <v>3.0014415442210399E-3</v>
       </c>
-      <c r="Z16" s="85">
+      <c r="Z16" s="75">
         <f t="shared" si="2"/>
         <v>3.00144154422104</v>
       </c>
-      <c r="AA16" s="83">
+      <c r="AA16" s="74">
         <f t="shared" si="3"/>
         <v>2.7952354531311792</v>
       </c>
-      <c r="AB16" s="84"/>
-    </row>
-    <row r="17" spans="2:28">
+      <c r="AB16" s="87">
+        <v>2.8188550729594899E-3</v>
+      </c>
+      <c r="AC16" s="85">
+        <f t="shared" si="4"/>
+        <v>2.8188550729594901</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" si="5"/>
+        <v>2.8097636604904661</v>
+      </c>
+    </row>
+    <row r="17" spans="2:30">
       <c r="B17" s="16">
         <v>13</v>
       </c>
@@ -12886,20 +13426,30 @@
       <c r="X17" s="16">
         <v>2.6770892564356017</v>
       </c>
-      <c r="Y17" s="83">
+      <c r="Y17" s="74">
         <v>3.0670397013829501E-3</v>
       </c>
-      <c r="Z17" s="85">
+      <c r="Z17" s="75">
         <f t="shared" si="2"/>
         <v>3.0670397013829502</v>
       </c>
-      <c r="AA17" s="83">
+      <c r="AA17" s="74">
         <f t="shared" si="3"/>
         <v>2.8465538828354924</v>
       </c>
-      <c r="AB17" s="84"/>
-    </row>
-    <row r="18" spans="2:28">
+      <c r="AB17" s="87">
+        <v>3.09175188454053E-3</v>
+      </c>
+      <c r="AC17" s="85">
+        <f t="shared" si="4"/>
+        <v>3.0917518845405301</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="5"/>
+        <v>2.8689854664543812</v>
+      </c>
+    </row>
+    <row r="18" spans="2:30">
       <c r="B18" s="16">
         <v>14</v>
       </c>
@@ -12965,20 +13515,30 @@
       <c r="X18" s="16">
         <v>2.7757544611952603</v>
       </c>
-      <c r="Y18" s="83">
+      <c r="Y18" s="74">
         <v>2.8034281489528901E-3</v>
       </c>
-      <c r="Z18" s="85">
+      <c r="Z18" s="75">
         <f t="shared" si="2"/>
         <v>2.8034281489528903</v>
       </c>
-      <c r="AA18" s="83">
+      <c r="AA18" s="74">
         <f t="shared" si="3"/>
         <v>2.9014932697510845</v>
       </c>
-      <c r="AB18" s="84"/>
-    </row>
-    <row r="19" spans="2:28">
+      <c r="AB18" s="87">
+        <v>3.0875622905918399E-3</v>
+      </c>
+      <c r="AC18" s="85">
+        <f t="shared" si="4"/>
+        <v>3.0875622905918401</v>
+      </c>
+      <c r="AD18">
+        <f t="shared" si="5"/>
+        <v>2.9249424288471939</v>
+      </c>
+    </row>
+    <row r="19" spans="2:30">
       <c r="B19" s="16">
         <v>15</v>
       </c>
@@ -13044,20 +13604,30 @@
       <c r="X19" s="16">
         <v>2.8805657989830045</v>
       </c>
-      <c r="Y19" s="83">
+      <c r="Y19" s="74">
         <v>3.06739958781755E-3</v>
       </c>
-      <c r="Z19" s="85">
+      <c r="Z19" s="75">
         <f t="shared" si="2"/>
         <v>3.0673995878175502</v>
       </c>
-      <c r="AA19" s="83">
+      <c r="AA19" s="74">
         <f t="shared" si="3"/>
         <v>2.969541829050192</v>
       </c>
-      <c r="AB19" s="84"/>
-    </row>
-    <row r="20" spans="2:28">
+      <c r="AB19" s="87">
+        <v>3.1985045672881002E-3</v>
+      </c>
+      <c r="AC19" s="85">
+        <f t="shared" si="4"/>
+        <v>3.1985045672881003</v>
+      </c>
+      <c r="AD19">
+        <f t="shared" si="5"/>
+        <v>2.9865887567497094</v>
+      </c>
+    </row>
+    <row r="20" spans="2:30">
       <c r="B20" s="16">
         <v>16</v>
       </c>
@@ -13123,20 +13693,30 @@
       <c r="X20" s="16">
         <v>2.968491356736441</v>
       </c>
-      <c r="Y20" s="83">
+      <c r="Y20" s="74">
         <v>2.7291543239462601E-3</v>
       </c>
-      <c r="Z20" s="85">
+      <c r="Z20" s="75">
         <f t="shared" si="2"/>
         <v>2.7291543239462603</v>
       </c>
-      <c r="AA20" s="83">
+      <c r="AA20" s="74">
         <f t="shared" si="3"/>
         <v>3.0385390017782101</v>
       </c>
-      <c r="AB20" s="84"/>
-    </row>
-    <row r="21" spans="2:28">
+      <c r="AB20" s="87">
+        <v>3.2310171802684999E-3</v>
+      </c>
+      <c r="AC20" s="85">
+        <f t="shared" si="4"/>
+        <v>3.2310171802684997</v>
+      </c>
+      <c r="AD20">
+        <f t="shared" si="5"/>
+        <v>3.0446683487713582</v>
+      </c>
+    </row>
+    <row r="21" spans="2:30">
       <c r="B21" s="16">
         <v>17</v>
       </c>
@@ -13202,20 +13782,30 @@
       <c r="X21" s="16">
         <v>3.0372066172390109</v>
       </c>
-      <c r="Y21" s="83">
+      <c r="Y21" s="74">
         <v>3.6569794970074099E-3</v>
       </c>
-      <c r="Z21" s="85">
+      <c r="Z21" s="75">
         <f t="shared" si="2"/>
         <v>3.6569794970074101</v>
       </c>
-      <c r="AA21" s="83">
+      <c r="AA21" s="74">
         <f t="shared" si="3"/>
         <v>3.1035688015870115</v>
       </c>
-      <c r="AB21" s="84"/>
-    </row>
-    <row r="22" spans="2:28">
+      <c r="AB21" s="87">
+        <v>3.20026486641281E-3</v>
+      </c>
+      <c r="AC21" s="85">
+        <f t="shared" si="4"/>
+        <v>3.2002648664128102</v>
+      </c>
+      <c r="AD21">
+        <f t="shared" si="5"/>
+        <v>3.0981053910238128</v>
+      </c>
+    </row>
+    <row r="22" spans="2:30">
       <c r="B22" s="16">
         <v>18</v>
       </c>
@@ -13281,20 +13871,30 @@
       <c r="X22" s="16">
         <v>3.1245224834220973</v>
       </c>
-      <c r="Y22" s="83">
+      <c r="Y22" s="74">
         <v>3.5362784163974399E-3</v>
       </c>
-      <c r="Z22" s="85">
+      <c r="Z22" s="75">
         <f t="shared" si="2"/>
         <v>3.5362784163974399</v>
       </c>
-      <c r="AA22" s="83">
+      <c r="AA22" s="74">
         <f t="shared" si="3"/>
         <v>3.2152239773908282</v>
       </c>
-      <c r="AB22" s="84"/>
-    </row>
-    <row r="23" spans="2:28">
+      <c r="AB22" s="87">
+        <v>3.3533255127467698E-3</v>
+      </c>
+      <c r="AC22" s="85">
+        <f t="shared" si="4"/>
+        <v>3.3533255127467698</v>
+      </c>
+      <c r="AD22">
+        <f t="shared" si="5"/>
+        <v>3.1930141365491966</v>
+      </c>
+    </row>
+    <row r="23" spans="2:30">
       <c r="B23" s="16">
         <v>19</v>
       </c>
@@ -13360,20 +13960,30 @@
       <c r="X23" s="16">
         <v>3.1295619800100716</v>
       </c>
-      <c r="Y23" s="83">
+      <c r="Y23" s="74">
         <v>3.3668510067337599E-3</v>
       </c>
-      <c r="Z23" s="85">
+      <c r="Z23" s="75">
         <f t="shared" si="2"/>
         <v>3.3668510067337598</v>
       </c>
-      <c r="AA23" s="83">
+      <c r="AA23" s="74">
         <f t="shared" si="3"/>
         <v>3.2643290339705495</v>
       </c>
-      <c r="AB23" s="84"/>
-    </row>
-    <row r="24" spans="2:28">
+      <c r="AB23" s="87">
+        <v>3.5245107757621501E-3</v>
+      </c>
+      <c r="AC23" s="85">
+        <f t="shared" si="4"/>
+        <v>3.5245107757621499</v>
+      </c>
+      <c r="AD23">
+        <f t="shared" si="5"/>
+        <v>3.2469850688769331</v>
+      </c>
+    </row>
+    <row r="24" spans="2:30">
       <c r="B24" s="16">
         <v>20</v>
       </c>
@@ -13439,20 +14049,30 @@
       <c r="X24" s="16">
         <v>3.0929913090894394</v>
       </c>
-      <c r="Y24" s="83">
+      <c r="Y24" s="74">
         <v>3.1805841521933402E-3</v>
       </c>
-      <c r="Z24" s="85">
+      <c r="Z24" s="75">
         <f t="shared" si="2"/>
         <v>3.1805841521933402</v>
       </c>
-      <c r="AA24" s="83">
+      <c r="AA24" s="74">
         <f t="shared" si="3"/>
         <v>3.2478683276516009</v>
       </c>
-      <c r="AB24" s="84"/>
-    </row>
-    <row r="25" spans="2:28">
+      <c r="AB24" s="87">
+        <v>3.2070365817651299E-3</v>
+      </c>
+      <c r="AC24" s="85">
+        <f t="shared" si="4"/>
+        <v>3.2070365817651298</v>
+      </c>
+      <c r="AD24">
+        <f t="shared" si="5"/>
+        <v>3.2447020948582583</v>
+      </c>
+    </row>
+    <row r="25" spans="2:30">
       <c r="B25" s="16">
         <v>21</v>
       </c>
@@ -13518,20 +14138,30 @@
       <c r="X25" s="16">
         <v>3.0127464529426402</v>
       </c>
-      <c r="Y25" s="83">
+      <c r="Y25" s="74">
         <v>2.98023628006573E-3</v>
       </c>
-      <c r="Z25" s="85">
+      <c r="Z25" s="75">
         <f t="shared" si="2"/>
         <v>2.9802362800657298</v>
       </c>
-      <c r="AA25" s="83">
+      <c r="AA25" s="74">
         <f t="shared" si="3"/>
         <v>3.1805146610008657</v>
       </c>
-      <c r="AB25" s="84"/>
-    </row>
-    <row r="26" spans="2:28">
+      <c r="AB25" s="87">
+        <v>3.28710407474123E-3</v>
+      </c>
+      <c r="AC25" s="85">
+        <f t="shared" si="4"/>
+        <v>3.2871040747412299</v>
+      </c>
+      <c r="AD25">
+        <f t="shared" si="5"/>
+        <v>3.2037745260909762</v>
+      </c>
+    </row>
+    <row r="26" spans="2:30">
       <c r="B26" s="16">
         <v>22</v>
       </c>
@@ -13597,20 +14227,30 @@
       <c r="X26" s="16">
         <v>2.8661075518731276</v>
       </c>
-      <c r="Y26" s="83">
+      <c r="Y26" s="74">
         <v>3.2205324145570201E-3</v>
       </c>
-      <c r="Z26" s="85">
+      <c r="Z26" s="75">
         <f t="shared" si="2"/>
         <v>3.2205324145570202</v>
       </c>
-      <c r="AA26" s="83">
+      <c r="AA26" s="74">
         <f t="shared" si="3"/>
         <v>3.0266408130024085</v>
       </c>
-      <c r="AB26" s="84"/>
-    </row>
-    <row r="27" spans="2:28">
+      <c r="AB26" s="87">
+        <v>3.1872965346978902E-3</v>
+      </c>
+      <c r="AC26" s="85">
+        <f t="shared" si="4"/>
+        <v>3.1872965346978903</v>
+      </c>
+      <c r="AD26">
+        <f t="shared" si="5"/>
+        <v>3.0909986775222809</v>
+      </c>
+    </row>
+    <row r="27" spans="2:30">
       <c r="B27" s="16">
         <v>23</v>
       </c>
@@ -13676,20 +14316,30 @@
       <c r="X27" s="16">
         <v>2.6216994249333232</v>
       </c>
-      <c r="Y27" s="83">
+      <c r="Y27" s="74">
         <v>2.6161207944545499E-3</v>
       </c>
-      <c r="Z27" s="85">
+      <c r="Z27" s="75">
         <f t="shared" si="2"/>
         <v>2.6161207944545497</v>
       </c>
-      <c r="AA27" s="83">
+      <c r="AA27" s="74">
         <f t="shared" si="3"/>
         <v>2.7346511185536886</v>
       </c>
-      <c r="AB27" s="84"/>
-    </row>
-    <row r="28" spans="2:28">
+      <c r="AB27" s="87">
+        <v>2.5588197188654402E-3</v>
+      </c>
+      <c r="AC27" s="85">
+        <f t="shared" si="4"/>
+        <v>2.5588197188654402</v>
+      </c>
+      <c r="AD27">
+        <f t="shared" si="5"/>
+        <v>2.8526265795423633</v>
+      </c>
+    </row>
+    <row r="28" spans="2:30">
       <c r="B28" s="16">
         <v>24</v>
       </c>
@@ -13755,20 +14405,30 @@
       <c r="X28" s="16">
         <v>2.2364706875164022</v>
       </c>
-      <c r="Y28" s="83">
+      <c r="Y28" s="74">
         <v>2.2370151217206398E-3</v>
       </c>
-      <c r="Z28" s="85">
+      <c r="Z28" s="75">
         <f t="shared" si="2"/>
         <v>2.2370151217206398</v>
       </c>
-      <c r="AA28" s="83">
+      <c r="AA28" s="74">
         <f t="shared" si="3"/>
         <v>2.2328599596907526</v>
       </c>
-      <c r="AB28" s="84"/>
-    </row>
-    <row r="29" spans="2:28">
+      <c r="AB28" s="87">
+        <v>2.42100809533723E-3</v>
+      </c>
+      <c r="AC28" s="85">
+        <f t="shared" si="4"/>
+        <v>2.4210080953372302</v>
+      </c>
+      <c r="AD28">
+        <f t="shared" si="5"/>
+        <v>2.4036241490231394</v>
+      </c>
+    </row>
+    <row r="29" spans="2:30">
       <c r="B29" s="16">
         <v>25</v>
       </c>
@@ -13834,18 +14494,31 @@
       <c r="X29" s="16">
         <v>1.7046822498794225</v>
       </c>
-      <c r="Y29" s="83">
+      <c r="Y29" s="74">
         <v>1.5217148458502199E-3</v>
       </c>
-      <c r="Z29" s="85">
+      <c r="Z29" s="75">
         <f t="shared" si="2"/>
         <v>1.5217148458502199</v>
       </c>
-      <c r="AA29" s="83">
+      <c r="AA29" s="74">
         <f t="shared" si="3"/>
         <v>1.5006003129472041</v>
       </c>
-      <c r="AB29" s="84"/>
+      <c r="AB29" s="87">
+        <v>1.74371653143531E-3</v>
+      </c>
+      <c r="AC29" s="85">
+        <f t="shared" si="4"/>
+        <v>1.74371653143531</v>
+      </c>
+      <c r="AD29">
+        <f t="shared" si="5"/>
+        <v>1.6881172597800287</v>
+      </c>
+    </row>
+    <row r="30" spans="2:30">
+      <c r="AC30" s="87"/>
     </row>
     <row r="36" spans="2:22">
       <c r="B36" s="6"/>
@@ -14746,11 +15419,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -14763,6 +15431,11 @@
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Пространственный эффект.xlsx
+++ b/Пространственный эффект.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" tabRatio="828" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" tabRatio="828" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Без коэффициентов и по пичкам" sheetId="9" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="График диф. эфф." sheetId="5" r:id="rId9"/>
     <sheet name="Лист1" sheetId="13" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -689,11 +689,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1686,16 +1686,19 @@
     <xf numFmtId="0" fontId="0" fillId="38" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="2" fillId="37" borderId="0" xfId="42" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="37" borderId="0" xfId="42" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="83"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1704,18 +1707,15 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="37" borderId="0" xfId="42" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="83"/>
   </cellXfs>
   <cellStyles count="97">
     <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1825,17 +1825,34 @@
       <color rgb="FF0000FF"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2099,39 +2116,56 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="67069824"/>
-        <c:axId val="67071360"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="51539904"/>
+        <c:axId val="51540480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="67069824"/>
+        <c:axId val="51539904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67071360"/>
+        <c:crossAx val="51540480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="67071360"/>
+        <c:axId val="51540480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67069824"/>
+        <c:crossAx val="51539904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2143,8 +2177,19 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -2158,7 +2203,8 @@
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
@@ -2169,11 +2215,9 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
           <c:trendline>
             <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
@@ -2240,9 +2284,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>1.0101431144591084</c:v>
                 </c:pt>
@@ -2273,7 +2314,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2285,11 +2326,9 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
           <c:trendline>
             <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
@@ -2353,7 +2392,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2365,11 +2404,9 @@
               </a:solidFill>
             </a:ln>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
           <c:trendline>
             <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
@@ -2433,16 +2470,14 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
           <c:order val="3"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
           <c:trendline>
             <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
@@ -2518,7 +2553,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -2526,11 +2561,9 @@
           <c:tx>
             <c:v>Ряд6</c:v>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
           <c:trendline>
             <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
@@ -2594,16 +2627,14 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="5"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
           <c:trendline>
             <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
@@ -2645,16 +2676,14 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
           <c:order val="6"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
           <c:trendline>
             <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
@@ -2706,33 +2735,47 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="66726528"/>
-        <c:axId val="66732416"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="51542208"/>
+        <c:axId val="51542784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="66726528"/>
+        <c:axId val="51542208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66732416"/>
+        <c:crossAx val="51542784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="66732416"/>
+        <c:axId val="51542784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66726528"/>
+        <c:crossAx val="51542208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2740,16 +2783,30 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -2764,12 +2821,15 @@
       </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:trendline>
             <c:trendlineType val="poly"/>
             <c:order val="4"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -3161,17 +3221,8 @@
           <c:trendline>
             <c:trendlineType val="poly"/>
             <c:order val="6"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-9.416030018145316E-2"/>
-                  <c:y val="0.13316704874071825"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="0.00000000000000000000E+00" sourceLinked="0"/>
-            </c:trendlineLbl>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -3343,31 +3394,316 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="84898944"/>
-        <c:axId val="84900480"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="6"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'С реальными коэффициентами'!$AG$5:$AG$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>16.64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29.97</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35.840000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40.11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42.77</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>47.57</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>51.84</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>57.71</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>64.64</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>69.97</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75.31</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80.64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'С реальными коэффициентами'!$AH$5:$AH$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>2.8052958126798098</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1938164131556399</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4967784444109098</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5135040201779701</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.12042400564405</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3685520701132603</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4872504249901404</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2292273557183901</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7760255764968398</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7354704900806799</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.4694824380478</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.05811047645444</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7045804729463501</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.5328655605900501</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3664246691439998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.14985009748537</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0139474364558099</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="6"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.4599415410280441E-2"/>
+                  <c:y val="7.1923550353986246E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="0.00000000000000000000E+00" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'С реальными коэффициентами'!$AK$5:$AK$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>16.64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29.97</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35.840000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40.11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42.77</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>47.57</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>51.84</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>57.71</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>64.64</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>69.97</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75.31</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80.64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'С реальными коэффициентами'!$AL$5:$AL$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>2.8512505044740197</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2242655396825399</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4195653807722697</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5004488432196204</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2102927605710803</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.2452462422456301</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.61605936086608</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2447244591177</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9073729564253199</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.59116945497713</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.6454262093219603</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.10363139196566</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7180645389081299</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.55452148474881</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.34256639881787</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0959514935605099</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0105336111818699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="130859584"/>
+        <c:axId val="130860160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="84898944"/>
+        <c:axId val="130859584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84900480"/>
+        <c:crossAx val="130860160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="84900480"/>
+        <c:axId val="130860160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84898944"/>
+        <c:crossAx val="130859584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3380,19 +3716,32 @@
           <c:yMode val="edge"/>
           <c:x val="0.7541605747968857"/>
           <c:y val="0.53689141084085168"/>
-          <c:w val="0.1817704186409741"/>
-          <c:h val="0.2266485095822264"/>
+          <c:w val="0.18178394264113876"/>
+          <c:h val="0.37776901564698329"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3454,6 +3803,7 @@
       <c:layout/>
       <c:overlay val="1"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -3468,6 +3818,7 @@
       </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3963,7 +4314,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>-8.4525953825903555E-4</c:v>
+                  <c:v>-8.4178592871592364E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-8.5827548257578026E-4</c:v>
@@ -4237,16 +4588,25 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="84837120"/>
-        <c:axId val="84839040"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="130862464"/>
+        <c:axId val="130863040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="84837120"/>
+        <c:axId val="130862464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="310"/>
           <c:min val="30"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:minorGridlines>
           <c:spPr>
@@ -4298,8 +4658,11 @@
               <c:y val="0.95185883398686699"/>
             </c:manualLayout>
           </c:layout>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln>
@@ -4308,15 +4671,16 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="84839040"/>
+        <c:crossAx val="130863040"/>
         <c:crossesAt val="-5.0000000000000114E-3"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="84839040"/>
+        <c:axId val="130863040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -4421,8 +4785,11 @@
               <c:y val="0.40873655345793575"/>
             </c:manualLayout>
           </c:layout>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln>
@@ -4431,7 +4798,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="84837120"/>
+        <c:crossAx val="130862464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4461,6 +4828,8 @@
       </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:userShapes r:id="rId1"/>
 </c:chartSpace>
@@ -4468,7 +4837,17 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -4552,6 +4931,7 @@
       <c:layout/>
       <c:overlay val="1"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -4566,6 +4946,7 @@
       </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
@@ -5472,16 +5853,203 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="84760448"/>
-        <c:axId val="84771200"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'С реальными коэффициентами'!$W$5:$W$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>81.710000000000008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78.240000000000009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75.039999999999992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72.11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68.91</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66.240000000000009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>63.84</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>61.174999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36.265000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>52.64</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>49.975000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>47.305</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44.64</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41.71</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39.04</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>36.64</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32.11</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>27.84</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>25.704999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23.305</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20.64</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>17.708500000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14.507</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11.3035</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'С реальными коэффициентами'!$AM$5:$AM$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0.95033014947028249</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0741707886990994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1636050057088312</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2418064344033937</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.335498331456094</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4261906583267034</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5198728820747576</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6384070286042061</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9857852991194385</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1527145484440027</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.112955509171222</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.2835132760248769</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.4598524108394173</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.6374542532032663</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.8292738973170763</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.9953985849737954</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.1326348909191566</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.341742229549034</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.4463979799125166</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.4505731398712562</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.4052899330790627</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.2786460304760467</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.0234279543998444</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.569256437695481</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.8818967122664008</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="130864768"/>
+        <c:axId val="130865344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="84760448"/>
+        <c:axId val="130864768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="85"/>
           <c:min val="0"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:minorGridlines>
           <c:spPr>
@@ -5533,8 +6101,11 @@
               <c:y val="0.95185883398686655"/>
             </c:manualLayout>
           </c:layout>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln>
@@ -5543,19 +6114,20 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="84771200"/>
+        <c:crossAx val="130865344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
         <c:minorUnit val="2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="84771200"/>
+        <c:axId val="130865344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4"/>
           <c:min val="0.5"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -5702,8 +6274,11 @@
               <c:y val="0.32308858388393963"/>
             </c:manualLayout>
           </c:layout>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln>
@@ -5712,7 +6287,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="84760448"/>
+        <c:crossAx val="130864768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5725,10 +6300,11 @@
           <c:yMode val="edge"/>
           <c:x val="0.33891984302871836"/>
           <c:y val="0.65441085398444065"/>
-          <c:w val="0.2038564655831368"/>
-          <c:h val="0.19150866258400928"/>
+          <c:w val="0.20387163281933909"/>
+          <c:h val="0.23939945298642534"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
           <a:schemeClr val="bg1"/>
@@ -5751,6 +6327,8 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:userShapes r:id="rId1"/>
 </c:chartSpace>
@@ -5760,7 +6338,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="81" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5771,7 +6349,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="81" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="102" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5782,7 +6360,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="81" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="102" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5793,7 +6371,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="102" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5838,8 +6416,8 @@
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
-    <xdr:pos x="35278" y="35278"/>
-    <xdr:ext cx="9301574" cy="6079537"/>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9300882" cy="6079191"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Диаграмма 1"/>
@@ -5865,8 +6443,8 @@
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
-    <xdr:pos x="-35278" y="0"/>
-    <xdr:ext cx="9301574" cy="6079537"/>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9300882" cy="6079191"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Диаграмма 1"/>
@@ -5893,7 +6471,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9301574" cy="6079537"/>
+    <xdr:ext cx="9300882" cy="6079191"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Диаграмма 1"/>
@@ -6089,7 +6667,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9301574" cy="6079537"/>
+    <xdr:ext cx="9300882" cy="6079191"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Диаграмма 1"/>
@@ -6274,6 +6852,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -6308,6 +6887,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -6483,14 +7063,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:W29"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="11.85546875" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" customWidth="1"/>
@@ -6502,79 +7082,79 @@
     <col min="23" max="23" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:23" ht="15.75" thickBot="1">
-      <c r="B2" s="78" t="s">
+    <row r="1" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="78" t="s">
+      <c r="D2" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="78" t="s">
+      <c r="E2" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="78" t="s">
+      <c r="F2" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="78" t="s">
+      <c r="G2" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="78" t="s">
+      <c r="H2" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="76" t="s">
+      <c r="I2" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="77"/>
-      <c r="K2" s="78" t="s">
+      <c r="J2" s="82"/>
+      <c r="K2" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="L2" s="78" t="s">
+      <c r="L2" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="M2" s="78" t="s">
+      <c r="M2" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="N2" s="78" t="s">
+      <c r="N2" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="O2" s="76" t="s">
+      <c r="O2" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="76" t="s">
+      <c r="P2" s="82"/>
+      <c r="Q2" s="81" t="s">
         <v>181</v>
       </c>
-      <c r="R2" s="77"/>
-      <c r="S2" s="78" t="s">
+      <c r="R2" s="82"/>
+      <c r="S2" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="T2" s="78" t="s">
+      <c r="T2" s="79" t="s">
         <v>60</v>
       </c>
       <c r="W2" s="6"/>
     </row>
-    <row r="3" spans="2:23" ht="15.75" thickBot="1">
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
+    <row r="3" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
       <c r="I3" s="26" t="s">
         <v>183</v>
       </c>
       <c r="J3" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="79"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
       <c r="O3" s="28" t="s">
         <v>185</v>
       </c>
@@ -6587,11 +7167,11 @@
       <c r="R3" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="S3" s="79"/>
-      <c r="T3" s="79"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
       <c r="W3" s="6"/>
     </row>
-    <row r="4" spans="2:23">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
         <v>1</v>
       </c>
@@ -6649,7 +7229,7 @@
       </c>
       <c r="W4" s="22"/>
     </row>
-    <row r="5" spans="2:23">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B5" s="16">
         <v>1</v>
       </c>
@@ -6713,7 +7293,7 @@
       </c>
       <c r="W5" s="22"/>
     </row>
-    <row r="6" spans="2:23">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B6" s="16">
         <v>2</v>
       </c>
@@ -6777,7 +7357,7 @@
       </c>
       <c r="W6" s="22"/>
     </row>
-    <row r="7" spans="2:23">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B7" s="16">
         <v>3</v>
       </c>
@@ -6841,7 +7421,7 @@
       </c>
       <c r="W7" s="22"/>
     </row>
-    <row r="8" spans="2:23">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B8" s="16">
         <v>4</v>
       </c>
@@ -6905,7 +7485,7 @@
       </c>
       <c r="W8" s="22"/>
     </row>
-    <row r="9" spans="2:23">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B9" s="16">
         <v>5</v>
       </c>
@@ -6969,7 +7549,7 @@
       </c>
       <c r="W9" s="22"/>
     </row>
-    <row r="10" spans="2:23">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B10" s="16">
         <v>6</v>
       </c>
@@ -7033,7 +7613,7 @@
       </c>
       <c r="W10" s="22"/>
     </row>
-    <row r="11" spans="2:23">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B11" s="16">
         <v>7</v>
       </c>
@@ -7097,7 +7677,7 @@
       </c>
       <c r="W11" s="22"/>
     </row>
-    <row r="12" spans="2:23">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B12" s="16">
         <v>8</v>
       </c>
@@ -7160,7 +7740,7 @@
       </c>
       <c r="W12" s="22"/>
     </row>
-    <row r="13" spans="2:23">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B13" s="16">
         <v>9</v>
       </c>
@@ -7223,7 +7803,7 @@
       </c>
       <c r="W13" s="22"/>
     </row>
-    <row r="14" spans="2:23">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B14" s="16">
         <v>10</v>
       </c>
@@ -7286,7 +7866,7 @@
       </c>
       <c r="W14" s="22"/>
     </row>
-    <row r="15" spans="2:23">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B15" s="16">
         <v>11</v>
       </c>
@@ -7349,7 +7929,7 @@
       </c>
       <c r="W15" s="22"/>
     </row>
-    <row r="16" spans="2:23">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B16" s="16">
         <v>12</v>
       </c>
@@ -7412,7 +7992,7 @@
       </c>
       <c r="W16" s="22"/>
     </row>
-    <row r="17" spans="2:23">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B17" s="16">
         <v>13</v>
       </c>
@@ -7475,7 +8055,7 @@
       </c>
       <c r="W17" s="22"/>
     </row>
-    <row r="18" spans="2:23">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B18" s="16">
         <v>14</v>
       </c>
@@ -7538,7 +8118,7 @@
       </c>
       <c r="W18" s="22"/>
     </row>
-    <row r="19" spans="2:23">
+    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B19" s="16">
         <v>15</v>
       </c>
@@ -7601,7 +8181,7 @@
       </c>
       <c r="W19" s="22"/>
     </row>
-    <row r="20" spans="2:23">
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B20" s="16">
         <v>16</v>
       </c>
@@ -7664,7 +8244,7 @@
       </c>
       <c r="W20" s="22"/>
     </row>
-    <row r="21" spans="2:23">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B21" s="16">
         <v>17</v>
       </c>
@@ -7727,7 +8307,7 @@
       </c>
       <c r="W21" s="22"/>
     </row>
-    <row r="22" spans="2:23">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B22" s="16">
         <v>18</v>
       </c>
@@ -7790,7 +8370,7 @@
       </c>
       <c r="W22" s="22"/>
     </row>
-    <row r="23" spans="2:23">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B23" s="16">
         <v>19</v>
       </c>
@@ -7853,7 +8433,7 @@
       </c>
       <c r="W23" s="22"/>
     </row>
-    <row r="24" spans="2:23">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B24" s="16">
         <v>20</v>
       </c>
@@ -7916,7 +8496,7 @@
       </c>
       <c r="W24" s="22"/>
     </row>
-    <row r="25" spans="2:23">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B25" s="16">
         <v>21</v>
       </c>
@@ -7979,7 +8559,7 @@
       </c>
       <c r="W25" s="22"/>
     </row>
-    <row r="26" spans="2:23">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B26" s="16">
         <v>22</v>
       </c>
@@ -8042,7 +8622,7 @@
       </c>
       <c r="W26" s="22"/>
     </row>
-    <row r="27" spans="2:23">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B27" s="16">
         <v>23</v>
       </c>
@@ -8105,7 +8685,7 @@
       </c>
       <c r="W27" s="22"/>
     </row>
-    <row r="28" spans="2:23">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B28" s="16">
         <v>24</v>
       </c>
@@ -8168,7 +8748,7 @@
       </c>
       <c r="W28" s="22"/>
     </row>
-    <row r="29" spans="2:23">
+    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B29" s="16">
         <v>25</v>
       </c>
@@ -8232,12 +8812,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="S2:S3"/>
@@ -8248,54 +8822,60 @@
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1"/>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A2" s="76" t="s">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="81" t="s">
         <v>187</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="78" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="78" t="s">
+      <c r="D2" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="78" t="s">
+      <c r="E2" s="79" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>188</v>
       </c>
       <c r="B3" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="19">
         <f>B4*3.75</f>
         <v>312.41250000000002</v>
@@ -8313,7 +8893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <f t="shared" ref="A5:A29" si="0">B5*3.75</f>
         <v>300.41250000000002</v>
@@ -8335,7 +8915,7 @@
       <c r="I5" s="6"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <f t="shared" si="0"/>
         <v>286.38750000000005</v>
@@ -8357,7 +8937,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <f t="shared" si="0"/>
         <v>276.41249999999997</v>
@@ -8379,7 +8959,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="5"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <f t="shared" si="0"/>
         <v>264.41250000000002</v>
@@ -8401,7 +8981,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <f t="shared" si="0"/>
         <v>252.41250000000002</v>
@@ -8423,7 +9003,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <f t="shared" si="0"/>
         <v>244.38750000000002</v>
@@ -8445,7 +9025,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <f t="shared" si="0"/>
         <v>234.41249999999999</v>
@@ -8467,7 +9047,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <f t="shared" si="0"/>
         <v>224.4</v>
@@ -8490,7 +9070,7 @@
       <c r="J12" s="5"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <f t="shared" si="0"/>
         <v>212.4</v>
@@ -8512,7 +9092,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <f t="shared" si="0"/>
         <v>202.38749999999999</v>
@@ -8534,7 +9114,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <f t="shared" si="0"/>
         <v>192.41250000000002</v>
@@ -8556,7 +9136,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <f t="shared" si="0"/>
         <v>182.4</v>
@@ -8578,7 +9158,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <f t="shared" si="0"/>
         <v>172.38749999999999</v>
@@ -8600,7 +9180,7 @@
       <c r="I17" s="6"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <f t="shared" si="0"/>
         <v>162.41250000000002</v>
@@ -8622,7 +9202,7 @@
       <c r="I18" s="6"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <f t="shared" si="0"/>
         <v>150.41249999999999</v>
@@ -8644,7 +9224,7 @@
       <c r="I19" s="6"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <f t="shared" si="0"/>
         <v>142.38749999999999</v>
@@ -8666,7 +9246,7 @@
       <c r="I20" s="6"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <f t="shared" si="0"/>
         <v>132.41250000000002</v>
@@ -8688,7 +9268,7 @@
       <c r="I21" s="6"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <f t="shared" si="0"/>
         <v>108.41249999999999</v>
@@ -8710,7 +9290,7 @@
       <c r="I22" s="6"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <f t="shared" si="0"/>
         <v>100.3875</v>
@@ -8732,7 +9312,7 @@
       <c r="I23" s="6"/>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <f t="shared" si="0"/>
         <v>92.4</v>
@@ -8754,7 +9334,7 @@
       <c r="I24" s="6"/>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <f t="shared" si="0"/>
         <v>82.387499999999989</v>
@@ -8776,7 +9356,7 @@
       <c r="I25" s="6"/>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
         <f t="shared" si="0"/>
         <v>72.412499999999994</v>
@@ -8798,7 +9378,7 @@
       <c r="I26" s="6"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <f t="shared" si="0"/>
         <v>60.401249999999997</v>
@@ -8820,7 +9400,7 @@
       <c r="I27" s="6"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <f t="shared" si="0"/>
         <v>48.401249999999997</v>
@@ -8842,7 +9422,7 @@
       <c r="I28" s="6"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
         <f t="shared" si="0"/>
         <v>36.375</v>
@@ -8877,19 +9457,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8897,7 +9477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>100</v>
       </c>
@@ -8905,7 +9485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>98</v>
       </c>
@@ -8917,7 +9497,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>96</v>
       </c>
@@ -8929,7 +9509,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>94</v>
       </c>
@@ -8941,7 +9521,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>92</v>
       </c>
@@ -8953,7 +9533,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>90</v>
       </c>
@@ -8965,7 +9545,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>88</v>
       </c>
@@ -8977,7 +9557,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>86</v>
       </c>
@@ -8989,7 +9569,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>84</v>
       </c>
@@ -9001,7 +9581,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>82</v>
       </c>
@@ -9023,7 +9603,7 @@
         <v>17.594721378227547</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>80</v>
       </c>
@@ -9045,7 +9625,7 @@
         <v>21.962318746312022</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>78</v>
       </c>
@@ -9067,7 +9647,7 @@
         <v>20.271472053735025</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>76</v>
       </c>
@@ -9089,7 +9669,7 @@
         <v>30.890365531199265</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>74</v>
       </c>
@@ -9111,7 +9691,7 @@
         <v>18.023587803347567</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>72</v>
       </c>
@@ -9133,7 +9713,7 @@
         <v>15.616766515160137</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>70</v>
       </c>
@@ -9155,7 +9735,7 @@
         <v>16.206999356416091</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>68</v>
       </c>
@@ -9177,7 +9757,7 @@
         <v>23.862329515379201</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>66</v>
       </c>
@@ -9199,7 +9779,7 @@
         <v>31.486542834640318</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>64</v>
       </c>
@@ -9221,7 +9801,7 @@
         <v>25.027535023138086</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>62</v>
       </c>
@@ -9243,7 +9823,7 @@
         <v>12.341343651196667</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>60</v>
       </c>
@@ -9265,7 +9845,7 @@
         <v>5.8234409242724468</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>58</v>
       </c>
@@ -9287,7 +9867,7 @@
         <v>10.18119200003683</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>56</v>
       </c>
@@ -9309,7 +9889,7 @@
         <v>7.6429101349437332</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>54</v>
       </c>
@@ -9331,7 +9911,7 @@
         <v>5.5167791752782733</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>52</v>
       </c>
@@ -9353,7 +9933,7 @@
         <v>9.2510184721996325</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>50</v>
       </c>
@@ -9375,7 +9955,7 @@
         <v>6.9158764918392421</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>48</v>
       </c>
@@ -9397,7 +9977,7 @@
         <v>-0.90865966101469553</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>46</v>
       </c>
@@ -9419,7 +9999,7 @@
         <v>-11.597902389654337</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>44</v>
       </c>
@@ -9441,7 +10021,7 @@
         <v>-5.1572930533441337</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>42</v>
       </c>
@@ -9463,7 +10043,7 @@
         <v>-5.8159602819369383</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>40</v>
       </c>
@@ -9485,7 +10065,7 @@
         <v>-6.0205077923693011</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>38</v>
       </c>
@@ -9507,7 +10087,7 @@
         <v>0.84177833458350904</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>36</v>
       </c>
@@ -9529,7 +10109,7 @@
         <v>3.0101808090902296</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>34</v>
       </c>
@@ -9551,7 +10131,7 @@
         <v>2.3778693217755063</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>32</v>
       </c>
@@ -9563,7 +10143,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>30</v>
       </c>
@@ -9575,7 +10155,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>28</v>
       </c>
@@ -9587,7 +10167,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>26</v>
       </c>
@@ -9599,7 +10179,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>24</v>
       </c>
@@ -9611,7 +10191,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>22</v>
       </c>
@@ -9623,7 +10203,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>20</v>
       </c>
@@ -9635,7 +10215,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>18</v>
       </c>
@@ -9647,7 +10227,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>16</v>
       </c>
@@ -9659,7 +10239,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>14</v>
       </c>
@@ -9671,7 +10251,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>12</v>
       </c>
@@ -9683,7 +10263,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>10</v>
       </c>
@@ -9695,7 +10275,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>8</v>
       </c>
@@ -9707,7 +10287,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>6</v>
       </c>
@@ -9720,7 +10300,7 @@
       </c>
       <c r="D49" s="4"/>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>4</v>
       </c>
@@ -9733,7 +10313,7 @@
       </c>
       <c r="D50" s="3"/>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
     </row>
@@ -9745,14 +10325,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:K29"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AB7" sqref="AB7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" customWidth="1"/>
@@ -9762,114 +10342,114 @@
     <col min="28" max="28" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15.75" thickBot="1"/>
-    <row r="2" spans="1:29" ht="15.75" thickBot="1">
-      <c r="B2" s="80" t="s">
+    <row r="1" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="80" t="s">
+      <c r="D2" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="80" t="s">
+      <c r="E2" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="80" t="s">
+      <c r="F2" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="80" t="s">
+      <c r="G2" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="80" t="s">
+      <c r="H2" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="80" t="s">
+      <c r="I2" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="80" t="s">
+      <c r="J2" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="84" t="s">
+      <c r="K2" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="84"/>
-      <c r="M2" s="80" t="s">
+      <c r="L2" s="85"/>
+      <c r="M2" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="80" t="s">
+      <c r="N2" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="80" t="s">
+      <c r="O2" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="80" t="s">
+      <c r="P2" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="80" t="s">
+      <c r="Q2" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="80" t="s">
+      <c r="R2" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="80" t="s">
+      <c r="S2" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="80" t="s">
+      <c r="T2" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="U2" s="80" t="s">
+      <c r="U2" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="80" t="s">
+      <c r="V2" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="Y2" s="82" t="s">
+      <c r="Y2" s="86" t="s">
         <v>189</v>
       </c>
-      <c r="Z2" s="82" t="s">
+      <c r="Z2" s="86" t="s">
         <v>190</v>
       </c>
-      <c r="AA2" s="78" t="s">
+      <c r="AA2" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="AB2" s="78" t="s">
+      <c r="AB2" s="79" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="15.75" thickBot="1">
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
+    <row r="3" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
       <c r="K3" s="31" t="s">
         <v>182</v>
       </c>
       <c r="L3" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="M3" s="81"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="81"/>
-      <c r="T3" s="81"/>
-      <c r="U3" s="81"/>
-      <c r="V3" s="81"/>
-      <c r="Y3" s="83"/>
-      <c r="Z3" s="83"/>
-      <c r="AA3" s="79"/>
-      <c r="AB3" s="79"/>
-    </row>
-    <row r="4" spans="1:29">
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84"/>
+      <c r="S3" s="84"/>
+      <c r="T3" s="84"/>
+      <c r="U3" s="84"/>
+      <c r="V3" s="84"/>
+      <c r="Y3" s="87"/>
+      <c r="Z3" s="87"/>
+      <c r="AA3" s="80"/>
+      <c r="AB3" s="80"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>1</v>
       </c>
@@ -9941,16 +10521,13 @@
         <f>(C4/$C$4)*(T4/$T$4)*(1+0.01*($H$4-H4))</f>
         <v>1</v>
       </c>
-      <c r="Z4" s="19">
-        <f>(D4/$D$4)*(T4/$T$4)*(1+0.01*($H$4-H4))</f>
-        <v>1</v>
-      </c>
+      <c r="Z4" s="19"/>
       <c r="AA4" s="19"/>
       <c r="AB4" s="24" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>2</v>
       </c>
@@ -10019,11 +10596,11 @@
         <v>-7.0465999999999998</v>
       </c>
       <c r="Y5" s="19">
-        <f t="shared" ref="Y5:Y29" si="1">(C5/$C$4)*(T5/$T$4)*(1+0.01*($H$4-H5))</f>
+        <f>(C5/$C$4)*(T5/$T$4)*(1+0.01*($H$4-H5))</f>
         <v>1.0183895448838567</v>
       </c>
       <c r="Z5" s="16">
-        <f t="shared" ref="Z5:Z29" si="2">(D5/$D$4)*($T$4/T5)*(1+0.01*($H$4-H5))</f>
+        <f>(D5/$D$4)*($T$4/T5)*(1+0.01*($H$4-H5))</f>
         <v>1.0101431144591084</v>
       </c>
       <c r="AA5" s="32">
@@ -10031,11 +10608,11 @@
         <v>-1.5324620736547241E-3</v>
       </c>
       <c r="AB5" s="32">
-        <f t="shared" ref="AB5:AB29" si="3">(Z5-Z4)/(L5-L4)</f>
-        <v>-8.4525953825903555E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29">
+        <f>(Z5-Z4)/(L5-L4)</f>
+        <v>-8.4178592871592364E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>3</v>
       </c>
@@ -10104,11 +10681,11 @@
         <v>-8.9376999999999995</v>
       </c>
       <c r="Y6" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="Y5:Y29" si="1">(C6/$C$4)*(T6/$T$4)*(1+0.01*($H$4-H6))</f>
         <v>1.0266115613864553</v>
       </c>
       <c r="Z6" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="Z6:Z29" si="2">(D6/$D$4)*($T$4/T6)*(1+0.01*($H$4-H6))</f>
         <v>1.0221611169038758</v>
       </c>
       <c r="AA6" s="32">
@@ -10116,11 +10693,11 @@
         <v>-5.8718203910720045E-4</v>
       </c>
       <c r="AB6" s="32">
-        <f t="shared" si="3"/>
+        <f>(Z6-Z5)/(L6-L5)</f>
         <v>-8.5827548257578026E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>4</v>
       </c>
@@ -10197,15 +10774,15 @@
         <v>1.0322815299184402</v>
       </c>
       <c r="AA7" s="32">
-        <f t="shared" ref="AA7:AA29" si="4">(Y7-Y6)/(L7-L6)</f>
+        <f t="shared" ref="AA7:AA29" si="3">(Y7-Y6)/(L7-L6)</f>
         <v>-1.3145155125166418E-3</v>
       </c>
       <c r="AB7" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="AB6:AB29" si="4">(Z7-Z6)/(L7-L6)</f>
         <v>-1.0122943750502079E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>5</v>
       </c>
@@ -10282,15 +10859,15 @@
         <v>1.0428439363404074</v>
       </c>
       <c r="AA8" s="32">
+        <f t="shared" si="3"/>
+        <v>-5.0838377037589388E-4</v>
+      </c>
+      <c r="AB8" s="32">
         <f t="shared" si="4"/>
-        <v>-5.0838377037589388E-4</v>
-      </c>
-      <c r="AB8" s="32">
-        <f t="shared" si="3"/>
         <v>-8.8020053516392938E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>6</v>
       </c>
@@ -10367,15 +10944,15 @@
         <v>1.0557355442938408</v>
       </c>
       <c r="AA9" s="32">
+        <f t="shared" si="3"/>
+        <v>-9.354639668050132E-4</v>
+      </c>
+      <c r="AB9" s="32">
         <f t="shared" si="4"/>
-        <v>-9.354639668050132E-4</v>
-      </c>
-      <c r="AB9" s="32">
-        <f t="shared" si="3"/>
         <v>-1.0743006627861134E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>7</v>
       </c>
@@ -10452,15 +11029,15 @@
         <v>1.0655077587088304</v>
       </c>
       <c r="AA10" s="32">
+        <f t="shared" si="3"/>
+        <v>-1.1321371992057355E-3</v>
+      </c>
+      <c r="AB10" s="32">
         <f t="shared" si="4"/>
-        <v>-1.1321371992057355E-3</v>
-      </c>
-      <c r="AB10" s="32">
-        <f t="shared" si="3"/>
         <v>-1.221145194000582E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>8</v>
       </c>
@@ -10537,15 +11114,15 @@
         <v>1.0751065808496021</v>
       </c>
       <c r="AA11" s="32">
+        <f t="shared" si="3"/>
+        <v>-1.9937739682123366E-3</v>
+      </c>
+      <c r="AB11" s="32">
         <f t="shared" si="4"/>
-        <v>-1.9937739682123366E-3</v>
-      </c>
-      <c r="AB11" s="32">
-        <f t="shared" si="3"/>
         <v>-9.6012224463832728E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>9</v>
       </c>
@@ -10622,15 +11199,15 @@
         <v>1.0846123490628081</v>
       </c>
       <c r="AA12" s="32">
+        <f t="shared" si="3"/>
+        <v>-1.5945749933614997E-3</v>
+      </c>
+      <c r="AB12" s="32">
         <f t="shared" si="4"/>
-        <v>-1.5945749933614997E-3</v>
-      </c>
-      <c r="AB12" s="32">
-        <f t="shared" si="3"/>
         <v>-9.5045801406884488E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:29" s="43" customFormat="1">
+    <row r="13" spans="1:29" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="38">
         <v>10</v>
       </c>
@@ -10707,15 +11284,15 @@
         <v>1.0962479830912495</v>
       </c>
       <c r="AA13" s="39">
+        <f t="shared" si="3"/>
+        <v>7.6187851552611541E-5</v>
+      </c>
+      <c r="AB13" s="39">
         <f t="shared" si="4"/>
-        <v>7.6187851552611541E-5</v>
-      </c>
-      <c r="AB13" s="39">
-        <f t="shared" si="3"/>
         <v>-9.6963616903678052E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>11</v>
       </c>
@@ -10792,18 +11369,18 @@
         <v>1.1036878881533254</v>
       </c>
       <c r="AA14" s="32">
+        <f t="shared" si="3"/>
+        <v>-1.2508386691851936E-3</v>
+      </c>
+      <c r="AB14" s="32">
         <f t="shared" si="4"/>
-        <v>-1.2508386691851936E-3</v>
-      </c>
-      <c r="AB14" s="32">
-        <f t="shared" si="3"/>
         <v>-7.4389751901771529E-4</v>
       </c>
       <c r="AC14" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>12</v>
       </c>
@@ -10880,15 +11457,15 @@
         <v>1.1122875219350818</v>
       </c>
       <c r="AA15" s="32">
+        <f t="shared" si="3"/>
+        <v>-5.8957091088923587E-4</v>
+      </c>
+      <c r="AB15" s="32">
         <f t="shared" si="4"/>
-        <v>-5.8957091088923587E-4</v>
-      </c>
-      <c r="AB15" s="32">
-        <f t="shared" si="3"/>
         <v>-8.6017842278133844E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:29" s="51" customFormat="1">
+    <row r="16" spans="1:29" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="46">
         <v>13</v>
       </c>
@@ -10965,15 +11542,15 @@
         <v>1.1200739039039829</v>
       </c>
       <c r="AA16" s="47">
+        <f t="shared" si="3"/>
+        <v>-4.8337949408301857E-4</v>
+      </c>
+      <c r="AB16" s="47">
         <f t="shared" si="4"/>
-        <v>-4.8337949408301857E-4</v>
-      </c>
-      <c r="AB16" s="47">
-        <f t="shared" si="3"/>
         <v>-7.7854087928019248E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>14</v>
       </c>
@@ -11050,15 +11627,15 @@
         <v>1.1263309001246264</v>
       </c>
       <c r="AA17" s="32">
+        <f t="shared" si="3"/>
+        <v>-4.5430029494162829E-4</v>
+      </c>
+      <c r="AB17" s="32">
         <f t="shared" si="4"/>
-        <v>-4.5430029494162829E-4</v>
-      </c>
-      <c r="AB17" s="32">
-        <f t="shared" si="3"/>
         <v>-6.2562141938693407E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>15</v>
       </c>
@@ -11135,15 +11712,15 @@
         <v>1.1326568095064833</v>
       </c>
       <c r="AA18" s="32">
+        <f t="shared" si="3"/>
+        <v>-6.064342437864989E-4</v>
+      </c>
+      <c r="AB18" s="32">
         <f t="shared" si="4"/>
-        <v>-6.064342437864989E-4</v>
-      </c>
-      <c r="AB18" s="32">
-        <f t="shared" si="3"/>
         <v>-6.3274912546705086E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:28" s="58" customFormat="1">
+    <row r="19" spans="1:28" s="58" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="53">
         <v>16</v>
       </c>
@@ -11220,15 +11797,15 @@
         <v>1.1389789335788625</v>
       </c>
       <c r="AA19" s="54">
+        <f t="shared" si="3"/>
+        <v>-9.6480213543396573E-5</v>
+      </c>
+      <c r="AB19" s="54">
         <f t="shared" si="4"/>
-        <v>-9.6480213543396573E-5</v>
-      </c>
-      <c r="AB19" s="54">
-        <f t="shared" si="3"/>
         <v>-5.2684367269826649E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>17</v>
       </c>
@@ -11305,15 +11882,15 @@
         <v>1.1425998853218826</v>
       </c>
       <c r="AA20" s="32">
+        <f t="shared" si="3"/>
+        <v>-1.0451400225728736E-3</v>
+      </c>
+      <c r="AB20" s="32">
         <f t="shared" si="4"/>
-        <v>-1.0451400225728736E-3</v>
-      </c>
-      <c r="AB20" s="32">
-        <f t="shared" si="3"/>
         <v>-4.5247756863731704E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>18</v>
       </c>
@@ -11390,15 +11967,15 @@
         <v>1.1463065787622815</v>
       </c>
       <c r="AA21" s="32">
+        <f t="shared" si="3"/>
+        <v>-1.7671525615566689E-4</v>
+      </c>
+      <c r="AB21" s="32">
         <f t="shared" si="4"/>
-        <v>-1.7671525615566689E-4</v>
-      </c>
-      <c r="AB21" s="32">
-        <f t="shared" si="3"/>
         <v>-3.7076203454852378E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>19</v>
       </c>
@@ -11475,15 +12052,15 @@
         <v>1.1529118882030123</v>
       </c>
       <c r="AA22" s="32">
+        <f t="shared" si="3"/>
+        <v>-1.7660540865972277E-4</v>
+      </c>
+      <c r="AB22" s="32">
         <f t="shared" si="4"/>
-        <v>-1.7660540865972277E-4</v>
-      </c>
-      <c r="AB22" s="32">
-        <f t="shared" si="3"/>
         <v>-2.7522122669711618E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>20</v>
       </c>
@@ -11560,15 +12137,15 @@
         <v>1.1548332482640706</v>
       </c>
       <c r="AA23" s="32">
+        <f t="shared" si="3"/>
+        <v>-3.4510760985043598E-4</v>
+      </c>
+      <c r="AB23" s="32">
         <f t="shared" si="4"/>
-        <v>-3.4510760985043598E-4</v>
-      </c>
-      <c r="AB23" s="32">
-        <f t="shared" si="3"/>
         <v>-2.400949779516852E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:28" s="65" customFormat="1">
+    <row r="24" spans="1:28" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="60">
         <v>21</v>
       </c>
@@ -11645,15 +12222,15 @@
         <v>1.1557911366172173</v>
       </c>
       <c r="AA24" s="61">
+        <f t="shared" si="3"/>
+        <v>-4.9053823602230402E-4</v>
+      </c>
+      <c r="AB24" s="61">
         <f t="shared" si="4"/>
-        <v>-4.9053823602230402E-4</v>
-      </c>
-      <c r="AB24" s="61">
-        <f t="shared" si="3"/>
         <v>-1.1975475582393474E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>22</v>
       </c>
@@ -11730,15 +12307,15 @@
         <v>1.1562599214418137</v>
       </c>
       <c r="AA25" s="32">
+        <f t="shared" si="3"/>
+        <v>6.5121279733550277E-5</v>
+      </c>
+      <c r="AB25" s="32">
         <f t="shared" si="4"/>
-        <v>6.5121279733550277E-5</v>
-      </c>
-      <c r="AB25" s="32">
-        <f t="shared" si="3"/>
         <v>-4.6872623381710775E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>23</v>
       </c>
@@ -11815,15 +12392,15 @@
         <v>1.1578648140782186</v>
       </c>
       <c r="AA26" s="32">
+        <f t="shared" si="3"/>
+        <v>-3.2076179198281801E-4</v>
+      </c>
+      <c r="AB26" s="32">
         <f t="shared" si="4"/>
-        <v>-3.2076179198281801E-4</v>
-      </c>
-      <c r="AB26" s="32">
-        <f t="shared" si="3"/>
         <v>-1.6052939598949266E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:28" s="72" customFormat="1">
+    <row r="27" spans="1:28" s="72" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="67">
         <v>24</v>
       </c>
@@ -11900,15 +12477,15 @@
         <v>1.1582490008459188</v>
       </c>
       <c r="AA27" s="68">
+        <f t="shared" si="3"/>
+        <v>-5.6016429892169518E-5</v>
+      </c>
+      <c r="AB27" s="68">
         <f t="shared" si="4"/>
-        <v>-5.6016429892169518E-5</v>
-      </c>
-      <c r="AB27" s="68">
-        <f t="shared" si="3"/>
         <v>-3.2015563975011207E-5</v>
       </c>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>25</v>
       </c>
@@ -11985,15 +12562,15 @@
         <v>1.1585168550152194</v>
       </c>
       <c r="AA28" s="32">
+        <f t="shared" si="3"/>
+        <v>1.2562506560449178E-3</v>
+      </c>
+      <c r="AB28" s="32">
         <f t="shared" si="4"/>
-        <v>1.2562506560449178E-3</v>
-      </c>
-      <c r="AB28" s="32">
-        <f t="shared" si="3"/>
         <v>-2.2321180775053406E-5</v>
       </c>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>26</v>
       </c>
@@ -12070,16 +12647,24 @@
         <v>1.1577300917512185</v>
       </c>
       <c r="AA29" s="32">
+        <f t="shared" si="3"/>
+        <v>2.6125254747091241E-3</v>
+      </c>
+      <c r="AB29" s="32">
         <f t="shared" si="4"/>
-        <v>2.6125254747091241E-3</v>
-      </c>
-      <c r="AB29" s="32">
-        <f t="shared" si="3"/>
         <v>6.5557459321592326E-5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Z2:Z3"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="B2:B3"/>
@@ -12096,28 +12681,20 @@
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Z2:Z3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:AD74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:AM74"/>
   <sheetViews>
-    <sheetView topLeftCell="T6" workbookViewId="0">
-      <selection activeCell="AF9" sqref="AF9"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AM5" sqref="AM5:AM29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="11.7109375" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
@@ -12130,92 +12707,92 @@
     <col min="24" max="24" width="15.28515625" customWidth="1"/>
     <col min="28" max="28" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.140625" style="86"/>
+    <col min="30" max="30" width="9.140625" style="77"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:30" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:30" ht="15.75" thickBot="1">
-      <c r="B2" s="78" t="s">
+    <row r="1" spans="2:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="78" t="s">
+      <c r="D2" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="78" t="s">
+      <c r="E2" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="78" t="s">
+      <c r="F2" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="78" t="s">
+      <c r="G2" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="78" t="s">
+      <c r="H2" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="76" t="s">
+      <c r="I2" s="81" t="s">
         <v>191</v>
       </c>
-      <c r="J2" s="77"/>
-      <c r="K2" s="78" t="s">
+      <c r="J2" s="82"/>
+      <c r="K2" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="L2" s="78" t="s">
+      <c r="L2" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="M2" s="78" t="s">
+      <c r="M2" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="N2" s="78" t="s">
+      <c r="N2" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="O2" s="78" t="s">
+      <c r="O2" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="P2" s="78" t="s">
+      <c r="P2" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="Q2" s="78" t="s">
+      <c r="Q2" s="79" t="s">
         <v>181</v>
       </c>
-      <c r="R2" s="78" t="s">
+      <c r="R2" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="S2" s="78" t="s">
+      <c r="S2" s="79" t="s">
         <v>60</v>
       </c>
       <c r="V2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="2:30" ht="15.75" thickBot="1">
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
+    <row r="3" spans="2:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
       <c r="I3" s="28" t="s">
         <v>183</v>
       </c>
       <c r="J3" s="28" t="s">
         <v>184</v>
       </c>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="79"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="79"/>
-      <c r="R3" s="79"/>
-      <c r="S3" s="79"/>
-    </row>
-    <row r="4" spans="2:30" ht="15.75" thickBot="1">
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+    </row>
+    <row r="4" spans="2:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="30" t="s">
         <v>1</v>
       </c>
@@ -12292,7 +12869,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="2:30">
+    <row r="5" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B5" s="16">
         <v>1</v>
       </c>
@@ -12369,10 +12946,10 @@
         <f>6.06241971886159E-10*W5^6 - 1.32494472434079E-07*W5^5 + 9.18618579521347E-06*W5^4 - 0.000093068715449367*W5^3 - 0.0151387134115026*W5^2 + 0.603438740730304*W5 - 3.37847555459548</f>
         <v>1.4053398841586522</v>
       </c>
-      <c r="AB5" s="87">
+      <c r="AB5" s="78">
         <v>1.2798601178484099E-3</v>
       </c>
-      <c r="AC5" s="85">
+      <c r="AC5" s="76">
         <f>AB5*1000</f>
         <v>1.2798601178484099</v>
       </c>
@@ -12380,8 +12957,32 @@
         <f xml:space="preserve"> 7.59084280689223E-11*W5^6 + 1.40413429301879E-08*W5^5 - 6.60242755239855E-06*W5^4 + 0.000741177243225763*W5^3 - 0.0373181765657033*W5^2 + 0.869789904532575*W5 - 4.34084418714931</f>
         <v>1.3394017872052242</v>
       </c>
-    </row>
-    <row r="6" spans="2:30">
+      <c r="AF5">
+        <v>2.8052958126798099E-3</v>
+      </c>
+      <c r="AG5">
+        <v>16.64</v>
+      </c>
+      <c r="AH5">
+        <f>AF5*1000</f>
+        <v>2.8052958126798098</v>
+      </c>
+      <c r="AJ5">
+        <v>2.8512505044740199E-3</v>
+      </c>
+      <c r="AK5">
+        <v>16.64</v>
+      </c>
+      <c r="AL5">
+        <f>AJ5*1000</f>
+        <v>2.8512505044740197</v>
+      </c>
+      <c r="AM5">
+        <f xml:space="preserve"> -2.16082688844581E-10*W5^6 + 6.46782659557976E-08*W5^5 - 8.49734349015491E-06*W5^4 + 0.00065425857961095*W5^3 - 0.0308797096673257*W5^2 + 0.748436314557662*W5 - 3.45025091908591</f>
+        <v>0.95033014947028249</v>
+      </c>
+    </row>
+    <row r="6" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B6" s="16">
         <v>2</v>
       </c>
@@ -12458,10 +13059,10 @@
         <f t="shared" ref="AA6:AA29" si="3">6.06241971886159E-10*W6^6 - 1.32494472434079E-07*W6^5 + 9.18618579521347E-06*W6^4 - 0.000093068715449367*W6^3 - 0.0151387134115026*W6^2 + 0.603438740730304*W6 - 3.37847555459548</f>
         <v>1.4288404710189178</v>
       </c>
-      <c r="AB6" s="87">
+      <c r="AB6" s="78">
         <v>1.5023136362685701E-3</v>
       </c>
-      <c r="AC6" s="85">
+      <c r="AC6" s="76">
         <f t="shared" ref="AC6:AC29" si="4">AB6*1000</f>
         <v>1.5023136362685701</v>
       </c>
@@ -12469,8 +13070,32 @@
         <f t="shared" ref="AD6:AD29" si="5" xml:space="preserve"> 7.59084280689223E-11*W6^6 + 1.40413429301879E-08*W6^5 - 6.60242755239855E-06*W6^4 + 0.000741177243225763*W6^3 - 0.0373181765657033*W6^2 + 0.869789904532575*W6 - 4.34084418714931</f>
         <v>1.4211626451622319</v>
       </c>
-    </row>
-    <row r="7" spans="2:30">
+      <c r="AF6">
+        <v>3.1938164131556398E-3</v>
+      </c>
+      <c r="AG6">
+        <v>19.309999999999999</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" ref="AH6:AH21" si="6">AF6*1000</f>
+        <v>3.1938164131556399</v>
+      </c>
+      <c r="AJ6">
+        <v>3.22426553968254E-3</v>
+      </c>
+      <c r="AK6">
+        <v>19.309999999999999</v>
+      </c>
+      <c r="AL6">
+        <f t="shared" ref="AL6:AL21" si="7">AJ6*1000</f>
+        <v>3.2242655396825399</v>
+      </c>
+      <c r="AM6">
+        <f t="shared" ref="AM6:AM29" si="8" xml:space="preserve"> -2.16082688844581E-10*W6^6 + 6.46782659557976E-08*W6^5 - 8.49734349015491E-06*W6^4 + 0.00065425857961095*W6^3 - 0.0308797096673257*W6^2 + 0.748436314557662*W6 - 3.45025091908591</f>
+        <v>1.0741707886990994</v>
+      </c>
+    </row>
+    <row r="7" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B7" s="16">
         <v>3</v>
       </c>
@@ -12547,10 +13172,10 @@
         <f t="shared" si="3"/>
         <v>1.5973031259427466</v>
       </c>
-      <c r="AB7" s="87">
+      <c r="AB7" s="78">
         <v>1.6872585991282499E-3</v>
       </c>
-      <c r="AC7" s="85">
+      <c r="AC7" s="76">
         <f t="shared" si="4"/>
         <v>1.6872585991282498</v>
       </c>
@@ -12558,8 +13183,32 @@
         <f t="shared" si="5"/>
         <v>1.5863089231076994</v>
       </c>
-    </row>
-    <row r="8" spans="2:30">
+      <c r="AF7">
+        <v>3.4967784444109098E-3</v>
+      </c>
+      <c r="AG7">
+        <v>21.97</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="6"/>
+        <v>3.4967784444109098</v>
+      </c>
+      <c r="AJ7">
+        <v>3.4195653807722699E-3</v>
+      </c>
+      <c r="AK7">
+        <v>21.97</v>
+      </c>
+      <c r="AL7">
+        <f t="shared" si="7"/>
+        <v>3.4195653807722697</v>
+      </c>
+      <c r="AM7">
+        <f t="shared" si="8"/>
+        <v>1.1636050057088312</v>
+      </c>
+    </row>
+    <row r="8" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B8" s="16">
         <v>4</v>
       </c>
@@ -12636,10 +13285,10 @@
         <f t="shared" si="3"/>
         <v>1.8045493139135851</v>
       </c>
-      <c r="AB8" s="87">
+      <c r="AB8" s="78">
         <v>1.7082293397893699E-3</v>
       </c>
-      <c r="AC8" s="85">
+      <c r="AC8" s="76">
         <f t="shared" si="4"/>
         <v>1.70822933978937</v>
       </c>
@@ -12647,8 +13296,32 @@
         <f t="shared" si="5"/>
         <v>1.7734684684783897</v>
       </c>
-    </row>
-    <row r="9" spans="2:30">
+      <c r="AF8">
+        <v>3.5135040201779702E-3</v>
+      </c>
+      <c r="AG8">
+        <v>24.11</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" si="6"/>
+        <v>3.5135040201779701</v>
+      </c>
+      <c r="AJ8">
+        <v>3.5004488432196202E-3</v>
+      </c>
+      <c r="AK8">
+        <v>24.11</v>
+      </c>
+      <c r="AL8">
+        <f t="shared" si="7"/>
+        <v>3.5004488432196204</v>
+      </c>
+      <c r="AM8">
+        <f t="shared" si="8"/>
+        <v>1.2418064344033937</v>
+      </c>
+    </row>
+    <row r="9" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B9" s="16">
         <v>5</v>
       </c>
@@ -12725,10 +13398,10 @@
         <f t="shared" si="3"/>
         <v>2.039274679081823</v>
       </c>
-      <c r="AB9" s="87">
+      <c r="AB9" s="78">
         <v>1.8577757710259101E-3</v>
       </c>
-      <c r="AC9" s="85">
+      <c r="AC9" s="76">
         <f t="shared" si="4"/>
         <v>1.8577757710259102</v>
       </c>
@@ -12736,8 +13409,32 @@
         <f t="shared" si="5"/>
         <v>1.9871243382048771</v>
       </c>
-    </row>
-    <row r="10" spans="2:30">
+      <c r="AF9">
+        <v>3.12042400564405E-3</v>
+      </c>
+      <c r="AG9">
+        <v>27.31</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" si="6"/>
+        <v>3.12042400564405</v>
+      </c>
+      <c r="AJ9">
+        <v>3.2102927605710801E-3</v>
+      </c>
+      <c r="AK9">
+        <v>27.31</v>
+      </c>
+      <c r="AL9">
+        <f t="shared" si="7"/>
+        <v>3.2102927605710803</v>
+      </c>
+      <c r="AM9">
+        <f t="shared" si="8"/>
+        <v>1.335498331456094</v>
+      </c>
+    </row>
+    <row r="10" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B10" s="16">
         <v>6</v>
       </c>
@@ -12814,10 +13511,10 @@
         <f t="shared" si="3"/>
         <v>2.2189610539349993</v>
       </c>
-      <c r="AB10" s="87">
+      <c r="AB10" s="78">
         <v>2.1716127232829299E-3</v>
       </c>
-      <c r="AC10" s="85">
+      <c r="AC10" s="76">
         <f t="shared" si="4"/>
         <v>2.1716127232829301</v>
       </c>
@@ -12825,8 +13522,32 @@
         <f t="shared" si="5"/>
         <v>2.1574233541844219</v>
       </c>
-    </row>
-    <row r="11" spans="2:30">
+      <c r="AF10">
+        <v>3.3685520701132602E-3</v>
+      </c>
+      <c r="AG10">
+        <v>29.97</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" si="6"/>
+        <v>3.3685520701132603</v>
+      </c>
+      <c r="AJ10">
+        <v>3.24524624224563E-3</v>
+      </c>
+      <c r="AK10">
+        <v>29.97</v>
+      </c>
+      <c r="AL10">
+        <f t="shared" si="7"/>
+        <v>3.2452462422456301</v>
+      </c>
+      <c r="AM10">
+        <f t="shared" si="8"/>
+        <v>1.4261906583267034</v>
+      </c>
+    </row>
+    <row r="11" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B11" s="16">
         <v>7</v>
       </c>
@@ -12903,10 +13624,10 @@
         <f t="shared" si="3"/>
         <v>2.359060997601889</v>
       </c>
-      <c r="AB11" s="87">
+      <c r="AB11" s="78">
         <v>2.3892370792404001E-3</v>
       </c>
-      <c r="AC11" s="85">
+      <c r="AC11" s="76">
         <f t="shared" si="4"/>
         <v>2.3892370792404001</v>
       </c>
@@ -12914,8 +13635,32 @@
         <f t="shared" si="5"/>
         <v>2.2972963540931897</v>
       </c>
-    </row>
-    <row r="12" spans="2:30">
+      <c r="AF11">
+        <v>3.4872504249901402E-3</v>
+      </c>
+      <c r="AG11">
+        <v>32.11</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" si="6"/>
+        <v>3.4872504249901404</v>
+      </c>
+      <c r="AJ11">
+        <v>3.6160593608660801E-3</v>
+      </c>
+      <c r="AK11">
+        <v>32.11</v>
+      </c>
+      <c r="AL11">
+        <f t="shared" si="7"/>
+        <v>3.61605936086608</v>
+      </c>
+      <c r="AM11">
+        <f t="shared" si="8"/>
+        <v>1.5198728820747576</v>
+      </c>
+    </row>
+    <row r="12" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B12" s="16">
         <v>8</v>
       </c>
@@ -12992,10 +13737,10 @@
         <f t="shared" si="3"/>
         <v>2.4877732036187994</v>
       </c>
-      <c r="AB12" s="87">
+      <c r="AB12" s="78">
         <v>2.3379968198957999E-3</v>
       </c>
-      <c r="AC12" s="85">
+      <c r="AC12" s="76">
         <f t="shared" si="4"/>
         <v>2.3379968198957997</v>
       </c>
@@ -13003,8 +13748,32 @@
         <f t="shared" si="5"/>
         <v>2.43421769041103</v>
       </c>
-    </row>
-    <row r="13" spans="2:30">
+      <c r="AF12">
+        <v>3.22922735571839E-3</v>
+      </c>
+      <c r="AG12">
+        <v>35.840000000000003</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" si="6"/>
+        <v>3.2292273557183901</v>
+      </c>
+      <c r="AJ12">
+        <v>3.2447244591177001E-3</v>
+      </c>
+      <c r="AK12">
+        <v>35.840000000000003</v>
+      </c>
+      <c r="AL12">
+        <f t="shared" si="7"/>
+        <v>3.2447244591177</v>
+      </c>
+      <c r="AM12">
+        <f t="shared" si="8"/>
+        <v>1.6384070286042061</v>
+      </c>
+    </row>
+    <row r="13" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B13" s="39">
         <v>9</v>
       </c>
@@ -13081,10 +13850,10 @@
         <f t="shared" si="3"/>
         <v>3.034261438139739</v>
       </c>
-      <c r="AB13" s="87">
+      <c r="AB13" s="78">
         <v>2.36245404595011E-3</v>
       </c>
-      <c r="AC13" s="85">
+      <c r="AC13" s="76">
         <f t="shared" si="4"/>
         <v>2.36245404595011</v>
       </c>
@@ -13092,8 +13861,32 @@
         <f t="shared" si="5"/>
         <v>3.0411331415600653</v>
       </c>
-    </row>
-    <row r="14" spans="2:30">
+      <c r="AF13">
+        <v>2.77602557649684E-3</v>
+      </c>
+      <c r="AG13">
+        <v>40.11</v>
+      </c>
+      <c r="AH13">
+        <f t="shared" si="6"/>
+        <v>2.7760255764968398</v>
+      </c>
+      <c r="AJ13">
+        <v>2.9073729564253201E-3</v>
+      </c>
+      <c r="AK13">
+        <v>40.11</v>
+      </c>
+      <c r="AL13">
+        <f t="shared" si="7"/>
+        <v>2.9073729564253199</v>
+      </c>
+      <c r="AM13">
+        <f t="shared" si="8"/>
+        <v>2.9857852991194385</v>
+      </c>
+    </row>
+    <row r="14" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B14" s="16">
         <v>10</v>
       </c>
@@ -13170,10 +13963,10 @@
         <f t="shared" si="3"/>
         <v>3.1136999443070654</v>
       </c>
-      <c r="AB14" s="87">
+      <c r="AB14" s="78">
         <v>2.6407298507069498E-3</v>
       </c>
-      <c r="AC14" s="85">
+      <c r="AC14" s="76">
         <f t="shared" si="4"/>
         <v>2.6407298507069497</v>
       </c>
@@ -13181,8 +13974,32 @@
         <f t="shared" si="5"/>
         <v>3.1064455284680772</v>
       </c>
-    </row>
-    <row r="15" spans="2:30">
+      <c r="AF14">
+        <v>2.7354704900806799E-3</v>
+      </c>
+      <c r="AG14">
+        <v>42.77</v>
+      </c>
+      <c r="AH14">
+        <f t="shared" si="6"/>
+        <v>2.7354704900806799</v>
+      </c>
+      <c r="AJ14">
+        <v>2.5911694549771301E-3</v>
+      </c>
+      <c r="AK14">
+        <v>42.77</v>
+      </c>
+      <c r="AL14">
+        <f t="shared" si="7"/>
+        <v>2.59116945497713</v>
+      </c>
+      <c r="AM14">
+        <f t="shared" si="8"/>
+        <v>3.1527145484440027</v>
+      </c>
+    </row>
+    <row r="15" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B15" s="16">
         <v>11</v>
       </c>
@@ -13259,10 +14076,10 @@
         <f t="shared" si="3"/>
         <v>2.7426835244621253</v>
       </c>
-      <c r="AB15" s="87">
+      <c r="AB15" s="78">
         <v>2.69605856730642E-3</v>
       </c>
-      <c r="AC15" s="85">
+      <c r="AC15" s="76">
         <f t="shared" si="4"/>
         <v>2.6960585673064199</v>
       </c>
@@ -13270,8 +14087,32 @@
         <f t="shared" si="5"/>
         <v>2.743421469805325</v>
       </c>
-    </row>
-    <row r="16" spans="2:30">
+      <c r="AF15">
+        <v>2.4694824380478001E-3</v>
+      </c>
+      <c r="AG15">
+        <v>47.57</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" si="6"/>
+        <v>2.4694824380478</v>
+      </c>
+      <c r="AJ15">
+        <v>2.6454262093219601E-3</v>
+      </c>
+      <c r="AK15">
+        <v>47.57</v>
+      </c>
+      <c r="AL15">
+        <f t="shared" si="7"/>
+        <v>2.6454262093219603</v>
+      </c>
+      <c r="AM15">
+        <f t="shared" si="8"/>
+        <v>2.112955509171222</v>
+      </c>
+    </row>
+    <row r="16" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B16" s="16">
         <v>12</v>
       </c>
@@ -13348,10 +14189,10 @@
         <f t="shared" si="3"/>
         <v>2.7952354531311792</v>
       </c>
-      <c r="AB16" s="87">
+      <c r="AB16" s="78">
         <v>2.8188550729594899E-3</v>
       </c>
-      <c r="AC16" s="85">
+      <c r="AC16" s="76">
         <f t="shared" si="4"/>
         <v>2.8188550729594901</v>
       </c>
@@ -13359,8 +14200,32 @@
         <f t="shared" si="5"/>
         <v>2.8097636604904661</v>
       </c>
-    </row>
-    <row r="17" spans="2:30">
+      <c r="AF16">
+        <v>2.0581104764544399E-3</v>
+      </c>
+      <c r="AG16">
+        <v>51.84</v>
+      </c>
+      <c r="AH16">
+        <f t="shared" si="6"/>
+        <v>2.05811047645444</v>
+      </c>
+      <c r="AJ16">
+        <v>2.1036313919656599E-3</v>
+      </c>
+      <c r="AK16">
+        <v>51.84</v>
+      </c>
+      <c r="AL16">
+        <f t="shared" si="7"/>
+        <v>2.10363139196566</v>
+      </c>
+      <c r="AM16">
+        <f t="shared" si="8"/>
+        <v>2.2835132760248769</v>
+      </c>
+    </row>
+    <row r="17" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B17" s="16">
         <v>13</v>
       </c>
@@ -13437,10 +14302,10 @@
         <f t="shared" si="3"/>
         <v>2.8465538828354924</v>
       </c>
-      <c r="AB17" s="87">
+      <c r="AB17" s="78">
         <v>3.09175188454053E-3</v>
       </c>
-      <c r="AC17" s="85">
+      <c r="AC17" s="76">
         <f t="shared" si="4"/>
         <v>3.0917518845405301</v>
       </c>
@@ -13448,8 +14313,32 @@
         <f t="shared" si="5"/>
         <v>2.8689854664543812</v>
       </c>
-    </row>
-    <row r="18" spans="2:30">
+      <c r="AF17">
+        <v>1.7045804729463501E-3</v>
+      </c>
+      <c r="AG17">
+        <v>57.71</v>
+      </c>
+      <c r="AH17">
+        <f t="shared" si="6"/>
+        <v>1.7045804729463501</v>
+      </c>
+      <c r="AJ17">
+        <v>1.71806453890813E-3</v>
+      </c>
+      <c r="AK17">
+        <v>57.71</v>
+      </c>
+      <c r="AL17">
+        <f t="shared" si="7"/>
+        <v>1.7180645389081299</v>
+      </c>
+      <c r="AM17">
+        <f t="shared" si="8"/>
+        <v>2.4598524108394173</v>
+      </c>
+    </row>
+    <row r="18" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B18" s="16">
         <v>14</v>
       </c>
@@ -13526,10 +14415,10 @@
         <f t="shared" si="3"/>
         <v>2.9014932697510845</v>
       </c>
-      <c r="AB18" s="87">
+      <c r="AB18" s="78">
         <v>3.0875622905918399E-3</v>
       </c>
-      <c r="AC18" s="85">
+      <c r="AC18" s="76">
         <f t="shared" si="4"/>
         <v>3.0875622905918401</v>
       </c>
@@ -13537,8 +14426,32 @@
         <f t="shared" si="5"/>
         <v>2.9249424288471939</v>
       </c>
-    </row>
-    <row r="19" spans="2:30">
+      <c r="AF18">
+        <v>1.5328655605900501E-3</v>
+      </c>
+      <c r="AG18">
+        <v>64.64</v>
+      </c>
+      <c r="AH18">
+        <f t="shared" si="6"/>
+        <v>1.5328655605900501</v>
+      </c>
+      <c r="AJ18">
+        <v>1.55452148474881E-3</v>
+      </c>
+      <c r="AK18">
+        <v>64.64</v>
+      </c>
+      <c r="AL18">
+        <f t="shared" si="7"/>
+        <v>1.55452148474881</v>
+      </c>
+      <c r="AM18">
+        <f t="shared" si="8"/>
+        <v>2.6374542532032663</v>
+      </c>
+    </row>
+    <row r="19" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B19" s="16">
         <v>15</v>
       </c>
@@ -13615,10 +14528,10 @@
         <f t="shared" si="3"/>
         <v>2.969541829050192</v>
       </c>
-      <c r="AB19" s="87">
+      <c r="AB19" s="78">
         <v>3.1985045672881002E-3</v>
       </c>
-      <c r="AC19" s="85">
+      <c r="AC19" s="76">
         <f t="shared" si="4"/>
         <v>3.1985045672881003</v>
       </c>
@@ -13626,8 +14539,32 @@
         <f t="shared" si="5"/>
         <v>2.9865887567497094</v>
       </c>
-    </row>
-    <row r="20" spans="2:30">
+      <c r="AF19">
+        <v>1.366424669144E-3</v>
+      </c>
+      <c r="AG19">
+        <v>69.97</v>
+      </c>
+      <c r="AH19">
+        <f t="shared" si="6"/>
+        <v>1.3664246691439998</v>
+      </c>
+      <c r="AJ19">
+        <v>1.3425663988178699E-3</v>
+      </c>
+      <c r="AK19">
+        <v>69.97</v>
+      </c>
+      <c r="AL19">
+        <f t="shared" si="7"/>
+        <v>1.34256639881787</v>
+      </c>
+      <c r="AM19">
+        <f t="shared" si="8"/>
+        <v>2.8292738973170763</v>
+      </c>
+    </row>
+    <row r="20" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B20" s="16">
         <v>16</v>
       </c>
@@ -13704,10 +14641,10 @@
         <f t="shared" si="3"/>
         <v>3.0385390017782101</v>
       </c>
-      <c r="AB20" s="87">
+      <c r="AB20" s="78">
         <v>3.2310171802684999E-3</v>
       </c>
-      <c r="AC20" s="85">
+      <c r="AC20" s="76">
         <f t="shared" si="4"/>
         <v>3.2310171802684997</v>
       </c>
@@ -13715,8 +14652,32 @@
         <f t="shared" si="5"/>
         <v>3.0446683487713582</v>
       </c>
-    </row>
-    <row r="21" spans="2:30">
+      <c r="AF20">
+        <v>1.14985009748537E-3</v>
+      </c>
+      <c r="AG20">
+        <v>75.31</v>
+      </c>
+      <c r="AH20">
+        <f t="shared" si="6"/>
+        <v>1.14985009748537</v>
+      </c>
+      <c r="AJ20">
+        <v>1.0959514935605099E-3</v>
+      </c>
+      <c r="AK20">
+        <v>75.31</v>
+      </c>
+      <c r="AL20">
+        <f t="shared" si="7"/>
+        <v>1.0959514935605099</v>
+      </c>
+      <c r="AM20">
+        <f t="shared" si="8"/>
+        <v>2.9953985849737954</v>
+      </c>
+    </row>
+    <row r="21" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B21" s="16">
         <v>17</v>
       </c>
@@ -13793,10 +14754,10 @@
         <f t="shared" si="3"/>
         <v>3.1035688015870115</v>
       </c>
-      <c r="AB21" s="87">
+      <c r="AB21" s="78">
         <v>3.20026486641281E-3</v>
       </c>
-      <c r="AC21" s="85">
+      <c r="AC21" s="76">
         <f t="shared" si="4"/>
         <v>3.2002648664128102</v>
       </c>
@@ -13804,8 +14765,32 @@
         <f t="shared" si="5"/>
         <v>3.0981053910238128</v>
       </c>
-    </row>
-    <row r="22" spans="2:30">
+      <c r="AF21">
+        <v>1.0139474364558099E-3</v>
+      </c>
+      <c r="AG21">
+        <v>80.64</v>
+      </c>
+      <c r="AH21">
+        <f t="shared" si="6"/>
+        <v>1.0139474364558099</v>
+      </c>
+      <c r="AJ21">
+        <v>1.01053361118187E-3</v>
+      </c>
+      <c r="AK21">
+        <v>80.64</v>
+      </c>
+      <c r="AL21">
+        <f t="shared" si="7"/>
+        <v>1.0105336111818699</v>
+      </c>
+      <c r="AM21">
+        <f t="shared" si="8"/>
+        <v>3.1326348909191566</v>
+      </c>
+    </row>
+    <row r="22" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B22" s="16">
         <v>18</v>
       </c>
@@ -13882,10 +14867,10 @@
         <f t="shared" si="3"/>
         <v>3.2152239773908282</v>
       </c>
-      <c r="AB22" s="87">
+      <c r="AB22" s="78">
         <v>3.3533255127467698E-3</v>
       </c>
-      <c r="AC22" s="85">
+      <c r="AC22" s="76">
         <f t="shared" si="4"/>
         <v>3.3533255127467698</v>
       </c>
@@ -13893,8 +14878,12 @@
         <f t="shared" si="5"/>
         <v>3.1930141365491966</v>
       </c>
-    </row>
-    <row r="23" spans="2:30">
+      <c r="AM22">
+        <f t="shared" si="8"/>
+        <v>3.341742229549034</v>
+      </c>
+    </row>
+    <row r="23" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B23" s="16">
         <v>19</v>
       </c>
@@ -13971,10 +14960,10 @@
         <f t="shared" si="3"/>
         <v>3.2643290339705495</v>
       </c>
-      <c r="AB23" s="87">
+      <c r="AB23" s="78">
         <v>3.5245107757621501E-3</v>
       </c>
-      <c r="AC23" s="85">
+      <c r="AC23" s="76">
         <f t="shared" si="4"/>
         <v>3.5245107757621499</v>
       </c>
@@ -13982,8 +14971,12 @@
         <f t="shared" si="5"/>
         <v>3.2469850688769331</v>
       </c>
-    </row>
-    <row r="24" spans="2:30">
+      <c r="AM23">
+        <f t="shared" si="8"/>
+        <v>3.4463979799125166</v>
+      </c>
+    </row>
+    <row r="24" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B24" s="16">
         <v>20</v>
       </c>
@@ -14060,10 +15053,10 @@
         <f t="shared" si="3"/>
         <v>3.2478683276516009</v>
       </c>
-      <c r="AB24" s="87">
+      <c r="AB24" s="78">
         <v>3.2070365817651299E-3</v>
       </c>
-      <c r="AC24" s="85">
+      <c r="AC24" s="76">
         <f t="shared" si="4"/>
         <v>3.2070365817651298</v>
       </c>
@@ -14071,8 +15064,12 @@
         <f t="shared" si="5"/>
         <v>3.2447020948582583</v>
       </c>
-    </row>
-    <row r="25" spans="2:30">
+      <c r="AM24">
+        <f t="shared" si="8"/>
+        <v>3.4505731398712562</v>
+      </c>
+    </row>
+    <row r="25" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B25" s="16">
         <v>21</v>
       </c>
@@ -14149,10 +15146,10 @@
         <f t="shared" si="3"/>
         <v>3.1805146610008657</v>
       </c>
-      <c r="AB25" s="87">
+      <c r="AB25" s="78">
         <v>3.28710407474123E-3</v>
       </c>
-      <c r="AC25" s="85">
+      <c r="AC25" s="76">
         <f t="shared" si="4"/>
         <v>3.2871040747412299</v>
       </c>
@@ -14160,8 +15157,12 @@
         <f t="shared" si="5"/>
         <v>3.2037745260909762</v>
       </c>
-    </row>
-    <row r="26" spans="2:30">
+      <c r="AM25">
+        <f t="shared" si="8"/>
+        <v>3.4052899330790627</v>
+      </c>
+    </row>
+    <row r="26" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B26" s="16">
         <v>22</v>
       </c>
@@ -14238,10 +15239,10 @@
         <f t="shared" si="3"/>
         <v>3.0266408130024085</v>
       </c>
-      <c r="AB26" s="87">
+      <c r="AB26" s="78">
         <v>3.1872965346978902E-3</v>
       </c>
-      <c r="AC26" s="85">
+      <c r="AC26" s="76">
         <f t="shared" si="4"/>
         <v>3.1872965346978903</v>
       </c>
@@ -14249,8 +15250,12 @@
         <f t="shared" si="5"/>
         <v>3.0909986775222809</v>
       </c>
-    </row>
-    <row r="27" spans="2:30">
+      <c r="AM26">
+        <f t="shared" si="8"/>
+        <v>3.2786460304760467</v>
+      </c>
+    </row>
+    <row r="27" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B27" s="16">
         <v>23</v>
       </c>
@@ -14327,10 +15332,10 @@
         <f t="shared" si="3"/>
         <v>2.7346511185536886</v>
       </c>
-      <c r="AB27" s="87">
+      <c r="AB27" s="78">
         <v>2.5588197188654402E-3</v>
       </c>
-      <c r="AC27" s="85">
+      <c r="AC27" s="76">
         <f t="shared" si="4"/>
         <v>2.5588197188654402</v>
       </c>
@@ -14338,8 +15343,12 @@
         <f t="shared" si="5"/>
         <v>2.8526265795423633</v>
       </c>
-    </row>
-    <row r="28" spans="2:30">
+      <c r="AM27">
+        <f t="shared" si="8"/>
+        <v>3.0234279543998444</v>
+      </c>
+    </row>
+    <row r="28" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B28" s="16">
         <v>24</v>
       </c>
@@ -14416,10 +15425,10 @@
         <f t="shared" si="3"/>
         <v>2.2328599596907526</v>
       </c>
-      <c r="AB28" s="87">
+      <c r="AB28" s="78">
         <v>2.42100809533723E-3</v>
       </c>
-      <c r="AC28" s="85">
+      <c r="AC28" s="76">
         <f t="shared" si="4"/>
         <v>2.4210080953372302</v>
       </c>
@@ -14427,8 +15436,12 @@
         <f t="shared" si="5"/>
         <v>2.4036241490231394</v>
       </c>
-    </row>
-    <row r="29" spans="2:30">
+      <c r="AM28">
+        <f t="shared" si="8"/>
+        <v>2.569256437695481</v>
+      </c>
+    </row>
+    <row r="29" spans="2:39" x14ac:dyDescent="0.25">
       <c r="B29" s="16">
         <v>25</v>
       </c>
@@ -14505,10 +15518,10 @@
         <f t="shared" si="3"/>
         <v>1.5006003129472041</v>
       </c>
-      <c r="AB29" s="87">
+      <c r="AB29" s="78">
         <v>1.74371653143531E-3</v>
       </c>
-      <c r="AC29" s="85">
+      <c r="AC29" s="76">
         <f t="shared" si="4"/>
         <v>1.74371653143531</v>
       </c>
@@ -14516,11 +15529,15 @@
         <f t="shared" si="5"/>
         <v>1.6881172597800287</v>
       </c>
-    </row>
-    <row r="30" spans="2:30">
-      <c r="AC30" s="87"/>
-    </row>
-    <row r="36" spans="2:22">
+      <c r="AM29">
+        <f t="shared" si="8"/>
+        <v>1.8818967122664008</v>
+      </c>
+    </row>
+    <row r="30" spans="2:39" x14ac:dyDescent="0.25">
+      <c r="AC30" s="78"/>
+    </row>
+    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -14543,7 +15560,7 @@
       <c r="U36" s="6"/>
       <c r="V36" s="6"/>
     </row>
-    <row r="37" spans="2:22">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="29"/>
@@ -14566,7 +15583,7 @@
       <c r="U37" s="6"/>
       <c r="V37" s="6"/>
     </row>
-    <row r="38" spans="2:22">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="29"/>
@@ -14589,7 +15606,7 @@
       <c r="U38" s="6"/>
       <c r="V38" s="6"/>
     </row>
-    <row r="39" spans="2:22">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="29"/>
@@ -14612,7 +15629,7 @@
       <c r="U39" s="6"/>
       <c r="V39" s="6"/>
     </row>
-    <row r="40" spans="2:22">
+    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="29"/>
@@ -14635,7 +15652,7 @@
       <c r="U40" s="6"/>
       <c r="V40" s="6"/>
     </row>
-    <row r="41" spans="2:22">
+    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="29"/>
@@ -14658,7 +15675,7 @@
       <c r="U41" s="6"/>
       <c r="V41" s="6"/>
     </row>
-    <row r="42" spans="2:22">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
       <c r="D42" s="29"/>
@@ -14681,7 +15698,7 @@
       <c r="U42" s="6"/>
       <c r="V42" s="6"/>
     </row>
-    <row r="43" spans="2:22">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
       <c r="D43" s="29"/>
@@ -14704,7 +15721,7 @@
       <c r="U43" s="6"/>
       <c r="V43" s="6"/>
     </row>
-    <row r="44" spans="2:22">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="D44" s="29"/>
@@ -14727,7 +15744,7 @@
       <c r="U44" s="6"/>
       <c r="V44" s="6"/>
     </row>
-    <row r="45" spans="2:22">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="D45" s="29"/>
@@ -14750,7 +15767,7 @@
       <c r="U45" s="6"/>
       <c r="V45" s="6"/>
     </row>
-    <row r="46" spans="2:22">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
       <c r="D46" s="29"/>
@@ -14773,7 +15790,7 @@
       <c r="U46" s="6"/>
       <c r="V46" s="6"/>
     </row>
-    <row r="47" spans="2:22">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
       <c r="D47" s="29"/>
@@ -14796,7 +15813,7 @@
       <c r="U47" s="6"/>
       <c r="V47" s="6"/>
     </row>
-    <row r="48" spans="2:22">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
       <c r="D48" s="29"/>
@@ -14819,7 +15836,7 @@
       <c r="U48" s="6"/>
       <c r="V48" s="6"/>
     </row>
-    <row r="49" spans="2:22">
+    <row r="49" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
       <c r="D49" s="29"/>
@@ -14842,7 +15859,7 @@
       <c r="U49" s="6"/>
       <c r="V49" s="6"/>
     </row>
-    <row r="50" spans="2:22">
+    <row r="50" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
       <c r="D50" s="29"/>
@@ -14865,7 +15882,7 @@
       <c r="U50" s="6"/>
       <c r="V50" s="6"/>
     </row>
-    <row r="51" spans="2:22">
+    <row r="51" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
       <c r="D51" s="29"/>
@@ -14888,7 +15905,7 @@
       <c r="U51" s="6"/>
       <c r="V51" s="6"/>
     </row>
-    <row r="52" spans="2:22">
+    <row r="52" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
       <c r="D52" s="29"/>
@@ -14911,7 +15928,7 @@
       <c r="U52" s="6"/>
       <c r="V52" s="6"/>
     </row>
-    <row r="53" spans="2:22">
+    <row r="53" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="29"/>
@@ -14934,7 +15951,7 @@
       <c r="U53" s="6"/>
       <c r="V53" s="6"/>
     </row>
-    <row r="54" spans="2:22">
+    <row r="54" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
       <c r="D54" s="29"/>
@@ -14957,7 +15974,7 @@
       <c r="U54" s="6"/>
       <c r="V54" s="6"/>
     </row>
-    <row r="55" spans="2:22">
+    <row r="55" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
       <c r="D55" s="29"/>
@@ -14980,7 +15997,7 @@
       <c r="U55" s="6"/>
       <c r="V55" s="6"/>
     </row>
-    <row r="56" spans="2:22">
+    <row r="56" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
       <c r="D56" s="29"/>
@@ -15003,7 +16020,7 @@
       <c r="U56" s="6"/>
       <c r="V56" s="6"/>
     </row>
-    <row r="57" spans="2:22">
+    <row r="57" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
       <c r="D57" s="29"/>
@@ -15026,7 +16043,7 @@
       <c r="U57" s="6"/>
       <c r="V57" s="6"/>
     </row>
-    <row r="58" spans="2:22">
+    <row r="58" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
       <c r="D58" s="29"/>
@@ -15049,7 +16066,7 @@
       <c r="U58" s="6"/>
       <c r="V58" s="6"/>
     </row>
-    <row r="59" spans="2:22">
+    <row r="59" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
       <c r="D59" s="29"/>
@@ -15072,7 +16089,7 @@
       <c r="U59" s="6"/>
       <c r="V59" s="6"/>
     </row>
-    <row r="60" spans="2:22">
+    <row r="60" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
       <c r="D60" s="29"/>
@@ -15095,7 +16112,7 @@
       <c r="U60" s="6"/>
       <c r="V60" s="6"/>
     </row>
-    <row r="61" spans="2:22">
+    <row r="61" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
       <c r="D61" s="29"/>
@@ -15118,7 +16135,7 @@
       <c r="U61" s="6"/>
       <c r="V61" s="6"/>
     </row>
-    <row r="62" spans="2:22">
+    <row r="62" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -15141,7 +16158,7 @@
       <c r="U62" s="6"/>
       <c r="V62" s="6"/>
     </row>
-    <row r="63" spans="2:22">
+    <row r="63" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
@@ -15164,7 +16181,7 @@
       <c r="U63" s="6"/>
       <c r="V63" s="6"/>
     </row>
-    <row r="64" spans="2:22">
+    <row r="64" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
@@ -15187,7 +16204,7 @@
       <c r="U64" s="6"/>
       <c r="V64" s="6"/>
     </row>
-    <row r="65" spans="2:22">
+    <row r="65" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
@@ -15210,7 +16227,7 @@
       <c r="U65" s="6"/>
       <c r="V65" s="6"/>
     </row>
-    <row r="66" spans="2:22">
+    <row r="66" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
@@ -15233,7 +16250,7 @@
       <c r="U66" s="6"/>
       <c r="V66" s="6"/>
     </row>
-    <row r="67" spans="2:22">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
@@ -15256,7 +16273,7 @@
       <c r="U67" s="6"/>
       <c r="V67" s="6"/>
     </row>
-    <row r="68" spans="2:22">
+    <row r="68" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
@@ -15279,7 +16296,7 @@
       <c r="U68" s="6"/>
       <c r="V68" s="6"/>
     </row>
-    <row r="69" spans="2:22">
+    <row r="69" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -15302,7 +16319,7 @@
       <c r="U69" s="6"/>
       <c r="V69" s="6"/>
     </row>
-    <row r="70" spans="2:22">
+    <row r="70" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
@@ -15325,7 +16342,7 @@
       <c r="U70" s="6"/>
       <c r="V70" s="6"/>
     </row>
-    <row r="71" spans="2:22">
+    <row r="71" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -15348,7 +16365,7 @@
       <c r="U71" s="6"/>
       <c r="V71" s="6"/>
     </row>
-    <row r="72" spans="2:22">
+    <row r="72" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
@@ -15371,7 +16388,7 @@
       <c r="U72" s="6"/>
       <c r="V72" s="6"/>
     </row>
-    <row r="73" spans="2:22">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
@@ -15394,7 +16411,7 @@
       <c r="U73" s="6"/>
       <c r="V73" s="6"/>
     </row>
-    <row r="74" spans="2:22">
+    <row r="74" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
@@ -15419,6 +16436,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -15431,27 +16453,22 @@
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="4:4">
+    <row r="1" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D1">
         <v>8.0000000000000007E-5</v>
       </c>
